--- a/Support/A - Guides and Documentation/GLD_Dictionary_v01.xlsx
+++ b/Support/A - Guides and Documentation/GLD_Dictionary_v01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb529026\Documents\gld\Support\Guides and Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb529026\Documents\gld\Support\A - Guides and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF73109C-F8EF-42D1-A7A8-EDDCDD5B9241}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458D9869-6298-419C-A83B-6DC29AEB84D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="560">
   <si>
     <t>Module</t>
   </si>
@@ -2084,6 +2084,24 @@
   </si>
   <si>
     <t>Length of training in months, upper limit</t>
+  </si>
+  <si>
+    <t>psu</t>
+  </si>
+  <si>
+    <t>Primary Sampling unit</t>
+  </si>
+  <si>
+    <t>As in original survey, commonly string</t>
+  </si>
+  <si>
+    <t>ssu</t>
+  </si>
+  <si>
+    <t>Secondary Sampling unit</t>
+  </si>
+  <si>
+    <t>hhsize</t>
   </si>
 </sst>
 </file>
@@ -2392,9 +2410,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2565,6 +2580,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3147,27 +3165,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="65" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3187,7 +3205,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3203,7 +3221,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3217,16 +3235,16 @@
         <v>17</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
@@ -3240,14 +3258,14 @@
         <v>19</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3263,14 +3281,14 @@
       <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -3288,7 +3306,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
@@ -3302,16 +3320,16 @@
         <v>32</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -3325,14 +3343,14 @@
         <v>36</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
@@ -3346,14 +3364,14 @@
         <v>40</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="7" t="s">
         <v>41</v>
       </c>
@@ -3365,14 +3383,14 @@
       <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
@@ -3388,7 +3406,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
@@ -3424,7 +3442,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="64" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3442,7 +3460,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
@@ -3460,7 +3478,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="4" t="s">
         <v>60</v>
       </c>
@@ -3474,16 +3492,16 @@
       <c r="F17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="67" t="s">
+      <c r="I17" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="4" t="s">
         <v>64</v>
       </c>
@@ -3499,7 +3517,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="4" t="s">
         <v>67</v>
       </c>
@@ -3515,7 +3533,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="68" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -3533,16 +3551,16 @@
       <c r="F20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="70" t="s">
+      <c r="I20" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="13" t="s">
         <v>49</v>
       </c>
@@ -3558,14 +3576,14 @@
       <c r="F21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="65" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3581,14 +3599,14 @@
         <v>73</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="1" t="s">
         <v>75</v>
       </c>
@@ -3602,14 +3620,14 @@
         <v>78</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="1" t="s">
         <v>79</v>
       </c>
@@ -3625,14 +3643,14 @@
       <c r="F24" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="1" t="s">
         <v>84</v>
       </c>
@@ -3648,7 +3666,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="1" t="s">
         <v>88</v>
       </c>
@@ -3664,7 +3682,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="1" t="s">
         <v>91</v>
       </c>
@@ -3675,12 +3693,12 @@
         <v>93</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="67" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
@@ -3691,10 +3709,10 @@
         <v>93</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="68"/>
+      <c r="F28" s="67"/>
     </row>
     <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="1" t="s">
         <v>97</v>
       </c>
@@ -3705,10 +3723,10 @@
         <v>93</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="68"/>
+      <c r="F29" s="67"/>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="1" t="s">
         <v>99</v>
       </c>
@@ -3719,10 +3737,10 @@
         <v>93</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="68"/>
+      <c r="F30" s="67"/>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="1" t="s">
         <v>101</v>
       </c>
@@ -3733,10 +3751,10 @@
         <v>93</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="68"/>
+      <c r="F31" s="67"/>
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="66"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="1" t="s">
         <v>103</v>
       </c>
@@ -3747,10 +3765,10 @@
         <v>93</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="68"/>
+      <c r="F32" s="67"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="64" t="s">
         <v>105</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3768,7 +3786,7 @@
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="4" t="s">
         <v>110</v>
       </c>
@@ -3784,7 +3802,7 @@
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="4" t="s">
         <v>112</v>
       </c>
@@ -3800,7 +3818,7 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="4" t="s">
         <v>115</v>
       </c>
@@ -3816,7 +3834,7 @@
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="4" t="s">
         <v>119</v>
       </c>
@@ -3832,7 +3850,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="4" t="s">
         <v>123</v>
       </c>
@@ -3848,7 +3866,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="65" t="s">
         <v>127</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3866,7 +3884,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="66"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="1" t="s">
         <v>131</v>
       </c>
@@ -3882,7 +3900,7 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="1" t="s">
         <v>134</v>
       </c>
@@ -3898,7 +3916,7 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="66"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
@@ -3914,7 +3932,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="66"/>
+      <c r="A43" s="65"/>
       <c r="B43" s="1" t="s">
         <v>139</v>
       </c>
@@ -3930,7 +3948,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="66"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="1" t="s">
         <v>141</v>
       </c>
@@ -3946,7 +3964,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="1" t="s">
         <v>144</v>
       </c>
@@ -3964,7 +3982,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="1" t="s">
         <v>148</v>
       </c>
@@ -3980,7 +3998,7 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3988,7 +4006,7 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="1" t="s">
         <v>150</v>
       </c>
@@ -4004,7 +4022,7 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="66"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="1" t="s">
         <v>154</v>
       </c>
@@ -4020,7 +4038,7 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="1" t="s">
         <v>158</v>
       </c>
@@ -4036,7 +4054,7 @@
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -4044,7 +4062,7 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="66"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="1" t="s">
         <v>160</v>
       </c>
@@ -4060,7 +4078,7 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="1" t="s">
         <v>163</v>
       </c>
@@ -4076,7 +4094,7 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="66"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="1" t="s">
         <v>166</v>
       </c>
@@ -4092,7 +4110,7 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="1" t="s">
         <v>169</v>
       </c>
@@ -4108,7 +4126,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="66"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="1" t="s">
         <v>171</v>
       </c>
@@ -4122,7 +4140,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="1" t="s">
         <v>173</v>
       </c>
@@ -4136,7 +4154,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4152,7 +4170,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="66"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="1" t="s">
         <v>178</v>
       </c>
@@ -4168,7 +4186,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="66"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -4184,7 +4202,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="66"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="1" t="s">
         <v>182</v>
       </c>
@@ -4200,7 +4218,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="66"/>
+      <c r="A62" s="65"/>
       <c r="B62" s="1" t="s">
         <v>184</v>
       </c>
@@ -4216,7 +4234,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="66"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="1" t="s">
         <v>186</v>
       </c>
@@ -4232,7 +4250,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="66"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="1" t="s">
         <v>188</v>
       </c>
@@ -4248,7 +4266,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="66"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="1" t="s">
         <v>190</v>
       </c>
@@ -4262,7 +4280,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="66"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="1" t="s">
         <v>193</v>
       </c>
@@ -4278,7 +4296,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="66"/>
+      <c r="A67" s="65"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -4286,7 +4304,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="66"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="1" t="s">
         <v>195</v>
       </c>
@@ -4302,7 +4320,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="66"/>
+      <c r="A69" s="65"/>
       <c r="B69" s="1" t="s">
         <v>198</v>
       </c>
@@ -4318,7 +4336,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="66"/>
+      <c r="A70" s="65"/>
       <c r="B70" s="1" t="s">
         <v>201</v>
       </c>
@@ -4332,7 +4350,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
+      <c r="A71" s="65"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -4340,7 +4358,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="66"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="1" t="s">
         <v>203</v>
       </c>
@@ -4356,7 +4374,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="66"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="1" t="s">
         <v>205</v>
       </c>
@@ -4372,7 +4390,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="66"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="1" t="s">
         <v>208</v>
       </c>
@@ -4388,7 +4406,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="66"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="1" t="s">
         <v>210</v>
       </c>
@@ -4402,7 +4420,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="66"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="1" t="s">
         <v>212</v>
       </c>
@@ -4416,7 +4434,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="66"/>
+      <c r="A77" s="65"/>
       <c r="B77" s="1" t="s">
         <v>214</v>
       </c>
@@ -4430,7 +4448,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="66"/>
+      <c r="A78" s="65"/>
       <c r="B78" s="1" t="s">
         <v>216</v>
       </c>
@@ -4444,7 +4462,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="66"/>
+      <c r="A79" s="65"/>
       <c r="B79" s="1" t="s">
         <v>218</v>
       </c>
@@ -4458,7 +4476,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="66"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="1" t="s">
         <v>220</v>
       </c>
@@ -4472,7 +4490,7 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="66"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="1" t="s">
         <v>222</v>
       </c>
@@ -4486,7 +4504,7 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="66"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="1" t="s">
         <v>224</v>
       </c>
@@ -4500,7 +4518,7 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="66"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="1" t="s">
         <v>226</v>
       </c>
@@ -4514,7 +4532,7 @@
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="66"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="1" t="s">
         <v>228</v>
       </c>
@@ -4528,7 +4546,7 @@
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="66"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="1" t="s">
         <v>230</v>
       </c>
@@ -4542,7 +4560,7 @@
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="66"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="1" t="s">
         <v>232</v>
       </c>
@@ -4558,7 +4576,7 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="66"/>
+      <c r="A87" s="65"/>
       <c r="B87" s="1" t="s">
         <v>234</v>
       </c>
@@ -4572,7 +4590,7 @@
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="66"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="1" t="s">
         <v>236</v>
       </c>
@@ -4586,7 +4604,7 @@
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="66"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="1" t="s">
         <v>238</v>
       </c>
@@ -4600,7 +4618,7 @@
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="66"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="1" t="s">
         <v>240</v>
       </c>
@@ -4616,7 +4634,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="66"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="1" t="s">
         <v>242</v>
       </c>
@@ -4630,7 +4648,7 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="66"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="1" t="s">
         <v>244</v>
       </c>
@@ -4644,7 +4662,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="66"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4652,7 +4670,7 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="66"/>
+      <c r="A94" s="65"/>
       <c r="B94" s="1" t="s">
         <v>246</v>
       </c>
@@ -4666,7 +4684,7 @@
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="66"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="1" t="s">
         <v>248</v>
       </c>
@@ -4680,7 +4698,7 @@
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="66"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="1" t="s">
         <v>250</v>
       </c>
@@ -4694,7 +4712,7 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="66"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4702,7 +4720,7 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="66"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="1" t="s">
         <v>252</v>
       </c>
@@ -4716,7 +4734,7 @@
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="66"/>
+      <c r="A99" s="65"/>
       <c r="B99" s="1" t="s">
         <v>254</v>
       </c>
@@ -4730,7 +4748,7 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="66"/>
+      <c r="A100" s="65"/>
       <c r="B100" s="1" t="s">
         <v>257</v>
       </c>
@@ -4744,7 +4762,7 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="66"/>
+      <c r="A101" s="65"/>
       <c r="B101" s="1" t="s">
         <v>259</v>
       </c>
@@ -4758,7 +4776,7 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="66"/>
+      <c r="A102" s="65"/>
       <c r="B102" s="1" t="s">
         <v>262</v>
       </c>
@@ -4772,7 +4790,7 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="66"/>
+      <c r="A103" s="65"/>
       <c r="B103" s="1" t="s">
         <v>264</v>
       </c>
@@ -4786,7 +4804,7 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="66"/>
+      <c r="A104" s="65"/>
       <c r="B104" s="1" t="s">
         <v>266</v>
       </c>
@@ -4800,7 +4818,7 @@
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="66"/>
+      <c r="A105" s="65"/>
       <c r="B105" s="1" t="s">
         <v>268</v>
       </c>
@@ -4814,7 +4832,7 @@
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="66"/>
+      <c r="A106" s="65"/>
       <c r="B106" s="1" t="s">
         <v>270</v>
       </c>
@@ -4828,7 +4846,7 @@
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="66"/>
+      <c r="A107" s="65"/>
       <c r="B107" s="1" t="s">
         <v>272</v>
       </c>
@@ -4842,7 +4860,7 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="66"/>
+      <c r="A108" s="65"/>
       <c r="B108" s="1" t="s">
         <v>274</v>
       </c>
@@ -4856,7 +4874,7 @@
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="66"/>
+      <c r="A109" s="65"/>
       <c r="B109" s="1" t="s">
         <v>276</v>
       </c>
@@ -4870,7 +4888,7 @@
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="66"/>
+      <c r="A110" s="65"/>
       <c r="B110" s="1" t="s">
         <v>278</v>
       </c>
@@ -4886,7 +4904,7 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="66"/>
+      <c r="A111" s="65"/>
       <c r="B111" s="1" t="s">
         <v>280</v>
       </c>
@@ -4900,7 +4918,7 @@
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="66"/>
+      <c r="A112" s="65"/>
       <c r="B112" s="1" t="s">
         <v>282</v>
       </c>
@@ -4914,7 +4932,7 @@
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="66"/>
+      <c r="A113" s="65"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4922,7 +4940,7 @@
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="66"/>
+      <c r="A114" s="65"/>
       <c r="B114" s="1" t="s">
         <v>284</v>
       </c>
@@ -4936,7 +4954,7 @@
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="66"/>
+      <c r="A115" s="65"/>
       <c r="B115" s="1" t="s">
         <v>287</v>
       </c>
@@ -4950,7 +4968,7 @@
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="66"/>
+      <c r="A116" s="65"/>
       <c r="B116" s="1" t="s">
         <v>289</v>
       </c>
@@ -4964,7 +4982,7 @@
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="66"/>
+      <c r="A117" s="65"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4972,7 +4990,7 @@
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="66"/>
+      <c r="A118" s="65"/>
       <c r="B118" s="1" t="s">
         <v>291</v>
       </c>
@@ -4986,7 +5004,7 @@
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="66"/>
+      <c r="A119" s="65"/>
       <c r="B119" s="1" t="s">
         <v>293</v>
       </c>
@@ -5000,7 +5018,7 @@
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="66"/>
+      <c r="A120" s="65"/>
       <c r="B120" s="1" t="s">
         <v>296</v>
       </c>
@@ -5014,7 +5032,7 @@
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="66"/>
+      <c r="A121" s="65"/>
       <c r="B121" s="1" t="s">
         <v>298</v>
       </c>
@@ -5028,7 +5046,7 @@
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="66"/>
+      <c r="A122" s="65"/>
       <c r="B122" s="1" t="s">
         <v>301</v>
       </c>
@@ -5042,7 +5060,7 @@
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="66"/>
+      <c r="A123" s="65"/>
       <c r="B123" s="1" t="s">
         <v>303</v>
       </c>
@@ -5054,7 +5072,7 @@
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="66"/>
+      <c r="A124" s="65"/>
       <c r="B124" s="1" t="s">
         <v>305</v>
       </c>
@@ -5068,7 +5086,7 @@
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="66"/>
+      <c r="A125" s="65"/>
       <c r="B125" s="1" t="s">
         <v>307</v>
       </c>
@@ -5082,7 +5100,7 @@
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="66"/>
+      <c r="A126" s="65"/>
       <c r="B126" s="1" t="s">
         <v>309</v>
       </c>
@@ -5096,7 +5114,7 @@
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="66"/>
+      <c r="A127" s="65"/>
       <c r="B127" s="1" t="s">
         <v>311</v>
       </c>
@@ -5110,7 +5128,7 @@
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="66"/>
+      <c r="A128" s="65"/>
       <c r="B128" s="1" t="s">
         <v>313</v>
       </c>
@@ -5126,7 +5144,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="66"/>
+      <c r="A129" s="65"/>
       <c r="B129" s="1" t="s">
         <v>315</v>
       </c>
@@ -5140,7 +5158,7 @@
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="66"/>
+      <c r="A130" s="65"/>
       <c r="B130" s="1" t="s">
         <v>317</v>
       </c>
@@ -5154,7 +5172,7 @@
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="66"/>
+      <c r="A131" s="65"/>
       <c r="B131" s="1" t="s">
         <v>319</v>
       </c>
@@ -5168,7 +5186,7 @@
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="66"/>
+      <c r="A132" s="65"/>
       <c r="B132" s="1" t="s">
         <v>321</v>
       </c>
@@ -5184,7 +5202,7 @@
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="66"/>
+      <c r="A133" s="65"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -5194,7 +5212,7 @@
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="66"/>
+      <c r="A134" s="65"/>
       <c r="B134" s="1" t="s">
         <v>324</v>
       </c>
@@ -5208,7 +5226,7 @@
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="66"/>
+      <c r="A135" s="65"/>
       <c r="B135" s="1" t="s">
         <v>326</v>
       </c>
@@ -5222,7 +5240,7 @@
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="66"/>
+      <c r="A136" s="65"/>
       <c r="B136" s="1" t="s">
         <v>328</v>
       </c>
@@ -5260,8 +5278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655A41D-FAAE-4875-A0C4-A516EEA673B9}">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5275,27 +5293,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="71" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -5313,7 +5331,7 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
@@ -5331,7 +5349,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
@@ -5347,7 +5365,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="18" t="s">
         <v>466</v>
       </c>
@@ -5363,7 +5381,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="18" t="s">
         <v>537</v>
       </c>
@@ -5377,7 +5395,7 @@
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="18" t="s">
         <v>538</v>
       </c>
@@ -5391,7 +5409,7 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="18" t="s">
         <v>539</v>
       </c>
@@ -5405,7 +5423,7 @@
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
@@ -5421,7 +5439,7 @@
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="18" t="s">
         <v>432</v>
       </c>
@@ -5435,7 +5453,7 @@
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="18" t="s">
         <v>433</v>
       </c>
@@ -5449,7 +5467,7 @@
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="18" t="s">
         <v>434</v>
       </c>
@@ -5463,7 +5481,7 @@
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="18" t="s">
         <v>22</v>
       </c>
@@ -5481,7 +5499,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
@@ -5499,7 +5517,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="18" t="s">
         <v>30</v>
       </c>
@@ -5515,7 +5533,7 @@
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="18" t="s">
         <v>34</v>
       </c>
@@ -5531,7 +5549,7 @@
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="18" t="s">
         <v>37</v>
       </c>
@@ -5546,150 +5564,152 @@
       </c>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20" t="s">
-        <v>43</v>
-      </c>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="71"/>
+      <c r="B18" s="78" t="s">
+        <v>554</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="18" t="s">
-        <v>430</v>
+      <c r="A19" s="71"/>
+      <c r="B19" s="78" t="s">
+        <v>557</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>431</v>
+        <v>558</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>9</v>
+        <v>556</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="71"/>
+      <c r="B20" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E21" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="35"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="38" t="s">
+      <c r="F21" s="34"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="72"/>
+      <c r="B22" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D22" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E22" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F22" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="38" t="s">
+    <row r="23" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="72"/>
+      <c r="B23" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D23" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="39" t="s">
+      <c r="E23" s="39"/>
+      <c r="F23" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="38" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="72"/>
+      <c r="B24" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C24" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D24" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="39" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="46" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="72"/>
+      <c r="B25" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="47"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="46" t="s">
+      <c r="E25" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="46" t="s">
+      <c r="F25" s="46"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="72"/>
+      <c r="B26" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="47"/>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="43" t="s">
+      <c r="E26" s="43"/>
+      <c r="F26" s="42" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="76" t="s">
         <v>72</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -5701,11 +5721,13 @@
       <c r="D27" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="19"/>
+      <c r="E27" s="19" t="s">
+        <v>559</v>
+      </c>
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="18" t="s">
         <v>73</v>
       </c>
@@ -5721,7 +5743,7 @@
       <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="18" t="s">
         <v>75</v>
       </c>
@@ -5737,7 +5759,7 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="18" t="s">
         <v>79</v>
       </c>
@@ -5755,7 +5777,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="18" t="s">
         <v>84</v>
       </c>
@@ -5771,7 +5793,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="18" t="s">
         <v>88</v>
       </c>
@@ -5787,7 +5809,7 @@
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="18" t="s">
         <v>91</v>
       </c>
@@ -5798,12 +5820,12 @@
         <v>93</v>
       </c>
       <c r="E33" s="19"/>
-      <c r="F33" s="74" t="s">
+      <c r="F33" s="73" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="18" t="s">
         <v>95</v>
       </c>
@@ -5814,10 +5836,10 @@
         <v>93</v>
       </c>
       <c r="E34" s="19"/>
-      <c r="F34" s="75"/>
+      <c r="F34" s="74"/>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="18" t="s">
         <v>97</v>
       </c>
@@ -5828,10 +5850,10 @@
         <v>93</v>
       </c>
       <c r="E35" s="19"/>
-      <c r="F35" s="75"/>
+      <c r="F35" s="74"/>
     </row>
     <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="18" t="s">
         <v>99</v>
       </c>
@@ -5842,10 +5864,10 @@
         <v>93</v>
       </c>
       <c r="E36" s="19"/>
-      <c r="F36" s="75"/>
+      <c r="F36" s="74"/>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="18" t="s">
         <v>101</v>
       </c>
@@ -5856,10 +5878,10 @@
         <v>93</v>
       </c>
       <c r="E37" s="19"/>
-      <c r="F37" s="75"/>
+      <c r="F37" s="74"/>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="18" t="s">
         <v>103</v>
       </c>
@@ -5870,262 +5892,262 @@
         <v>93</v>
       </c>
       <c r="E38" s="19"/>
-      <c r="F38" s="76"/>
+      <c r="F38" s="75"/>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="77" t="s">
         <v>484</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="48" t="s">
+      <c r="A40" s="77"/>
+      <c r="B40" s="47" t="s">
         <v>489</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="48" t="s">
         <v>502</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41" t="s">
+      <c r="E40" s="39"/>
+      <c r="F40" s="40" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="38" t="s">
+      <c r="A41" s="77"/>
+      <c r="B41" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="38" t="s">
+      <c r="A42" s="77"/>
+      <c r="B42" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="38" t="s">
         <v>477</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41" t="s">
+      <c r="E42" s="39"/>
+      <c r="F42" s="40" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="38" t="s">
+      <c r="A43" s="77"/>
+      <c r="B43" s="37" t="s">
         <v>529</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="38" t="s">
         <v>531</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="38" t="s">
         <v>530</v>
       </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="41" t="s">
+      <c r="E43" s="39"/>
+      <c r="F43" s="40" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
-      <c r="B44" s="38" t="s">
+      <c r="A44" s="77"/>
+      <c r="B44" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="38" t="s">
         <v>532</v>
       </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="41"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
     </row>
     <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="38" t="s">
+      <c r="A45" s="77"/>
+      <c r="B45" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="38" t="s">
         <v>481</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="41"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
     </row>
     <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="46" t="s">
+      <c r="A46" s="77"/>
+      <c r="B46" s="45" t="s">
         <v>492</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="46" t="s">
         <v>494</v>
       </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="51"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
     </row>
     <row r="47" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="42" t="s">
+      <c r="A47" s="77"/>
+      <c r="B47" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="E47" s="44"/>
-      <c r="F47" s="45"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="44"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="24" t="s">
         <v>503</v>
       </c>
-      <c r="F48" s="26"/>
+      <c r="F48" s="25"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="72"/>
-      <c r="B49" s="24" t="s">
+      <c r="A49" s="71"/>
+      <c r="B49" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="52"/>
+      <c r="F49" s="51"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="72"/>
-      <c r="B50" s="27" t="s">
+      <c r="A50" s="71"/>
+      <c r="B50" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="29"/>
+      <c r="F50" s="28"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
-      <c r="B51" s="27" t="s">
+      <c r="A51" s="71"/>
+      <c r="B51" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F51" s="29"/>
+      <c r="F51" s="28"/>
     </row>
     <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="72"/>
-      <c r="B52" s="27" t="s">
+      <c r="A52" s="71"/>
+      <c r="B52" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="F52" s="28" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
-      <c r="B53" s="27" t="s">
+      <c r="A53" s="71"/>
+      <c r="B53" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F53" s="29"/>
+      <c r="F53" s="28"/>
     </row>
     <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="72"/>
-      <c r="B54" s="30" t="s">
+      <c r="A54" s="71"/>
+      <c r="B54" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="F54" s="30" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
+      <c r="A55" s="71"/>
       <c r="B55" s="15" t="s">
         <v>546</v>
       </c>
@@ -6133,13 +6155,13 @@
         <v>547</v>
       </c>
       <c r="D55" s="17"/>
-      <c r="E55" s="33"/>
+      <c r="E55" s="32"/>
       <c r="F55" s="17" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A56" s="72"/>
+      <c r="A56" s="71"/>
       <c r="B56" s="15" t="s">
         <v>460</v>
       </c>
@@ -6149,1699 +6171,1699 @@
       <c r="D56" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="E56" s="33"/>
+      <c r="E56" s="32"/>
       <c r="F56" s="17" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="72" t="s">
         <v>521</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="52" t="s">
         <v>515</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="52" t="s">
         <v>522</v>
       </c>
-      <c r="D57" s="54" t="s">
+      <c r="D57" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="E57" s="55"/>
-      <c r="F57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="53"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="73"/>
-      <c r="B58" s="53" t="s">
+      <c r="A58" s="72"/>
+      <c r="B58" s="52" t="s">
         <v>516</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="D58" s="54" t="s">
+      <c r="D58" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="E58" s="55"/>
-      <c r="F58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="53"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="73"/>
-      <c r="B59" s="53" t="s">
+      <c r="A59" s="72"/>
+      <c r="B59" s="52" t="s">
         <v>517</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="52" t="s">
         <v>552</v>
       </c>
-      <c r="D59" s="54" t="s">
+      <c r="D59" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="E59" s="55"/>
-      <c r="F59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="53"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="73"/>
-      <c r="B60" s="53" t="s">
+      <c r="A60" s="72"/>
+      <c r="B60" s="52" t="s">
         <v>518</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="52" t="s">
         <v>553</v>
       </c>
-      <c r="D60" s="54" t="s">
+      <c r="D60" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="E60" s="55"/>
-      <c r="F60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="53"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="73"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="72"/>
+      <c r="B61" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="C61" s="53" t="s">
+      <c r="C61" s="52" t="s">
         <v>525</v>
       </c>
-      <c r="D61" s="54"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="54"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="53"/>
     </row>
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="73"/>
-      <c r="B62" s="53" t="s">
+      <c r="A62" s="72"/>
+      <c r="B62" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="52" t="s">
         <v>526</v>
       </c>
-      <c r="D62" s="54" t="s">
+      <c r="D62" s="53" t="s">
         <v>528</v>
       </c>
-      <c r="E62" s="55"/>
-      <c r="F62" s="54" t="s">
+      <c r="E62" s="54"/>
+      <c r="F62" s="53" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="72" t="s">
+      <c r="A63" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="D63" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="57" t="s">
+      <c r="E63" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="F63" s="58"/>
+      <c r="F63" s="57"/>
     </row>
     <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="72"/>
-      <c r="B64" s="59" t="s">
+      <c r="A64" s="71"/>
+      <c r="B64" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="60" t="s">
+      <c r="D64" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="E64" s="61" t="s">
+      <c r="E64" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="F64" s="60" t="s">
+      <c r="F64" s="59" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="72"/>
-      <c r="B65" s="59" t="s">
+      <c r="A65" s="71"/>
+      <c r="B65" s="58" t="s">
         <v>505</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="59" t="s">
         <v>513</v>
       </c>
-      <c r="D65" s="60" t="s">
+      <c r="D65" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="61"/>
-      <c r="F65" s="60" t="s">
+      <c r="E65" s="60"/>
+      <c r="F65" s="59" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="72"/>
-      <c r="B66" s="59" t="s">
+      <c r="A66" s="71"/>
+      <c r="B66" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="59" t="s">
         <v>514</v>
       </c>
-      <c r="D66" s="60" t="s">
+      <c r="D66" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E66" s="61"/>
-      <c r="F66" s="60" t="s">
+      <c r="E66" s="60"/>
+      <c r="F66" s="59" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="72"/>
-      <c r="B67" s="59" t="s">
+      <c r="A67" s="71"/>
+      <c r="B67" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D67" s="60" t="s">
+      <c r="D67" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="E67" s="61" t="s">
+      <c r="E67" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="F67" s="60"/>
+      <c r="F67" s="59"/>
     </row>
     <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="72"/>
-      <c r="B68" s="59" t="s">
+      <c r="A68" s="71"/>
+      <c r="B68" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="60" t="s">
+      <c r="C68" s="59" t="s">
         <v>337</v>
       </c>
-      <c r="D68" s="59" t="s">
+      <c r="D68" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="61" t="s">
+      <c r="E68" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="F68" s="60"/>
+      <c r="F68" s="59"/>
     </row>
     <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="72"/>
-      <c r="B69" s="59" t="s">
+      <c r="A69" s="71"/>
+      <c r="B69" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C69" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E69" s="61" t="s">
+      <c r="E69" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="F69" s="60"/>
+      <c r="F69" s="59"/>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="72"/>
-      <c r="B70" s="59" t="s">
+      <c r="A70" s="71"/>
+      <c r="B70" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="D70" s="60" t="s">
+      <c r="D70" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="E70" s="61" t="s">
+      <c r="E70" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="F70" s="60"/>
+      <c r="F70" s="59"/>
     </row>
     <row r="71" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A71" s="72"/>
-      <c r="B71" s="59" t="s">
+      <c r="A71" s="71"/>
+      <c r="B71" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="60" t="s">
+      <c r="C71" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="D71" s="60" t="s">
+      <c r="D71" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="E71" s="61" t="s">
+      <c r="E71" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="F71" s="60" t="s">
+      <c r="F71" s="59" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="72"/>
-      <c r="B72" s="59" t="s">
+      <c r="A72" s="71"/>
+      <c r="B72" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="C72" s="60" t="s">
+      <c r="C72" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="D72" s="59" t="s">
+      <c r="D72" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E72" s="61" t="s">
+      <c r="E72" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="F72" s="60"/>
+      <c r="F72" s="59"/>
     </row>
     <row r="73" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A73" s="72"/>
-      <c r="B73" s="59" t="s">
+      <c r="A73" s="71"/>
+      <c r="B73" s="58" t="s">
         <v>443</v>
       </c>
-      <c r="C73" s="60" t="s">
+      <c r="C73" s="59" t="s">
         <v>445</v>
       </c>
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="58" t="s">
         <v>536</v>
       </c>
-      <c r="E73" s="61"/>
-      <c r="F73" s="60" t="s">
+      <c r="E73" s="60"/>
+      <c r="F73" s="59" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A74" s="72"/>
-      <c r="B74" s="59" t="s">
+      <c r="A74" s="71"/>
+      <c r="B74" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="60" t="s">
+      <c r="C74" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="D74" s="60" t="s">
+      <c r="D74" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E74" s="61" t="s">
+      <c r="E74" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="F74" s="60"/>
+      <c r="F74" s="59"/>
     </row>
     <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="72"/>
-      <c r="B75" s="59" t="s">
+      <c r="A75" s="71"/>
+      <c r="B75" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="C75" s="60" t="s">
+      <c r="C75" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="D75" s="60" t="s">
+      <c r="D75" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="E75" s="61" t="s">
+      <c r="E75" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="F75" s="60"/>
+      <c r="F75" s="59"/>
     </row>
     <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="72"/>
-      <c r="B76" s="59" t="s">
+      <c r="A76" s="71"/>
+      <c r="B76" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="60" t="s">
+      <c r="C76" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="D76" s="59" t="s">
+      <c r="D76" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E76" s="61" t="s">
+      <c r="E76" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="F76" s="60"/>
+      <c r="F76" s="59"/>
     </row>
     <row r="77" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A77" s="72"/>
-      <c r="B77" s="59" t="s">
+      <c r="A77" s="71"/>
+      <c r="B77" s="58" t="s">
         <v>442</v>
       </c>
-      <c r="C77" s="60" t="s">
+      <c r="C77" s="59" t="s">
         <v>444</v>
       </c>
-      <c r="D77" s="59" t="s">
+      <c r="D77" s="58" t="s">
         <v>550</v>
       </c>
-      <c r="E77" s="61"/>
-      <c r="F77" s="60" t="s">
+      <c r="E77" s="60"/>
+      <c r="F77" s="59" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="72"/>
-      <c r="B78" s="59" t="s">
+      <c r="A78" s="71"/>
+      <c r="B78" s="58" t="s">
         <v>495</v>
       </c>
-      <c r="C78" s="60" t="s">
+      <c r="C78" s="59" t="s">
         <v>496</v>
       </c>
-      <c r="D78" s="60" t="s">
+      <c r="D78" s="59" t="s">
         <v>551</v>
       </c>
-      <c r="E78" s="61"/>
-      <c r="F78" s="60" t="s">
+      <c r="E78" s="60"/>
+      <c r="F78" s="59" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A79" s="72"/>
-      <c r="B79" s="59" t="s">
+      <c r="A79" s="71"/>
+      <c r="B79" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="C79" s="60" t="s">
+      <c r="C79" s="59" t="s">
         <v>349</v>
       </c>
-      <c r="D79" s="60" t="s">
+      <c r="D79" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="E79" s="61" t="s">
+      <c r="E79" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="F79" s="60"/>
+      <c r="F79" s="59"/>
     </row>
     <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="72"/>
-      <c r="B80" s="59" t="s">
+      <c r="A80" s="71"/>
+      <c r="B80" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="60" t="s">
+      <c r="C80" s="59" t="s">
         <v>351</v>
       </c>
-      <c r="D80" s="59" t="s">
+      <c r="D80" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="61" t="s">
+      <c r="E80" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="F80" s="60"/>
+      <c r="F80" s="59"/>
     </row>
     <row r="81" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A81" s="72"/>
-      <c r="B81" s="59" t="s">
+      <c r="A81" s="71"/>
+      <c r="B81" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="60" t="s">
+      <c r="C81" s="59" t="s">
         <v>352</v>
       </c>
-      <c r="D81" s="60" t="s">
+      <c r="D81" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="E81" s="61" t="s">
+      <c r="E81" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F81" s="60"/>
+      <c r="F81" s="59"/>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="72"/>
-      <c r="B82" s="59" t="s">
+      <c r="A82" s="71"/>
+      <c r="B82" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="C82" s="60" t="s">
+      <c r="C82" s="59" t="s">
         <v>354</v>
       </c>
-      <c r="D82" s="59" t="s">
+      <c r="D82" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="61" t="s">
+      <c r="E82" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="F82" s="60"/>
+      <c r="F82" s="59"/>
     </row>
     <row r="83" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A83" s="72"/>
-      <c r="B83" s="59" t="s">
+      <c r="A83" s="71"/>
+      <c r="B83" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="60" t="s">
+      <c r="C83" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="D83" s="59" t="s">
+      <c r="D83" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E83" s="61"/>
-      <c r="F83" s="60" t="s">
+      <c r="E83" s="60"/>
+      <c r="F83" s="59" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="72"/>
-      <c r="B84" s="59" t="s">
+      <c r="A84" s="71"/>
+      <c r="B84" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="C84" s="60" t="s">
+      <c r="C84" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="D84" s="59" t="s">
+      <c r="D84" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E84" s="61"/>
-      <c r="F84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="59"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="72"/>
-      <c r="B85" s="59" t="s">
+      <c r="A85" s="71"/>
+      <c r="B85" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="C85" s="59" t="s">
+      <c r="C85" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="D85" s="59" t="s">
+      <c r="D85" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E85" s="61" t="s">
+      <c r="E85" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="F85" s="60"/>
+      <c r="F85" s="59"/>
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="72"/>
-      <c r="B86" s="59" t="s">
+      <c r="A86" s="71"/>
+      <c r="B86" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="C86" s="60" t="s">
+      <c r="C86" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="D86" s="59" t="s">
+      <c r="D86" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E86" s="61" t="s">
+      <c r="E86" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="F86" s="60"/>
+      <c r="F86" s="59"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="72"/>
-      <c r="B87" s="59" t="s">
+      <c r="A87" s="71"/>
+      <c r="B87" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="C87" s="59" t="s">
+      <c r="C87" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="D87" s="59" t="s">
+      <c r="D87" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E87" s="61" t="s">
+      <c r="E87" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="F87" s="60"/>
+      <c r="F87" s="59"/>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="72"/>
-      <c r="B88" s="59" t="s">
+      <c r="A88" s="71"/>
+      <c r="B88" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C88" s="60" t="s">
+      <c r="C88" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="D88" s="59" t="s">
+      <c r="D88" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E88" s="61" t="s">
+      <c r="E88" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="F88" s="60"/>
+      <c r="F88" s="59"/>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="72"/>
-      <c r="B89" s="59" t="s">
+      <c r="A89" s="71"/>
+      <c r="B89" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="C89" s="60" t="s">
+      <c r="C89" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="D89" s="59" t="s">
+      <c r="D89" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E89" s="61" t="s">
+      <c r="E89" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="F89" s="60"/>
+      <c r="F89" s="59"/>
     </row>
     <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="72"/>
-      <c r="B90" s="59" t="s">
+      <c r="A90" s="71"/>
+      <c r="B90" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="C90" s="60" t="s">
+      <c r="C90" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="D90" s="59" t="s">
+      <c r="D90" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E90" s="61" t="s">
+      <c r="E90" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F90" s="60"/>
+      <c r="F90" s="59"/>
     </row>
     <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="72"/>
-      <c r="B91" s="59" t="s">
+      <c r="A91" s="71"/>
+      <c r="B91" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="C91" s="60" t="s">
+      <c r="C91" s="59" t="s">
         <v>362</v>
       </c>
-      <c r="D91" s="60" t="s">
+      <c r="D91" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="E91" s="61" t="s">
+      <c r="E91" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="F91" s="60"/>
+      <c r="F91" s="59"/>
     </row>
     <row r="92" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="72"/>
-      <c r="B92" s="59" t="s">
+      <c r="A92" s="71"/>
+      <c r="B92" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C92" s="60" t="s">
+      <c r="C92" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D92" s="60" t="s">
+      <c r="D92" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="E92" s="61"/>
-      <c r="F92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="59"/>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="72"/>
-      <c r="B93" s="59" t="s">
+      <c r="A93" s="71"/>
+      <c r="B93" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="C93" s="60" t="s">
+      <c r="C93" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="D93" s="59" t="s">
+      <c r="D93" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E93" s="61" t="s">
+      <c r="E93" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="F93" s="60"/>
+      <c r="F93" s="59"/>
     </row>
     <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="72"/>
-      <c r="B94" s="59" t="s">
+      <c r="A94" s="71"/>
+      <c r="B94" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="C94" s="60" t="s">
+      <c r="C94" s="59" t="s">
         <v>448</v>
       </c>
-      <c r="D94" s="59" t="s">
+      <c r="D94" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="E94" s="61"/>
-      <c r="F94" s="59" t="s">
+      <c r="E94" s="60"/>
+      <c r="F94" s="58" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A95" s="72"/>
-      <c r="B95" s="59" t="s">
+      <c r="A95" s="71"/>
+      <c r="B95" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="C95" s="60" t="s">
+      <c r="C95" s="59" t="s">
         <v>365</v>
       </c>
-      <c r="D95" s="60" t="s">
+      <c r="D95" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E95" s="61" t="s">
+      <c r="E95" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="F95" s="60"/>
+      <c r="F95" s="59"/>
     </row>
     <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="72"/>
-      <c r="B96" s="59" t="s">
+      <c r="A96" s="71"/>
+      <c r="B96" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="C96" s="60" t="s">
+      <c r="C96" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="D96" s="60" t="s">
+      <c r="D96" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="E96" s="61" t="s">
+      <c r="E96" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="F96" s="60"/>
+      <c r="F96" s="59"/>
     </row>
     <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="72"/>
-      <c r="B97" s="59" t="s">
+      <c r="A97" s="71"/>
+      <c r="B97" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="C97" s="60" t="s">
+      <c r="C97" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="D97" s="59" t="s">
+      <c r="D97" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E97" s="61"/>
-      <c r="F97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="59"/>
     </row>
     <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="72"/>
-      <c r="B98" s="59" t="s">
+      <c r="A98" s="71"/>
+      <c r="B98" s="58" t="s">
         <v>451</v>
       </c>
-      <c r="C98" s="60" t="s">
+      <c r="C98" s="59" t="s">
         <v>452</v>
       </c>
-      <c r="D98" s="59" t="s">
+      <c r="D98" s="58" t="s">
         <v>550</v>
       </c>
-      <c r="E98" s="61"/>
-      <c r="F98" s="60" t="s">
+      <c r="E98" s="60"/>
+      <c r="F98" s="59" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="72"/>
-      <c r="B99" s="59" t="s">
+      <c r="A99" s="71"/>
+      <c r="B99" s="58" t="s">
         <v>498</v>
       </c>
-      <c r="C99" s="60" t="s">
+      <c r="C99" s="59" t="s">
         <v>496</v>
       </c>
-      <c r="D99" s="60" t="s">
+      <c r="D99" s="59" t="s">
         <v>551</v>
       </c>
-      <c r="E99" s="61"/>
-      <c r="F99" s="60" t="s">
+      <c r="E99" s="60"/>
+      <c r="F99" s="59" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A100" s="72"/>
-      <c r="B100" s="59" t="s">
+      <c r="A100" s="71"/>
+      <c r="B100" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="C100" s="60" t="s">
+      <c r="C100" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="D100" s="60" t="s">
+      <c r="D100" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="E100" s="61" t="s">
+      <c r="E100" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="F100" s="60"/>
+      <c r="F100" s="59"/>
     </row>
     <row r="101" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="72"/>
-      <c r="B101" s="59" t="s">
+      <c r="A101" s="71"/>
+      <c r="B101" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="C101" s="60" t="s">
+      <c r="C101" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="D101" s="59" t="s">
+      <c r="D101" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E101" s="61" t="s">
+      <c r="E101" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="F101" s="60"/>
+      <c r="F101" s="59"/>
     </row>
     <row r="102" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A102" s="72"/>
-      <c r="B102" s="59" t="s">
+      <c r="A102" s="71"/>
+      <c r="B102" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="C102" s="60" t="s">
+      <c r="C102" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="D102" s="60" t="s">
+      <c r="D102" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="E102" s="61" t="s">
+      <c r="E102" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="F102" s="60"/>
+      <c r="F102" s="59"/>
     </row>
     <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="72"/>
-      <c r="B103" s="59" t="s">
+      <c r="A103" s="71"/>
+      <c r="B103" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="C103" s="60" t="s">
+      <c r="C103" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="D103" s="59" t="s">
+      <c r="D103" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E103" s="61"/>
-      <c r="F103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="59"/>
     </row>
     <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="72"/>
-      <c r="B104" s="59" t="s">
+      <c r="A104" s="71"/>
+      <c r="B104" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="C104" s="60" t="s">
+      <c r="C104" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="D104" s="59" t="s">
+      <c r="D104" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E104" s="61"/>
-      <c r="F104" s="60" t="s">
+      <c r="E104" s="60"/>
+      <c r="F104" s="59" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="72"/>
-      <c r="B105" s="59" t="s">
+      <c r="A105" s="71"/>
+      <c r="B105" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="C105" s="60" t="s">
+      <c r="C105" s="59" t="s">
         <v>374</v>
       </c>
-      <c r="D105" s="59" t="s">
+      <c r="D105" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E105" s="61"/>
-      <c r="F105" s="60"/>
+      <c r="E105" s="60"/>
+      <c r="F105" s="59"/>
     </row>
     <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="72"/>
-      <c r="B106" s="59" t="s">
+      <c r="A106" s="71"/>
+      <c r="B106" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="C106" s="60" t="s">
+      <c r="C106" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="D106" s="59" t="s">
+      <c r="D106" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E106" s="61"/>
-      <c r="F106" s="60"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="59"/>
     </row>
     <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="72"/>
-      <c r="B107" s="59" t="s">
+      <c r="A107" s="71"/>
+      <c r="B107" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="C107" s="60" t="s">
+      <c r="C107" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="D107" s="59" t="s">
+      <c r="D107" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E107" s="61"/>
-      <c r="F107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="59"/>
     </row>
     <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="72"/>
-      <c r="B108" s="59" t="s">
+      <c r="A108" s="71"/>
+      <c r="B108" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="C108" s="59" t="s">
+      <c r="C108" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D108" s="59" t="s">
+      <c r="D108" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E108" s="61"/>
-      <c r="F108" s="60" t="s">
+      <c r="E108" s="60"/>
+      <c r="F108" s="59" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="72"/>
-      <c r="B109" s="59" t="s">
+      <c r="A109" s="71"/>
+      <c r="B109" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C109" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="D109" s="59" t="s">
+      <c r="D109" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E109" s="61"/>
-      <c r="F109" s="60"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="59"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="72"/>
-      <c r="B110" s="59" t="s">
+      <c r="A110" s="71"/>
+      <c r="B110" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="C110" s="59" t="s">
+      <c r="C110" s="58" t="s">
         <v>465</v>
       </c>
-      <c r="D110" s="59" t="s">
+      <c r="D110" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E110" s="61"/>
-      <c r="F110" s="60"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="59"/>
     </row>
     <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="72"/>
-      <c r="B111" s="59" t="s">
+      <c r="A111" s="71"/>
+      <c r="B111" s="58" t="s">
         <v>470</v>
       </c>
-      <c r="C111" s="60" t="s">
+      <c r="C111" s="59" t="s">
         <v>422</v>
       </c>
-      <c r="D111" s="59" t="s">
+      <c r="D111" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E111" s="61"/>
-      <c r="F111" s="60"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="59"/>
     </row>
     <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="72"/>
-      <c r="B112" s="59" t="s">
+      <c r="A112" s="71"/>
+      <c r="B112" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="C112" s="60" t="s">
+      <c r="C112" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="D112" s="59" t="s">
+      <c r="D112" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E112" s="61"/>
-      <c r="F112" s="60"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="59"/>
     </row>
     <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="72"/>
-      <c r="B113" s="59" t="s">
+      <c r="A113" s="71"/>
+      <c r="B113" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="C113" s="60" t="s">
+      <c r="C113" s="59" t="s">
         <v>424</v>
       </c>
-      <c r="D113" s="59" t="s">
+      <c r="D113" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E113" s="61"/>
-      <c r="F113" s="60"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="59"/>
     </row>
     <row r="114" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A114" s="72"/>
-      <c r="B114" s="59" t="s">
+      <c r="A114" s="71"/>
+      <c r="B114" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="C114" s="59" t="s">
+      <c r="C114" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="D114" s="60" t="s">
+      <c r="D114" s="59" t="s">
         <v>378</v>
       </c>
-      <c r="E114" s="61" t="s">
+      <c r="E114" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="F114" s="60" t="s">
+      <c r="F114" s="59" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="72"/>
-      <c r="B115" s="59" t="s">
+      <c r="A115" s="71"/>
+      <c r="B115" s="58" t="s">
         <v>509</v>
       </c>
-      <c r="C115" s="60" t="s">
+      <c r="C115" s="59" t="s">
         <v>511</v>
       </c>
-      <c r="D115" s="60" t="s">
+      <c r="D115" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E115" s="61"/>
-      <c r="F115" s="60" t="s">
+      <c r="E115" s="60"/>
+      <c r="F115" s="59" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="72"/>
-      <c r="B116" s="59" t="s">
+      <c r="A116" s="71"/>
+      <c r="B116" s="58" t="s">
         <v>510</v>
       </c>
-      <c r="C116" s="60" t="s">
+      <c r="C116" s="59" t="s">
         <v>512</v>
       </c>
-      <c r="D116" s="60" t="s">
+      <c r="D116" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E116" s="61"/>
-      <c r="F116" s="60" t="s">
+      <c r="E116" s="60"/>
+      <c r="F116" s="59" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="72"/>
-      <c r="B117" s="59" t="s">
+      <c r="A117" s="71"/>
+      <c r="B117" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="C117" s="60" t="s">
+      <c r="C117" s="59" t="s">
         <v>380</v>
       </c>
-      <c r="D117" s="60" t="s">
+      <c r="D117" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="E117" s="61"/>
-      <c r="F117" s="60"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="59"/>
     </row>
     <row r="118" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" s="72"/>
-      <c r="B118" s="59" t="s">
+      <c r="A118" s="71"/>
+      <c r="B118" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="C118" s="60" t="s">
+      <c r="C118" s="59" t="s">
         <v>381</v>
       </c>
-      <c r="D118" s="59" t="s">
+      <c r="D118" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E118" s="61"/>
-      <c r="F118" s="60"/>
+      <c r="E118" s="60"/>
+      <c r="F118" s="59"/>
     </row>
     <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="72"/>
-      <c r="B119" s="59" t="s">
+      <c r="A119" s="71"/>
+      <c r="B119" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="C119" s="60" t="s">
+      <c r="C119" s="59" t="s">
         <v>382</v>
       </c>
-      <c r="D119" s="59" t="s">
+      <c r="D119" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E119" s="61"/>
-      <c r="F119" s="60"/>
+      <c r="E119" s="60"/>
+      <c r="F119" s="59"/>
     </row>
     <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="72"/>
-      <c r="B120" s="59" t="s">
+      <c r="A120" s="71"/>
+      <c r="B120" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="C120" s="60" t="s">
+      <c r="C120" s="59" t="s">
         <v>383</v>
       </c>
-      <c r="D120" s="60" t="s">
+      <c r="D120" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="E120" s="61" t="s">
+      <c r="E120" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="F120" s="60"/>
+      <c r="F120" s="59"/>
     </row>
     <row r="121" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A121" s="72"/>
-      <c r="B121" s="59" t="s">
+      <c r="A121" s="71"/>
+      <c r="B121" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="C121" s="60" t="s">
+      <c r="C121" s="59" t="s">
         <v>384</v>
       </c>
-      <c r="D121" s="60" t="s">
+      <c r="D121" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="E121" s="61"/>
-      <c r="F121" s="60"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="59"/>
     </row>
     <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="72"/>
-      <c r="B122" s="59" t="s">
+      <c r="A122" s="71"/>
+      <c r="B122" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="C122" s="60" t="s">
+      <c r="C122" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="D122" s="59" t="s">
+      <c r="D122" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E122" s="61"/>
-      <c r="F122" s="60"/>
+      <c r="E122" s="60"/>
+      <c r="F122" s="59"/>
     </row>
     <row r="123" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A123" s="72"/>
-      <c r="B123" s="59" t="s">
+      <c r="A123" s="71"/>
+      <c r="B123" s="58" t="s">
         <v>449</v>
       </c>
-      <c r="C123" s="60" t="s">
+      <c r="C123" s="59" t="s">
         <v>450</v>
       </c>
-      <c r="D123" s="59" t="s">
+      <c r="D123" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="E123" s="61"/>
-      <c r="F123" s="59" t="s">
+      <c r="E123" s="60"/>
+      <c r="F123" s="58" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A124" s="72"/>
-      <c r="B124" s="59" t="s">
+      <c r="A124" s="71"/>
+      <c r="B124" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="C124" s="60" t="s">
+      <c r="C124" s="59" t="s">
         <v>386</v>
       </c>
-      <c r="D124" s="60" t="s">
+      <c r="D124" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E124" s="61"/>
-      <c r="F124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="59"/>
     </row>
     <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="72"/>
-      <c r="B125" s="59" t="s">
+      <c r="A125" s="71"/>
+      <c r="B125" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="C125" s="60" t="s">
+      <c r="C125" s="59" t="s">
         <v>387</v>
       </c>
-      <c r="D125" s="60" t="s">
+      <c r="D125" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="E125" s="61"/>
-      <c r="F125" s="60"/>
+      <c r="E125" s="60"/>
+      <c r="F125" s="59"/>
     </row>
     <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="72"/>
-      <c r="B126" s="59" t="s">
+      <c r="A126" s="71"/>
+      <c r="B126" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="C126" s="60" t="s">
+      <c r="C126" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="D126" s="59" t="s">
+      <c r="D126" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E126" s="61"/>
-      <c r="F126" s="60"/>
+      <c r="E126" s="60"/>
+      <c r="F126" s="59"/>
     </row>
     <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="72"/>
-      <c r="B127" s="59" t="s">
+      <c r="A127" s="71"/>
+      <c r="B127" s="58" t="s">
         <v>453</v>
       </c>
-      <c r="C127" s="60" t="s">
+      <c r="C127" s="59" t="s">
         <v>454</v>
       </c>
-      <c r="D127" s="59" t="s">
+      <c r="D127" s="58" t="s">
         <v>550</v>
       </c>
-      <c r="E127" s="61"/>
-      <c r="F127" s="60" t="s">
+      <c r="E127" s="60"/>
+      <c r="F127" s="59" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="72"/>
-      <c r="B128" s="59" t="s">
+      <c r="A128" s="71"/>
+      <c r="B128" s="58" t="s">
         <v>499</v>
       </c>
-      <c r="C128" s="60" t="s">
+      <c r="C128" s="59" t="s">
         <v>496</v>
       </c>
-      <c r="D128" s="60" t="s">
+      <c r="D128" s="59" t="s">
         <v>551</v>
       </c>
-      <c r="E128" s="61"/>
-      <c r="F128" s="60" t="s">
+      <c r="E128" s="60"/>
+      <c r="F128" s="59" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A129" s="72"/>
-      <c r="B129" s="59" t="s">
+      <c r="A129" s="71"/>
+      <c r="B129" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="C129" s="60" t="s">
+      <c r="C129" s="59" t="s">
         <v>389</v>
       </c>
-      <c r="D129" s="60" t="s">
+      <c r="D129" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="E129" s="61"/>
-      <c r="F129" s="60"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="59"/>
     </row>
     <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="72"/>
-      <c r="B130" s="59" t="s">
+      <c r="A130" s="71"/>
+      <c r="B130" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="C130" s="60" t="s">
+      <c r="C130" s="59" t="s">
         <v>390</v>
       </c>
-      <c r="D130" s="59" t="s">
+      <c r="D130" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E130" s="61"/>
-      <c r="F130" s="60"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="59"/>
     </row>
     <row r="131" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A131" s="72"/>
-      <c r="B131" s="59" t="s">
+      <c r="A131" s="71"/>
+      <c r="B131" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="C131" s="60" t="s">
+      <c r="C131" s="59" t="s">
         <v>391</v>
       </c>
-      <c r="D131" s="60" t="s">
+      <c r="D131" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="E131" s="61"/>
-      <c r="F131" s="60"/>
+      <c r="E131" s="60"/>
+      <c r="F131" s="59"/>
     </row>
     <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="72"/>
-      <c r="B132" s="59" t="s">
+      <c r="A132" s="71"/>
+      <c r="B132" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="C132" s="60" t="s">
+      <c r="C132" s="59" t="s">
         <v>392</v>
       </c>
-      <c r="D132" s="59" t="s">
+      <c r="D132" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="E132" s="61"/>
-      <c r="F132" s="60"/>
+      <c r="E132" s="60"/>
+      <c r="F132" s="59"/>
     </row>
     <row r="133" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" s="72"/>
-      <c r="B133" s="59" t="s">
+      <c r="A133" s="71"/>
+      <c r="B133" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="C133" s="60" t="s">
+      <c r="C133" s="59" t="s">
         <v>393</v>
       </c>
-      <c r="D133" s="59" t="s">
+      <c r="D133" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="E133" s="61"/>
-      <c r="F133" s="60"/>
+      <c r="E133" s="60"/>
+      <c r="F133" s="59"/>
     </row>
     <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="72"/>
-      <c r="B134" s="59" t="s">
+      <c r="A134" s="71"/>
+      <c r="B134" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="C134" s="60" t="s">
+      <c r="C134" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="D134" s="59" t="s">
+      <c r="D134" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="E134" s="61"/>
-      <c r="F134" s="60"/>
+      <c r="E134" s="60"/>
+      <c r="F134" s="59"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="72"/>
-      <c r="B135" s="59" t="s">
+      <c r="A135" s="71"/>
+      <c r="B135" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="C135" s="59" t="s">
+      <c r="C135" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="D135" s="59" t="s">
+      <c r="D135" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E135" s="61"/>
-      <c r="F135" s="60"/>
+      <c r="E135" s="60"/>
+      <c r="F135" s="59"/>
     </row>
     <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="72"/>
-      <c r="B136" s="59" t="s">
+      <c r="A136" s="71"/>
+      <c r="B136" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="C136" s="60" t="s">
+      <c r="C136" s="59" t="s">
         <v>395</v>
       </c>
-      <c r="D136" s="59" t="s">
+      <c r="D136" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E136" s="61"/>
-      <c r="F136" s="60"/>
+      <c r="E136" s="60"/>
+      <c r="F136" s="59"/>
     </row>
     <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="72"/>
-      <c r="B137" s="59" t="s">
+      <c r="A137" s="71"/>
+      <c r="B137" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="C137" s="60" t="s">
+      <c r="C137" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="D137" s="59" t="s">
+      <c r="D137" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E137" s="61"/>
-      <c r="F137" s="60"/>
+      <c r="E137" s="60"/>
+      <c r="F137" s="59"/>
     </row>
     <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="72"/>
-      <c r="B138" s="59" t="s">
+      <c r="A138" s="71"/>
+      <c r="B138" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="C138" s="60" t="s">
+      <c r="C138" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="D138" s="59" t="s">
+      <c r="D138" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E138" s="61"/>
-      <c r="F138" s="60"/>
+      <c r="E138" s="60"/>
+      <c r="F138" s="59"/>
     </row>
     <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="72"/>
-      <c r="B139" s="59" t="s">
+      <c r="A139" s="71"/>
+      <c r="B139" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="C139" s="60" t="s">
+      <c r="C139" s="59" t="s">
         <v>398</v>
       </c>
-      <c r="D139" s="59" t="s">
+      <c r="D139" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E139" s="61"/>
-      <c r="F139" s="60"/>
+      <c r="E139" s="60"/>
+      <c r="F139" s="59"/>
     </row>
     <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="72"/>
-      <c r="B140" s="59" t="s">
+      <c r="A140" s="71"/>
+      <c r="B140" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="C140" s="60" t="s">
+      <c r="C140" s="59" t="s">
         <v>399</v>
       </c>
-      <c r="D140" s="59" t="s">
+      <c r="D140" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E140" s="61"/>
-      <c r="F140" s="60"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="59"/>
     </row>
     <row r="141" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A141" s="72"/>
-      <c r="B141" s="59" t="s">
+      <c r="A141" s="71"/>
+      <c r="B141" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="C141" s="60" t="s">
+      <c r="C141" s="59" t="s">
         <v>400</v>
       </c>
-      <c r="D141" s="60" t="s">
+      <c r="D141" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="E141" s="61" t="s">
+      <c r="E141" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="F141" s="60"/>
+      <c r="F141" s="59"/>
     </row>
     <row r="142" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A142" s="72"/>
-      <c r="B142" s="59" t="s">
+      <c r="A142" s="71"/>
+      <c r="B142" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="C142" s="60" t="s">
+      <c r="C142" s="59" t="s">
         <v>401</v>
       </c>
-      <c r="D142" s="60" t="s">
+      <c r="D142" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="E142" s="61"/>
-      <c r="F142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="59"/>
     </row>
     <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="72"/>
-      <c r="B143" s="59" t="s">
+      <c r="A143" s="71"/>
+      <c r="B143" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="C143" s="60" t="s">
+      <c r="C143" s="59" t="s">
         <v>402</v>
       </c>
-      <c r="D143" s="59" t="s">
+      <c r="D143" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E143" s="61"/>
-      <c r="F143" s="60"/>
+      <c r="E143" s="60"/>
+      <c r="F143" s="59"/>
     </row>
     <row r="144" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A144" s="72"/>
-      <c r="B144" s="59" t="s">
+      <c r="A144" s="71"/>
+      <c r="B144" s="58" t="s">
         <v>455</v>
       </c>
-      <c r="C144" s="60" t="s">
+      <c r="C144" s="59" t="s">
         <v>456</v>
       </c>
-      <c r="D144" s="59" t="s">
+      <c r="D144" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="E144" s="61"/>
-      <c r="F144" s="59" t="s">
+      <c r="E144" s="60"/>
+      <c r="F144" s="58" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A145" s="72"/>
-      <c r="B145" s="59" t="s">
+      <c r="A145" s="71"/>
+      <c r="B145" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="C145" s="60" t="s">
+      <c r="C145" s="59" t="s">
         <v>403</v>
       </c>
-      <c r="D145" s="60" t="s">
+      <c r="D145" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E145" s="61"/>
-      <c r="F145" s="60"/>
+      <c r="E145" s="60"/>
+      <c r="F145" s="59"/>
     </row>
     <row r="146" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A146" s="72"/>
-      <c r="B146" s="59" t="s">
+      <c r="A146" s="71"/>
+      <c r="B146" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="C146" s="60" t="s">
+      <c r="C146" s="59" t="s">
         <v>404</v>
       </c>
-      <c r="D146" s="60" t="s">
+      <c r="D146" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="E146" s="61"/>
-      <c r="F146" s="60"/>
+      <c r="E146" s="60"/>
+      <c r="F146" s="59"/>
     </row>
     <row r="147" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="72"/>
-      <c r="B147" s="59" t="s">
+      <c r="A147" s="71"/>
+      <c r="B147" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="C147" s="60" t="s">
+      <c r="C147" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="D147" s="59" t="s">
+      <c r="D147" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E147" s="61"/>
-      <c r="F147" s="60"/>
+      <c r="E147" s="60"/>
+      <c r="F147" s="59"/>
     </row>
     <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="72"/>
-      <c r="B148" s="59" t="s">
+      <c r="A148" s="71"/>
+      <c r="B148" s="58" t="s">
         <v>457</v>
       </c>
-      <c r="C148" s="60" t="s">
+      <c r="C148" s="59" t="s">
         <v>458</v>
       </c>
-      <c r="D148" s="59" t="s">
+      <c r="D148" s="58" t="s">
         <v>550</v>
       </c>
-      <c r="E148" s="61"/>
-      <c r="F148" s="60" t="s">
+      <c r="E148" s="60"/>
+      <c r="F148" s="59" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="72"/>
-      <c r="B149" s="59" t="s">
+      <c r="A149" s="71"/>
+      <c r="B149" s="58" t="s">
         <v>500</v>
       </c>
-      <c r="C149" s="60" t="s">
+      <c r="C149" s="59" t="s">
         <v>496</v>
       </c>
-      <c r="D149" s="60" t="s">
+      <c r="D149" s="59" t="s">
         <v>551</v>
       </c>
-      <c r="E149" s="61"/>
-      <c r="F149" s="60" t="s">
+      <c r="E149" s="60"/>
+      <c r="F149" s="59" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A150" s="72"/>
-      <c r="B150" s="59" t="s">
+      <c r="A150" s="71"/>
+      <c r="B150" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="C150" s="60" t="s">
+      <c r="C150" s="59" t="s">
         <v>405</v>
       </c>
-      <c r="D150" s="60" t="s">
+      <c r="D150" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="E150" s="61"/>
-      <c r="F150" s="60"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="59"/>
     </row>
     <row r="151" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A151" s="72"/>
-      <c r="B151" s="59" t="s">
+      <c r="A151" s="71"/>
+      <c r="B151" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="C151" s="60" t="s">
+      <c r="C151" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="D151" s="59" t="s">
+      <c r="D151" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E151" s="61"/>
-      <c r="F151" s="60"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="59"/>
     </row>
     <row r="152" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A152" s="72"/>
-      <c r="B152" s="59" t="s">
+      <c r="A152" s="71"/>
+      <c r="B152" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C152" s="60" t="s">
+      <c r="C152" s="59" t="s">
         <v>407</v>
       </c>
-      <c r="D152" s="60" t="s">
+      <c r="D152" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="E152" s="61"/>
-      <c r="F152" s="60"/>
+      <c r="E152" s="60"/>
+      <c r="F152" s="59"/>
     </row>
     <row r="153" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A153" s="72"/>
-      <c r="B153" s="59" t="s">
+      <c r="A153" s="71"/>
+      <c r="B153" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="C153" s="60" t="s">
+      <c r="C153" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="D153" s="59" t="s">
+      <c r="D153" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="E153" s="61"/>
-      <c r="F153" s="60"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="59"/>
     </row>
     <row r="154" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A154" s="72"/>
-      <c r="B154" s="59" t="s">
+      <c r="A154" s="71"/>
+      <c r="B154" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="C154" s="60" t="s">
+      <c r="C154" s="59" t="s">
         <v>409</v>
       </c>
-      <c r="D154" s="59" t="s">
+      <c r="D154" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="E154" s="61"/>
-      <c r="F154" s="60"/>
+      <c r="E154" s="60"/>
+      <c r="F154" s="59"/>
     </row>
     <row r="155" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="72"/>
-      <c r="B155" s="59" t="s">
+      <c r="A155" s="71"/>
+      <c r="B155" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="C155" s="60" t="s">
+      <c r="C155" s="59" t="s">
         <v>410</v>
       </c>
-      <c r="D155" s="59"/>
-      <c r="E155" s="61"/>
-      <c r="F155" s="60"/>
+      <c r="D155" s="58"/>
+      <c r="E155" s="60"/>
+      <c r="F155" s="59"/>
     </row>
     <row r="156" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156" s="72"/>
-      <c r="B156" s="59" t="s">
+      <c r="A156" s="71"/>
+      <c r="B156" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="C156" s="60" t="s">
+      <c r="C156" s="59" t="s">
         <v>411</v>
       </c>
-      <c r="D156" s="59" t="s">
+      <c r="D156" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E156" s="61"/>
-      <c r="F156" s="60"/>
+      <c r="E156" s="60"/>
+      <c r="F156" s="59"/>
     </row>
     <row r="157" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A157" s="72"/>
-      <c r="B157" s="59" t="s">
+      <c r="A157" s="71"/>
+      <c r="B157" s="58" t="s">
         <v>307</v>
       </c>
-      <c r="C157" s="60" t="s">
+      <c r="C157" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="D157" s="59" t="s">
+      <c r="D157" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E157" s="61"/>
-      <c r="F157" s="60"/>
+      <c r="E157" s="60"/>
+      <c r="F157" s="59"/>
     </row>
     <row r="158" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A158" s="72"/>
-      <c r="B158" s="59" t="s">
+      <c r="A158" s="71"/>
+      <c r="B158" s="58" t="s">
         <v>309</v>
       </c>
-      <c r="C158" s="60" t="s">
+      <c r="C158" s="59" t="s">
         <v>413</v>
       </c>
-      <c r="D158" s="59" t="s">
+      <c r="D158" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E158" s="61"/>
-      <c r="F158" s="60"/>
+      <c r="E158" s="60"/>
+      <c r="F158" s="59"/>
     </row>
     <row r="159" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A159" s="72"/>
-      <c r="B159" s="59" t="s">
+      <c r="A159" s="71"/>
+      <c r="B159" s="58" t="s">
         <v>311</v>
       </c>
-      <c r="C159" s="60" t="s">
+      <c r="C159" s="59" t="s">
         <v>414</v>
       </c>
-      <c r="D159" s="59" t="s">
+      <c r="D159" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E159" s="61"/>
-      <c r="F159" s="60"/>
+      <c r="E159" s="60"/>
+      <c r="F159" s="59"/>
     </row>
     <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A160" s="72"/>
-      <c r="B160" s="59" t="s">
+      <c r="A160" s="71"/>
+      <c r="B160" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="C160" s="60" t="s">
+      <c r="C160" s="59" t="s">
         <v>415</v>
       </c>
-      <c r="D160" s="59" t="s">
+      <c r="D160" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E160" s="61"/>
-      <c r="F160" s="60"/>
+      <c r="E160" s="60"/>
+      <c r="F160" s="59"/>
     </row>
     <row r="161" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A161" s="72"/>
-      <c r="B161" s="59" t="s">
+      <c r="A161" s="71"/>
+      <c r="B161" s="58" t="s">
         <v>315</v>
       </c>
-      <c r="C161" s="60" t="s">
+      <c r="C161" s="59" t="s">
         <v>416</v>
       </c>
-      <c r="D161" s="59" t="s">
+      <c r="D161" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E161" s="61"/>
-      <c r="F161" s="60"/>
+      <c r="E161" s="60"/>
+      <c r="F161" s="59"/>
     </row>
     <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="72"/>
-      <c r="B162" s="59" t="s">
+      <c r="A162" s="71"/>
+      <c r="B162" s="58" t="s">
         <v>317</v>
       </c>
-      <c r="C162" s="60" t="s">
+      <c r="C162" s="59" t="s">
         <v>417</v>
       </c>
-      <c r="D162" s="59" t="s">
+      <c r="D162" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E162" s="61"/>
-      <c r="F162" s="60"/>
+      <c r="E162" s="60"/>
+      <c r="F162" s="59"/>
     </row>
     <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" s="72"/>
-      <c r="B163" s="59" t="s">
+      <c r="A163" s="71"/>
+      <c r="B163" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="C163" s="60" t="s">
+      <c r="C163" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="D163" s="59" t="s">
+      <c r="D163" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E163" s="61"/>
-      <c r="F163" s="60"/>
+      <c r="E163" s="60"/>
+      <c r="F163" s="59"/>
     </row>
     <row r="164" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A164" s="72"/>
-      <c r="B164" s="59" t="s">
+      <c r="A164" s="71"/>
+      <c r="B164" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="C164" s="59" t="s">
+      <c r="C164" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="D164" s="59" t="s">
+      <c r="D164" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E164" s="61" t="s">
+      <c r="E164" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="F164" s="60" t="s">
+      <c r="F164" s="59" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="72"/>
-      <c r="B165" s="59"/>
-      <c r="C165" s="59"/>
-      <c r="D165" s="59"/>
-      <c r="E165" s="61" t="s">
+      <c r="A165" s="71"/>
+      <c r="B165" s="58"/>
+      <c r="C165" s="58"/>
+      <c r="D165" s="58"/>
+      <c r="E165" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="F165" s="60" t="s">
+      <c r="F165" s="59" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="72"/>
-      <c r="B166" s="59" t="s">
+      <c r="A166" s="71"/>
+      <c r="B166" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="C166" s="60" t="s">
+      <c r="C166" s="59" t="s">
         <v>425</v>
       </c>
-      <c r="D166" s="59" t="s">
+      <c r="D166" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E166" s="61"/>
-      <c r="F166" s="60"/>
+      <c r="E166" s="60"/>
+      <c r="F166" s="59"/>
     </row>
     <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="72"/>
-      <c r="B167" s="59" t="s">
+      <c r="A167" s="71"/>
+      <c r="B167" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="C167" s="60" t="s">
+      <c r="C167" s="59" t="s">
         <v>426</v>
       </c>
-      <c r="D167" s="59" t="s">
+      <c r="D167" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E167" s="61"/>
-      <c r="F167" s="60" t="s">
+      <c r="E167" s="60"/>
+      <c r="F167" s="59" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A168" s="72"/>
-      <c r="B168" s="62" t="s">
+      <c r="A168" s="71"/>
+      <c r="B168" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="C168" s="63" t="s">
+      <c r="C168" s="62" t="s">
         <v>427</v>
       </c>
-      <c r="D168" s="62" t="s">
+      <c r="D168" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E168" s="64"/>
-      <c r="F168" s="63" t="s">
+      <c r="E168" s="63"/>
+      <c r="F168" s="62" t="s">
         <v>428</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F168" xr:uid="{EA55B166-B49F-4ECB-9A75-5F440FA2BF9F}"/>
   <mergeCells count="8">
-    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A2:A20"/>
     <mergeCell ref="A63:A168"/>
-    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A21:A26"/>
     <mergeCell ref="F33:F38"/>
     <mergeCell ref="A27:A38"/>
     <mergeCell ref="A39:A47"/>
@@ -7855,53 +7877,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
-    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
-    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Value>5</Value>
-      <Value>3</Value>
-    </TaxCatchAll>
-    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
-        </TermInfo>
-      </Terms>
-    </i008215bacac45029ee8cafff4c8e93b>
-    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
-    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F020023FF955149D2434D9634B069E3D44A42" ma:contentTypeVersion="49" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="765f642684fa63bc1b9312c368d0b6a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e953fe045711556fedbcbd575ad79d22" ns3:_="">
     <xsd:import namespace="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
@@ -8143,31 +8118,72 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>5</Value>
+      <Value>3</Value>
+    </TaxCatchAll>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -8183,20 +8199,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Support/A - Guides and Documentation/GLD_Dictionary_v01.xlsx
+++ b/Support/A - Guides and Documentation/GLD_Dictionary_v01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup.sharepoint.com/sites/Files5011/Shared Documents/JOBS GROUP LIBRARY/JD Team folder/Global Labor Database/GLD Standard Operating Procedures/Data Dictionary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb529026\Documents\gld\Support\A - Guides and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{B3D1F59D-522D-445D-BDFF-9D85246A3370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44FE5D53-0D6E-4C05-B17A-B1811C4D4A7B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E2C4C8-F85F-4B79-B469-30FC92660AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2145" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Info and Example" sheetId="1" r:id="rId1"/>
@@ -1792,13 +1792,6 @@
     <t>Code of migration area</t>
   </si>
   <si>
-    <t>Code as 
-subnatid1 if migrated_from_cat == 1;
-as subnatid2 if migrated_from_cat is 2;
-as subnatid3 if migrated_from_cat is 3;
-missing if migrated_from_cat is 4</t>
-  </si>
-  <si>
     <t>Reason for migrating</t>
   </si>
   <si>
@@ -1837,10 +1830,6 @@
   </si>
   <si>
     <t>Code of migration country</t>
-  </si>
-  <si>
-    <t>If migrated_from_cat is 4:
-Enter ISO 3 letter country code or undefined category like "Other South America", "Other Europe".</t>
   </si>
   <si>
     <t>occup_skill</t>
@@ -2102,6 +2091,17 @@
   </si>
   <si>
     <t>String (unless otherwise specified "GLD")</t>
+  </si>
+  <si>
+    <t>Code as 
+subnatid3 if migrated_from_cat == 1;
+as subnatid2 if migrated_from_cat is 2;
+as subnatid1 if migrated_from_cat is 3;
+missing if migrated_from_cat is 5</t>
+  </si>
+  <si>
+    <t>If migrated_from_cat is 5:
+Enter ISO 3 letter country code or undefined category like "Other South America", "Other Europe".</t>
   </si>
 </sst>
 </file>
@@ -3154,17 +3154,17 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="55.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="55.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
         <v>6</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -3220,7 +3220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -3243,7 +3243,7 @@
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="66"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -3264,7 +3264,7 @@
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="66"/>
       <c r="B6" s="1" t="s">
         <v>22</v>
@@ -3287,7 +3287,7 @@
       <c r="L6" s="67"/>
       <c r="M6" s="67"/>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="66"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
@@ -3305,7 +3305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
       <c r="B8" s="1" t="s">
         <v>30</v>
@@ -3328,7 +3328,7 @@
       <c r="L8" s="67"/>
       <c r="M8" s="67"/>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
       <c r="B9" s="1" t="s">
         <v>34</v>
@@ -3349,7 +3349,7 @@
       <c r="L9" s="67"/>
       <c r="M9" s="67"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="66"/>
       <c r="B10" s="1" t="s">
         <v>37</v>
@@ -3370,7 +3370,7 @@
       <c r="L10" s="67"/>
       <c r="M10" s="67"/>
     </row>
-    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="66"/>
       <c r="B11" s="7" t="s">
         <v>41</v>
@@ -3389,7 +3389,7 @@
       <c r="L11" s="67"/>
       <c r="M11" s="67"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="66"/>
       <c r="B12" s="1" t="s">
         <v>44</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="66"/>
       <c r="B13" s="1" t="s">
         <v>47</v>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
         <v>50</v>
       </c>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="4" t="s">
         <v>55</v>
@@ -3477,7 +3477,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="65"/>
       <c r="B17" s="4" t="s">
         <v>60</v>
@@ -3500,7 +3500,7 @@
       <c r="L17" s="67"/>
       <c r="M17" s="67"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="65"/>
       <c r="B18" s="4" t="s">
         <v>64</v>
@@ -3516,7 +3516,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="65"/>
       <c r="B19" s="4" t="s">
         <v>67</v>
@@ -3532,7 +3532,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="69" t="s">
         <v>70</v>
       </c>
@@ -3559,7 +3559,7 @@
       <c r="L20" s="71"/>
       <c r="M20" s="71"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="69"/>
       <c r="B21" s="13" t="s">
         <v>49</v>
@@ -3582,7 +3582,7 @@
       <c r="L21" s="71"/>
       <c r="M21" s="71"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="66" t="s">
         <v>72</v>
       </c>
@@ -3605,7 +3605,7 @@
       <c r="L22" s="71"/>
       <c r="M22" s="71"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="66"/>
       <c r="B23" s="1" t="s">
         <v>75</v>
@@ -3626,7 +3626,7 @@
       <c r="L23" s="71"/>
       <c r="M23" s="71"/>
     </row>
-    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="66"/>
       <c r="B24" s="1" t="s">
         <v>79</v>
@@ -3649,7 +3649,7 @@
       <c r="L24" s="71"/>
       <c r="M24" s="71"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="66"/>
       <c r="B25" s="1" t="s">
         <v>84</v>
@@ -3665,7 +3665,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="66"/>
       <c r="B26" s="1" t="s">
         <v>88</v>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="66"/>
       <c r="B27" s="1" t="s">
         <v>91</v>
@@ -3697,7 +3697,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="66"/>
       <c r="B28" s="1" t="s">
         <v>95</v>
@@ -3711,7 +3711,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="68"/>
     </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="66"/>
       <c r="B29" s="1" t="s">
         <v>97</v>
@@ -3725,7 +3725,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="68"/>
     </row>
-    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="66"/>
       <c r="B30" s="1" t="s">
         <v>99</v>
@@ -3739,7 +3739,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="68"/>
     </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="66"/>
       <c r="B31" s="1" t="s">
         <v>101</v>
@@ -3753,7 +3753,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="68"/>
     </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="66"/>
       <c r="B32" s="1" t="s">
         <v>103</v>
@@ -3767,7 +3767,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="68"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="65" t="s">
         <v>105</v>
       </c>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="65"/>
       <c r="B34" s="4" t="s">
         <v>110</v>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="65"/>
       <c r="B35" s="4" t="s">
         <v>112</v>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="65"/>
       <c r="B36" s="4" t="s">
         <v>115</v>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
       <c r="B37" s="4" t="s">
         <v>119</v>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="65"/>
       <c r="B38" s="4" t="s">
         <v>123</v>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="66" t="s">
         <v>127</v>
       </c>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="66"/>
       <c r="B40" s="1" t="s">
         <v>131</v>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="66"/>
       <c r="B41" s="1" t="s">
         <v>134</v>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="66"/>
       <c r="B42" s="1" t="s">
         <v>137</v>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="66"/>
       <c r="B43" s="1" t="s">
         <v>139</v>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="66"/>
       <c r="B44" s="1" t="s">
         <v>141</v>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="66"/>
       <c r="B45" s="1" t="s">
         <v>144</v>
@@ -3981,7 +3981,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="66"/>
       <c r="B46" s="1" t="s">
         <v>148</v>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="66"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4005,7 +4005,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="66"/>
       <c r="B48" s="1" t="s">
         <v>150</v>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="66"/>
       <c r="B49" s="1" t="s">
         <v>154</v>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="66"/>
       <c r="B50" s="1" t="s">
         <v>158</v>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="66"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4061,7 +4061,7 @@
       <c r="E51" s="11"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="66"/>
       <c r="B52" s="1" t="s">
         <v>160</v>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="66"/>
       <c r="B53" s="1" t="s">
         <v>163</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="66"/>
       <c r="B54" s="1" t="s">
         <v>166</v>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="66"/>
       <c r="B55" s="1" t="s">
         <v>169</v>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="66"/>
       <c r="B56" s="1" t="s">
         <v>171</v>
@@ -4139,7 +4139,7 @@
       <c r="E56" s="11"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="66"/>
       <c r="B57" s="1" t="s">
         <v>173</v>
@@ -4153,7 +4153,7 @@
       <c r="E57" s="11"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="66"/>
       <c r="B58" s="1" t="s">
         <v>175</v>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="66"/>
       <c r="B59" s="1" t="s">
         <v>178</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="66"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="66"/>
       <c r="B61" s="1" t="s">
         <v>182</v>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="66"/>
       <c r="B62" s="1" t="s">
         <v>184</v>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="66"/>
       <c r="B63" s="1" t="s">
         <v>186</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="66"/>
       <c r="B64" s="1" t="s">
         <v>188</v>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="66"/>
       <c r="B65" s="1" t="s">
         <v>190</v>
@@ -4279,7 +4279,7 @@
       <c r="E65" s="11"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="66"/>
       <c r="B66" s="1" t="s">
         <v>193</v>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="66"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4303,7 +4303,7 @@
       <c r="E67" s="11"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="66"/>
       <c r="B68" s="1" t="s">
         <v>195</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="66"/>
       <c r="B69" s="1" t="s">
         <v>198</v>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="66"/>
       <c r="B70" s="1" t="s">
         <v>201</v>
@@ -4349,7 +4349,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="66"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4357,7 +4357,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="66"/>
       <c r="B72" s="1" t="s">
         <v>203</v>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="66"/>
       <c r="B73" s="1" t="s">
         <v>205</v>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="66"/>
       <c r="B74" s="1" t="s">
         <v>208</v>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="66"/>
       <c r="B75" s="1" t="s">
         <v>210</v>
@@ -4419,7 +4419,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="66"/>
       <c r="B76" s="1" t="s">
         <v>212</v>
@@ -4433,7 +4433,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="66"/>
       <c r="B77" s="1" t="s">
         <v>214</v>
@@ -4447,7 +4447,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="66"/>
       <c r="B78" s="1" t="s">
         <v>216</v>
@@ -4461,7 +4461,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="66"/>
       <c r="B79" s="1" t="s">
         <v>218</v>
@@ -4475,7 +4475,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="66"/>
       <c r="B80" s="1" t="s">
         <v>220</v>
@@ -4489,7 +4489,7 @@
       <c r="E80" s="11"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="66"/>
       <c r="B81" s="1" t="s">
         <v>222</v>
@@ -4503,7 +4503,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="66"/>
       <c r="B82" s="1" t="s">
         <v>224</v>
@@ -4517,7 +4517,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="66"/>
       <c r="B83" s="1" t="s">
         <v>226</v>
@@ -4531,7 +4531,7 @@
       <c r="E83" s="11"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="66"/>
       <c r="B84" s="1" t="s">
         <v>228</v>
@@ -4545,7 +4545,7 @@
       <c r="E84" s="11"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="66"/>
       <c r="B85" s="1" t="s">
         <v>230</v>
@@ -4559,7 +4559,7 @@
       <c r="E85" s="11"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="66"/>
       <c r="B86" s="1" t="s">
         <v>232</v>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="66"/>
       <c r="B87" s="1" t="s">
         <v>234</v>
@@ -4589,7 +4589,7 @@
       <c r="E87" s="11"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="66"/>
       <c r="B88" s="1" t="s">
         <v>236</v>
@@ -4603,7 +4603,7 @@
       <c r="E88" s="11"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="66"/>
       <c r="B89" s="1" t="s">
         <v>238</v>
@@ -4617,7 +4617,7 @@
       <c r="E89" s="11"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="66"/>
       <c r="B90" s="1" t="s">
         <v>240</v>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="66"/>
       <c r="B91" s="1" t="s">
         <v>242</v>
@@ -4647,7 +4647,7 @@
       <c r="E91" s="11"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="66"/>
       <c r="B92" s="1" t="s">
         <v>244</v>
@@ -4661,7 +4661,7 @@
       <c r="E92" s="11"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="66"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4669,7 +4669,7 @@
       <c r="E93" s="11"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="66"/>
       <c r="B94" s="1" t="s">
         <v>246</v>
@@ -4683,7 +4683,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="66"/>
       <c r="B95" s="1" t="s">
         <v>248</v>
@@ -4697,7 +4697,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="66"/>
       <c r="B96" s="1" t="s">
         <v>250</v>
@@ -4711,7 +4711,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="66"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4719,7 +4719,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="66"/>
       <c r="B98" s="1" t="s">
         <v>252</v>
@@ -4733,7 +4733,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="66"/>
       <c r="B99" s="1" t="s">
         <v>254</v>
@@ -4747,7 +4747,7 @@
       <c r="E99" s="11"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="66"/>
       <c r="B100" s="1" t="s">
         <v>257</v>
@@ -4761,7 +4761,7 @@
       <c r="E100" s="11"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="66"/>
       <c r="B101" s="1" t="s">
         <v>259</v>
@@ -4775,7 +4775,7 @@
       <c r="E101" s="11"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="66"/>
       <c r="B102" s="1" t="s">
         <v>262</v>
@@ -4789,7 +4789,7 @@
       <c r="E102" s="11"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="66"/>
       <c r="B103" s="1" t="s">
         <v>264</v>
@@ -4803,7 +4803,7 @@
       <c r="E103" s="11"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="66"/>
       <c r="B104" s="1" t="s">
         <v>266</v>
@@ -4817,7 +4817,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="66"/>
       <c r="B105" s="1" t="s">
         <v>268</v>
@@ -4831,7 +4831,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="66"/>
       <c r="B106" s="1" t="s">
         <v>270</v>
@@ -4845,7 +4845,7 @@
       <c r="E106" s="11"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="66"/>
       <c r="B107" s="1" t="s">
         <v>272</v>
@@ -4859,7 +4859,7 @@
       <c r="E107" s="11"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="66"/>
       <c r="B108" s="1" t="s">
         <v>274</v>
@@ -4873,7 +4873,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="66"/>
       <c r="B109" s="1" t="s">
         <v>276</v>
@@ -4887,7 +4887,7 @@
       <c r="E109" s="11"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="66"/>
       <c r="B110" s="1" t="s">
         <v>278</v>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="66"/>
       <c r="B111" s="1" t="s">
         <v>280</v>
@@ -4917,7 +4917,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="66"/>
       <c r="B112" s="1" t="s">
         <v>282</v>
@@ -4931,7 +4931,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="66"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4939,7 +4939,7 @@
       <c r="E113" s="11"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="66"/>
       <c r="B114" s="1" t="s">
         <v>284</v>
@@ -4953,7 +4953,7 @@
       <c r="E114" s="11"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="66"/>
       <c r="B115" s="1" t="s">
         <v>287</v>
@@ -4967,7 +4967,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="66"/>
       <c r="B116" s="1" t="s">
         <v>289</v>
@@ -4981,7 +4981,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="66"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4989,7 +4989,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="66"/>
       <c r="B118" s="1" t="s">
         <v>291</v>
@@ -5003,7 +5003,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="66"/>
       <c r="B119" s="1" t="s">
         <v>293</v>
@@ -5017,7 +5017,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="66"/>
       <c r="B120" s="1" t="s">
         <v>296</v>
@@ -5031,7 +5031,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="66"/>
       <c r="B121" s="1" t="s">
         <v>298</v>
@@ -5045,7 +5045,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="66"/>
       <c r="B122" s="1" t="s">
         <v>301</v>
@@ -5059,7 +5059,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="66"/>
       <c r="B123" s="1" t="s">
         <v>303</v>
@@ -5071,7 +5071,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="66"/>
       <c r="B124" s="1" t="s">
         <v>305</v>
@@ -5085,7 +5085,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="66"/>
       <c r="B125" s="1" t="s">
         <v>307</v>
@@ -5099,7 +5099,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="66"/>
       <c r="B126" s="1" t="s">
         <v>309</v>
@@ -5113,7 +5113,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="66"/>
       <c r="B127" s="1" t="s">
         <v>311</v>
@@ -5127,7 +5127,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="66"/>
       <c r="B128" s="1" t="s">
         <v>313</v>
@@ -5143,7 +5143,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="66"/>
       <c r="B129" s="1" t="s">
         <v>315</v>
@@ -5157,7 +5157,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="66"/>
       <c r="B130" s="1" t="s">
         <v>317</v>
@@ -5171,7 +5171,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="66"/>
       <c r="B131" s="1" t="s">
         <v>319</v>
@@ -5185,7 +5185,7 @@
       <c r="E131" s="11"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="66"/>
       <c r="B132" s="1" t="s">
         <v>321</v>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="66"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="66"/>
       <c r="B134" s="1" t="s">
         <v>324</v>
@@ -5225,7 +5225,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="66"/>
       <c r="B135" s="1" t="s">
         <v>326</v>
@@ -5239,7 +5239,7 @@
       <c r="E135" s="11"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="66"/>
       <c r="B136" s="1" t="s">
         <v>328</v>
@@ -5278,21 +5278,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655A41D-FAAE-4875-A0C4-A516EEA673B9}">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="55.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="55.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
         <v>6</v>
       </c>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="72"/>
       <c r="B3" s="15" t="s">
         <v>7</v>
@@ -5348,7 +5348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="72"/>
       <c r="B4" s="18" t="s">
         <v>12</v>
@@ -5364,7 +5364,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="72"/>
       <c r="B5" s="18" t="s">
         <v>465</v>
@@ -5380,49 +5380,49 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="72"/>
       <c r="B6" s="18" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="72"/>
       <c r="B7" s="18" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="72"/>
       <c r="B8" s="18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="72"/>
       <c r="B9" s="18" t="s">
         <v>19</v>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="72"/>
       <c r="B10" s="18" t="s">
         <v>432</v>
@@ -5452,7 +5452,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="72"/>
       <c r="B11" s="18" t="s">
         <v>433</v>
@@ -5466,7 +5466,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="72"/>
       <c r="B12" s="18" t="s">
         <v>434</v>
@@ -5475,12 +5475,12 @@
         <v>437</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="72"/>
       <c r="B13" s="18" t="s">
         <v>22</v>
@@ -5498,7 +5498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="72"/>
       <c r="B14" s="18" t="s">
         <v>26</v>
@@ -5516,7 +5516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="72"/>
       <c r="B15" s="18" t="s">
         <v>30</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="72"/>
       <c r="B16" s="18" t="s">
         <v>34</v>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="72"/>
       <c r="B17" s="18" t="s">
         <v>37</v>
@@ -5564,37 +5564,37 @@
       </c>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="72"/>
       <c r="B18" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>555</v>
-      </c>
       <c r="E18" s="19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="72"/>
       <c r="B19" s="64" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="72"/>
       <c r="B20" s="18" t="s">
         <v>430</v>
@@ -5608,7 +5608,7 @@
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="73" t="s">
         <v>50</v>
       </c>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="73"/>
       <c r="B22" s="37" t="s">
         <v>55</v>
@@ -5644,7 +5644,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="73"/>
       <c r="B23" s="37" t="s">
         <v>60</v>
@@ -5660,7 +5660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="73"/>
       <c r="B24" s="37" t="s">
         <v>64</v>
@@ -5676,7 +5676,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="73"/>
       <c r="B25" s="45" t="s">
         <v>47</v>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="73"/>
       <c r="B26" s="41" t="s">
         <v>67</v>
@@ -5708,7 +5708,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
         <v>72</v>
       </c>
@@ -5722,11 +5722,11 @@
         <v>39</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="77"/>
       <c r="B28" s="18" t="s">
         <v>73</v>
@@ -5742,7 +5742,7 @@
       </c>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="77"/>
       <c r="B29" s="18" t="s">
         <v>75</v>
@@ -5758,7 +5758,7 @@
       </c>
       <c r="F29" s="20"/>
     </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="77"/>
       <c r="B30" s="18" t="s">
         <v>79</v>
@@ -5776,7 +5776,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="77"/>
       <c r="B31" s="18" t="s">
         <v>84</v>
@@ -5792,7 +5792,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="77"/>
       <c r="B32" s="18" t="s">
         <v>88</v>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="F32" s="20"/>
     </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="77"/>
       <c r="B33" s="18" t="s">
         <v>91</v>
@@ -5824,7 +5824,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="77"/>
       <c r="B34" s="18" t="s">
         <v>95</v>
@@ -5838,7 +5838,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="75"/>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="77"/>
       <c r="B35" s="18" t="s">
         <v>97</v>
@@ -5852,7 +5852,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="75"/>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="77"/>
       <c r="B36" s="18" t="s">
         <v>99</v>
@@ -5866,7 +5866,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="75"/>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="77"/>
       <c r="B37" s="18" t="s">
         <v>101</v>
@@ -5880,7 +5880,7 @@
       <c r="E37" s="19"/>
       <c r="F37" s="75"/>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="77"/>
       <c r="B38" s="18" t="s">
         <v>103</v>
@@ -5894,15 +5894,15 @@
       <c r="E38" s="19"/>
       <c r="F38" s="76"/>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B39" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="C39" s="34" t="s">
         <v>485</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>486</v>
       </c>
       <c r="D39" s="34" t="s">
         <v>114</v>
@@ -5910,26 +5910,26 @@
       <c r="E39" s="35"/>
       <c r="F39" s="36"/>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="78"/>
       <c r="B40" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="C40" s="48" t="s">
         <v>488</v>
       </c>
-      <c r="C40" s="48" t="s">
-        <v>489</v>
-      </c>
       <c r="D40" s="48" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E40" s="39"/>
       <c r="F40" s="40" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="78"/>
       <c r="B41" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C41" s="38" t="s">
         <v>475</v>
@@ -5940,7 +5940,7 @@
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="78"/>
       <c r="B42" s="37" t="s">
         <v>471</v>
@@ -5956,23 +5956,23 @@
         <v>477</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="78"/>
       <c r="B43" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="C43" s="38" t="s">
         <v>528</v>
       </c>
-      <c r="C43" s="38" t="s">
-        <v>530</v>
-      </c>
       <c r="D43" s="38" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E43" s="39"/>
       <c r="F43" s="40" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="78"/>
       <c r="B44" s="37" t="s">
         <v>472</v>
@@ -5981,12 +5981,12 @@
         <v>478</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="40"/>
     </row>
-    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="78"/>
       <c r="B45" s="37" t="s">
         <v>473</v>
@@ -5995,58 +5995,58 @@
         <v>479</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>480</v>
+        <v>558</v>
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="40"/>
     </row>
-    <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="78"/>
       <c r="B46" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="C46" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="C46" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="D46" s="46" t="s">
-        <v>493</v>
+        <v>559</v>
       </c>
       <c r="E46" s="49"/>
       <c r="F46" s="50"/>
     </row>
-    <row r="47" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="78"/>
       <c r="B47" s="41" t="s">
         <v>474</v>
       </c>
       <c r="C47" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="D47" s="42" t="s">
         <v>481</v>
-      </c>
-      <c r="D47" s="42" t="s">
-        <v>482</v>
       </c>
       <c r="E47" s="43"/>
       <c r="F47" s="44"/>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="72" t="s">
         <v>105</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>114</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F48" s="25"/>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="72"/>
       <c r="B49" s="23" t="s">
         <v>106</v>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="F49" s="51"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="72"/>
       <c r="B50" s="26" t="s">
         <v>110</v>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="F50" s="28"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="72"/>
       <c r="B51" s="26" t="s">
         <v>112</v>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="F51" s="28"/>
     </row>
-    <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A52" s="72"/>
       <c r="B52" s="26" t="s">
         <v>115</v>
@@ -6112,7 +6112,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="72"/>
       <c r="B53" s="26" t="s">
         <v>119</v>
@@ -6128,7 +6128,7 @@
       </c>
       <c r="F53" s="28"/>
     </row>
-    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="72"/>
       <c r="B54" s="29" t="s">
         <v>123</v>
@@ -6137,54 +6137,54 @@
         <v>124</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E54" s="31" t="s">
         <v>126</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="72"/>
       <c r="B55" s="15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="32"/>
       <c r="F55" s="17" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A56" s="72"/>
       <c r="B56" s="15" t="s">
         <v>459</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>460</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="17" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="73" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D57" s="53" t="s">
         <v>108</v>
@@ -6192,27 +6192,27 @@
       <c r="E57" s="54"/>
       <c r="F57" s="53"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="73"/>
       <c r="B58" s="52" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D58" s="53" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E58" s="54"/>
       <c r="F58" s="53"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="73"/>
       <c r="B59" s="52" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D59" s="53" t="s">
         <v>114</v>
@@ -6220,13 +6220,13 @@
       <c r="E59" s="54"/>
       <c r="F59" s="53"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="73"/>
       <c r="B60" s="52" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D60" s="53" t="s">
         <v>114</v>
@@ -6234,35 +6234,35 @@
       <c r="E60" s="54"/>
       <c r="F60" s="53"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="73"/>
       <c r="B61" s="52" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D61" s="53"/>
       <c r="E61" s="54"/>
       <c r="F61" s="53"/>
     </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="73"/>
       <c r="B62" s="52" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C62" s="52" t="s">
+        <v>523</v>
+      </c>
+      <c r="D62" s="53" t="s">
         <v>525</v>
-      </c>
-      <c r="D62" s="53" t="s">
-        <v>527</v>
       </c>
       <c r="E62" s="54"/>
       <c r="F62" s="53" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="72" t="s">
         <v>127</v>
       </c>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="F63" s="57"/>
     </row>
-    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="72"/>
       <c r="B64" s="58" t="s">
         <v>131</v>
@@ -6298,39 +6298,39 @@
         <v>334</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="72"/>
       <c r="B65" s="58" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C65" s="59" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D65" s="59" t="s">
         <v>108</v>
       </c>
       <c r="E65" s="60"/>
       <c r="F65" s="59" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="72"/>
       <c r="B66" s="58" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D66" s="59" t="s">
         <v>108</v>
       </c>
       <c r="E66" s="60"/>
       <c r="F66" s="59" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="72"/>
       <c r="B67" s="58" t="s">
         <v>134</v>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="F67" s="59"/>
     </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="72"/>
       <c r="B68" s="58" t="s">
         <v>137</v>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="F68" s="59"/>
     </row>
-    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="72"/>
       <c r="B69" s="58" t="s">
         <v>139</v>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="F69" s="59"/>
     </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="72"/>
       <c r="B70" s="58" t="s">
         <v>141</v>
@@ -6394,7 +6394,7 @@
       </c>
       <c r="F70" s="59"/>
     </row>
-    <row r="71" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="72"/>
       <c r="B71" s="58" t="s">
         <v>144</v>
@@ -6412,7 +6412,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="72"/>
       <c r="B72" s="58" t="s">
         <v>148</v>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="F72" s="59"/>
     </row>
-    <row r="73" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A73" s="72"/>
       <c r="B73" s="58" t="s">
         <v>442</v>
@@ -6437,14 +6437,14 @@
         <v>444</v>
       </c>
       <c r="D73" s="58" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E73" s="60"/>
       <c r="F73" s="59" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A74" s="72"/>
       <c r="B74" s="58" t="s">
         <v>150</v>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="F74" s="59"/>
     </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="72"/>
       <c r="B75" s="58" t="s">
         <v>154</v>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="F75" s="59"/>
     </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="72"/>
       <c r="B76" s="58" t="s">
         <v>158</v>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="F76" s="59"/>
     </row>
-    <row r="77" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A77" s="72"/>
       <c r="B77" s="58" t="s">
         <v>441</v>
@@ -6501,30 +6501,30 @@
         <v>443</v>
       </c>
       <c r="D77" s="58" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E77" s="60"/>
       <c r="F77" s="59" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="72"/>
       <c r="B78" s="58" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C78" s="59" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D78" s="59" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E78" s="60"/>
       <c r="F78" s="59" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A79" s="72"/>
       <c r="B79" s="58" t="s">
         <v>160</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="F79" s="59"/>
     </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="72"/>
       <c r="B80" s="58" t="s">
         <v>163</v>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="F80" s="59"/>
     </row>
-    <row r="81" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A81" s="72"/>
       <c r="B81" s="58" t="s">
         <v>166</v>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="F81" s="59"/>
     </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="72"/>
       <c r="B82" s="58" t="s">
         <v>169</v>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="F82" s="59"/>
     </row>
-    <row r="83" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A83" s="72"/>
       <c r="B83" s="58" t="s">
         <v>171</v>
@@ -6604,7 +6604,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="72"/>
       <c r="B84" s="58" t="s">
         <v>173</v>
@@ -6618,7 +6618,7 @@
       <c r="E84" s="60"/>
       <c r="F84" s="59"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="72"/>
       <c r="B85" s="58" t="s">
         <v>175</v>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="F85" s="59"/>
     </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="72"/>
       <c r="B86" s="58" t="s">
         <v>178</v>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="F86" s="59"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="72"/>
       <c r="B87" s="58" t="s">
         <v>180</v>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="F87" s="59"/>
     </row>
-    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="72"/>
       <c r="B88" s="58" t="s">
         <v>182</v>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="F88" s="59"/>
     </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="72"/>
       <c r="B89" s="58" t="s">
         <v>184</v>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="F89" s="59"/>
     </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="72"/>
       <c r="B90" s="58" t="s">
         <v>186</v>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="F90" s="59"/>
     </row>
-    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="72"/>
       <c r="B91" s="58" t="s">
         <v>188</v>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="F91" s="59"/>
     </row>
-    <row r="92" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="72"/>
       <c r="B92" s="58" t="s">
         <v>190</v>
@@ -6744,7 +6744,7 @@
       <c r="E92" s="60"/>
       <c r="F92" s="59"/>
     </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="72"/>
       <c r="B93" s="58" t="s">
         <v>193</v>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="F93" s="59"/>
     </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="72"/>
       <c r="B94" s="58" t="s">
         <v>446</v>
@@ -6776,7 +6776,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A95" s="72"/>
       <c r="B95" s="58" t="s">
         <v>195</v>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="F95" s="59"/>
     </row>
-    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="72"/>
       <c r="B96" s="58" t="s">
         <v>198</v>
@@ -6808,7 +6808,7 @@
       </c>
       <c r="F96" s="59"/>
     </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="72"/>
       <c r="B97" s="58" t="s">
         <v>201</v>
@@ -6822,7 +6822,7 @@
       <c r="E97" s="60"/>
       <c r="F97" s="59"/>
     </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="72"/>
       <c r="B98" s="58" t="s">
         <v>450</v>
@@ -6831,30 +6831,30 @@
         <v>451</v>
       </c>
       <c r="D98" s="58" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E98" s="60"/>
       <c r="F98" s="59" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="72"/>
       <c r="B99" s="58" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C99" s="59" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D99" s="59" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E99" s="60"/>
       <c r="F99" s="59" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A100" s="72"/>
       <c r="B100" s="58" t="s">
         <v>203</v>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="F100" s="59"/>
     </row>
-    <row r="101" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="72"/>
       <c r="B101" s="58" t="s">
         <v>205</v>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="F101" s="59"/>
     </row>
-    <row r="102" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A102" s="72"/>
       <c r="B102" s="58" t="s">
         <v>208</v>
@@ -6902,7 +6902,7 @@
       </c>
       <c r="F102" s="59"/>
     </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="72"/>
       <c r="B103" s="58" t="s">
         <v>210</v>
@@ -6916,7 +6916,7 @@
       <c r="E103" s="60"/>
       <c r="F103" s="59"/>
     </row>
-    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="72"/>
       <c r="B104" s="58" t="s">
         <v>212</v>
@@ -6932,7 +6932,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="72"/>
       <c r="B105" s="58" t="s">
         <v>214</v>
@@ -6946,7 +6946,7 @@
       <c r="E105" s="60"/>
       <c r="F105" s="59"/>
     </row>
-    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="72"/>
       <c r="B106" s="58" t="s">
         <v>216</v>
@@ -6960,7 +6960,7 @@
       <c r="E106" s="60"/>
       <c r="F106" s="59"/>
     </row>
-    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="72"/>
       <c r="B107" s="58" t="s">
         <v>218</v>
@@ -6974,7 +6974,7 @@
       <c r="E107" s="60"/>
       <c r="F107" s="59"/>
     </row>
-    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="72"/>
       <c r="B108" s="58" t="s">
         <v>220</v>
@@ -6990,7 +6990,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="72"/>
       <c r="B109" s="58" t="s">
         <v>222</v>
@@ -7004,7 +7004,7 @@
       <c r="E109" s="60"/>
       <c r="F109" s="59"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="72"/>
       <c r="B110" s="58" t="s">
         <v>458</v>
@@ -7018,7 +7018,7 @@
       <c r="E110" s="60"/>
       <c r="F110" s="59"/>
     </row>
-    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="72"/>
       <c r="B111" s="58" t="s">
         <v>469</v>
@@ -7032,7 +7032,7 @@
       <c r="E111" s="60"/>
       <c r="F111" s="59"/>
     </row>
-    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="72"/>
       <c r="B112" s="58" t="s">
         <v>228</v>
@@ -7046,7 +7046,7 @@
       <c r="E112" s="60"/>
       <c r="F112" s="59"/>
     </row>
-    <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="72"/>
       <c r="B113" s="58" t="s">
         <v>230</v>
@@ -7060,7 +7060,7 @@
       <c r="E113" s="60"/>
       <c r="F113" s="59"/>
     </row>
-    <row r="114" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A114" s="72"/>
       <c r="B114" s="58" t="s">
         <v>232</v>
@@ -7078,39 +7078,39 @@
         <v>379</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="72"/>
       <c r="B115" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="C115" s="59" t="s">
         <v>508</v>
-      </c>
-      <c r="C115" s="59" t="s">
-        <v>510</v>
       </c>
       <c r="D115" s="59" t="s">
         <v>108</v>
       </c>
       <c r="E115" s="60"/>
       <c r="F115" s="59" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A116" s="72"/>
       <c r="B116" s="58" t="s">
+        <v>507</v>
+      </c>
+      <c r="C116" s="59" t="s">
         <v>509</v>
-      </c>
-      <c r="C116" s="59" t="s">
-        <v>511</v>
       </c>
       <c r="D116" s="59" t="s">
         <v>108</v>
       </c>
       <c r="E116" s="60"/>
       <c r="F116" s="59" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="72"/>
       <c r="B117" s="58" t="s">
         <v>234</v>
@@ -7124,7 +7124,7 @@
       <c r="E117" s="60"/>
       <c r="F117" s="59"/>
     </row>
-    <row r="118" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="72"/>
       <c r="B118" s="58" t="s">
         <v>236</v>
@@ -7138,7 +7138,7 @@
       <c r="E118" s="60"/>
       <c r="F118" s="59"/>
     </row>
-    <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="72"/>
       <c r="B119" s="58" t="s">
         <v>238</v>
@@ -7152,7 +7152,7 @@
       <c r="E119" s="60"/>
       <c r="F119" s="59"/>
     </row>
-    <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="72"/>
       <c r="B120" s="58" t="s">
         <v>240</v>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="F120" s="59"/>
     </row>
-    <row r="121" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A121" s="72"/>
       <c r="B121" s="58" t="s">
         <v>242</v>
@@ -7182,7 +7182,7 @@
       <c r="E121" s="60"/>
       <c r="F121" s="59"/>
     </row>
-    <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="72"/>
       <c r="B122" s="58" t="s">
         <v>244</v>
@@ -7196,7 +7196,7 @@
       <c r="E122" s="60"/>
       <c r="F122" s="59"/>
     </row>
-    <row r="123" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="72"/>
       <c r="B123" s="58" t="s">
         <v>448</v>
@@ -7212,7 +7212,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A124" s="72"/>
       <c r="B124" s="58" t="s">
         <v>246</v>
@@ -7226,7 +7226,7 @@
       <c r="E124" s="60"/>
       <c r="F124" s="59"/>
     </row>
-    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="72"/>
       <c r="B125" s="58" t="s">
         <v>248</v>
@@ -7240,7 +7240,7 @@
       <c r="E125" s="60"/>
       <c r="F125" s="59"/>
     </row>
-    <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="72"/>
       <c r="B126" s="58" t="s">
         <v>250</v>
@@ -7254,7 +7254,7 @@
       <c r="E126" s="60"/>
       <c r="F126" s="59"/>
     </row>
-    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="72"/>
       <c r="B127" s="58" t="s">
         <v>452</v>
@@ -7263,30 +7263,30 @@
         <v>453</v>
       </c>
       <c r="D127" s="58" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E127" s="60"/>
       <c r="F127" s="59" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="72"/>
       <c r="B128" s="58" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C128" s="59" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D128" s="59" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E128" s="60"/>
       <c r="F128" s="59" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A129" s="72"/>
       <c r="B129" s="58" t="s">
         <v>252</v>
@@ -7300,7 +7300,7 @@
       <c r="E129" s="60"/>
       <c r="F129" s="59"/>
     </row>
-    <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="72"/>
       <c r="B130" s="58" t="s">
         <v>254</v>
@@ -7314,7 +7314,7 @@
       <c r="E130" s="60"/>
       <c r="F130" s="59"/>
     </row>
-    <row r="131" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A131" s="72"/>
       <c r="B131" s="58" t="s">
         <v>257</v>
@@ -7328,7 +7328,7 @@
       <c r="E131" s="60"/>
       <c r="F131" s="59"/>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="72"/>
       <c r="B132" s="58" t="s">
         <v>259</v>
@@ -7342,7 +7342,7 @@
       <c r="E132" s="60"/>
       <c r="F132" s="59"/>
     </row>
-    <row r="133" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="72"/>
       <c r="B133" s="58" t="s">
         <v>262</v>
@@ -7356,7 +7356,7 @@
       <c r="E133" s="60"/>
       <c r="F133" s="59"/>
     </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="72"/>
       <c r="B134" s="58" t="s">
         <v>264</v>
@@ -7370,7 +7370,7 @@
       <c r="E134" s="60"/>
       <c r="F134" s="59"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="72"/>
       <c r="B135" s="58" t="s">
         <v>266</v>
@@ -7384,7 +7384,7 @@
       <c r="E135" s="60"/>
       <c r="F135" s="59"/>
     </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="72"/>
       <c r="B136" s="58" t="s">
         <v>268</v>
@@ -7398,7 +7398,7 @@
       <c r="E136" s="60"/>
       <c r="F136" s="59"/>
     </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="72"/>
       <c r="B137" s="58" t="s">
         <v>270</v>
@@ -7412,7 +7412,7 @@
       <c r="E137" s="60"/>
       <c r="F137" s="59"/>
     </row>
-    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="72"/>
       <c r="B138" s="58" t="s">
         <v>272</v>
@@ -7426,7 +7426,7 @@
       <c r="E138" s="60"/>
       <c r="F138" s="59"/>
     </row>
-    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="72"/>
       <c r="B139" s="58" t="s">
         <v>274</v>
@@ -7440,7 +7440,7 @@
       <c r="E139" s="60"/>
       <c r="F139" s="59"/>
     </row>
-    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="72"/>
       <c r="B140" s="58" t="s">
         <v>276</v>
@@ -7454,7 +7454,7 @@
       <c r="E140" s="60"/>
       <c r="F140" s="59"/>
     </row>
-    <row r="141" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="72"/>
       <c r="B141" s="58" t="s">
         <v>278</v>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="F141" s="59"/>
     </row>
-    <row r="142" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="72"/>
       <c r="B142" s="58" t="s">
         <v>280</v>
@@ -7484,7 +7484,7 @@
       <c r="E142" s="60"/>
       <c r="F142" s="59"/>
     </row>
-    <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="72"/>
       <c r="B143" s="58" t="s">
         <v>470</v>
@@ -7498,7 +7498,7 @@
       <c r="E143" s="60"/>
       <c r="F143" s="59"/>
     </row>
-    <row r="144" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="72"/>
       <c r="B144" s="58" t="s">
         <v>454</v>
@@ -7514,7 +7514,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A145" s="72"/>
       <c r="B145" s="58" t="s">
         <v>284</v>
@@ -7528,7 +7528,7 @@
       <c r="E145" s="60"/>
       <c r="F145" s="59"/>
     </row>
-    <row r="146" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="72"/>
       <c r="B146" s="58" t="s">
         <v>287</v>
@@ -7542,7 +7542,7 @@
       <c r="E146" s="60"/>
       <c r="F146" s="59"/>
     </row>
-    <row r="147" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="72"/>
       <c r="B147" s="58" t="s">
         <v>289</v>
@@ -7556,7 +7556,7 @@
       <c r="E147" s="60"/>
       <c r="F147" s="59"/>
     </row>
-    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="72"/>
       <c r="B148" s="58" t="s">
         <v>456</v>
@@ -7565,30 +7565,30 @@
         <v>457</v>
       </c>
       <c r="D148" s="58" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E148" s="60"/>
       <c r="F148" s="59" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="72"/>
       <c r="B149" s="58" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C149" s="59" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D149" s="59" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E149" s="60"/>
       <c r="F149" s="59" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A150" s="72"/>
       <c r="B150" s="58" t="s">
         <v>291</v>
@@ -7602,7 +7602,7 @@
       <c r="E150" s="60"/>
       <c r="F150" s="59"/>
     </row>
-    <row r="151" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="72"/>
       <c r="B151" s="58" t="s">
         <v>293</v>
@@ -7616,7 +7616,7 @@
       <c r="E151" s="60"/>
       <c r="F151" s="59"/>
     </row>
-    <row r="152" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A152" s="72"/>
       <c r="B152" s="58" t="s">
         <v>296</v>
@@ -7630,7 +7630,7 @@
       <c r="E152" s="60"/>
       <c r="F152" s="59"/>
     </row>
-    <row r="153" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="72"/>
       <c r="B153" s="58" t="s">
         <v>298</v>
@@ -7644,7 +7644,7 @@
       <c r="E153" s="60"/>
       <c r="F153" s="59"/>
     </row>
-    <row r="154" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="72"/>
       <c r="B154" s="58" t="s">
         <v>301</v>
@@ -7658,7 +7658,7 @@
       <c r="E154" s="60"/>
       <c r="F154" s="59"/>
     </row>
-    <row r="155" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="72"/>
       <c r="B155" s="58" t="s">
         <v>303</v>
@@ -7670,7 +7670,7 @@
       <c r="E155" s="60"/>
       <c r="F155" s="59"/>
     </row>
-    <row r="156" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="72"/>
       <c r="B156" s="58" t="s">
         <v>305</v>
@@ -7684,7 +7684,7 @@
       <c r="E156" s="60"/>
       <c r="F156" s="59"/>
     </row>
-    <row r="157" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="72"/>
       <c r="B157" s="58" t="s">
         <v>307</v>
@@ -7698,7 +7698,7 @@
       <c r="E157" s="60"/>
       <c r="F157" s="59"/>
     </row>
-    <row r="158" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A158" s="72"/>
       <c r="B158" s="58" t="s">
         <v>309</v>
@@ -7712,7 +7712,7 @@
       <c r="E158" s="60"/>
       <c r="F158" s="59"/>
     </row>
-    <row r="159" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A159" s="72"/>
       <c r="B159" s="58" t="s">
         <v>311</v>
@@ -7726,7 +7726,7 @@
       <c r="E159" s="60"/>
       <c r="F159" s="59"/>
     </row>
-    <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="72"/>
       <c r="B160" s="58" t="s">
         <v>224</v>
@@ -7740,7 +7740,7 @@
       <c r="E160" s="60"/>
       <c r="F160" s="59"/>
     </row>
-    <row r="161" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="72"/>
       <c r="B161" s="58" t="s">
         <v>315</v>
@@ -7754,7 +7754,7 @@
       <c r="E161" s="60"/>
       <c r="F161" s="59"/>
     </row>
-    <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="72"/>
       <c r="B162" s="58" t="s">
         <v>317</v>
@@ -7768,7 +7768,7 @@
       <c r="E162" s="60"/>
       <c r="F162" s="59"/>
     </row>
-    <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="72"/>
       <c r="B163" s="58" t="s">
         <v>319</v>
@@ -7782,7 +7782,7 @@
       <c r="E163" s="60"/>
       <c r="F163" s="59"/>
     </row>
-    <row r="164" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A164" s="72"/>
       <c r="B164" s="58" t="s">
         <v>321</v>
@@ -7800,7 +7800,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="72"/>
       <c r="B165" s="58"/>
       <c r="C165" s="58"/>
@@ -7812,7 +7812,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="72"/>
       <c r="B166" s="58" t="s">
         <v>324</v>
@@ -7826,7 +7826,7 @@
       <c r="E166" s="60"/>
       <c r="F166" s="59"/>
     </row>
-    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="72"/>
       <c r="B167" s="58" t="s">
         <v>326</v>
@@ -7842,7 +7842,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="72"/>
       <c r="B168" s="61" t="s">
         <v>328</v>
@@ -7877,34 +7877,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
-    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
-    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Value>5</Value>
-      <Value>3</Value>
-    </TaxCatchAll>
-    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
-        </TermInfo>
-      </Terms>
-    </i008215bacac45029ee8cafff4c8e93b>
-    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
-    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F020023FF955149D2434D9634B069E3D44A42" ma:contentTypeVersion="49" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="765f642684fa63bc1b9312c368d0b6a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e953fe045711556fedbcbd575ad79d22" ns3:_="">
     <xsd:import namespace="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
@@ -8146,42 +8137,59 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>5</Value>
+      <Value>3</Value>
+    </TaxCatchAll>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8199,26 +8207,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Support/A - Guides and Documentation/GLD_Dictionary_v01.xlsx
+++ b/Support/A - Guides and Documentation/GLD_Dictionary_v01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb529026\Documents\gld\Support\A - Guides and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E2C4C8-F85F-4B79-B469-30FC92660AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF76106-A1CE-4AA1-9E48-3D7E1B49DD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="GLD Dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'GLD Dictionary'!$A$1:$F$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'GLD Dictionary'!$A$1:$F$170</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -62,7 +62,7 @@
     <author>tc={C9B75AEF-A677-4CBC-B5B2-102C7CAE6510}</author>
   </authors>
   <commentList>
-    <comment ref="B164" authorId="0" shapeId="0" xr:uid="{C9B75AEF-A677-4CBC-B5B2-102C7CAE6510}">
+    <comment ref="B166" authorId="0" shapeId="0" xr:uid="{C9B75AEF-A677-4CBC-B5B2-102C7CAE6510}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="567">
   <si>
     <t>Module</t>
   </si>
@@ -2102,6 +2102,27 @@
   <si>
     <t>If migrated_from_cat is 5:
 Enter ISO 3 letter country code or undefined category like "Other South America", "Other Europe".</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>visit_no</t>
+  </si>
+  <si>
+    <t>Panel the indvidual belongs to</t>
+  </si>
+  <si>
+    <t>Number of the visit within the panel</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Only to be filled out if concept present in raw data, otherwise left missing. No attempt to create panel info during harmonization if not already in data.</t>
+  </si>
+  <si>
+    <t>Only to be filled out if concept present in raw data, otherwise left missing. No attempt to create visit number info during harmonization if not already in data.</t>
   </si>
 </sst>
 </file>
@@ -2356,7 +2377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2542,6 +2563,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2583,6 +2607,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3140,7 +3173,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B164" dT="2021-01-04T14:59:32.96" personId="{AA1C213F-0BE3-45C7-AD62-FE87D2C519B4}" id="{C9B75AEF-A677-4CBC-B5B2-102C7CAE6510}">
+  <threadedComment ref="B166" dT="2021-01-04T14:59:32.96" personId="{AA1C213F-0BE3-45C7-AD62-FE87D2C519B4}" id="{C9B75AEF-A677-4CBC-B5B2-102C7CAE6510}">
     <text>Makes more sense to me as a categorical 0 / 1 / 2 / 3+ since barely any questionnaire will ask details passed the secondary job, will be the sum of other jobs so we will never know the number.</text>
   </threadedComment>
 </ThreadedComments>
@@ -3185,7 +3218,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3205,7 +3238,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3221,7 +3254,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3235,16 +3268,16 @@
         <v>17</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
@@ -3258,14 +3291,14 @@
         <v>19</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3281,14 +3314,14 @@
       <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -3306,7 +3339,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
@@ -3320,16 +3353,16 @@
         <v>32</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -3343,14 +3376,14 @@
         <v>36</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
@@ -3364,14 +3397,14 @@
         <v>40</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
     </row>
     <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="7" t="s">
         <v>41</v>
       </c>
@@ -3383,14 +3416,14 @@
       <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
@@ -3406,7 +3439,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
@@ -3442,7 +3475,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="66" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3460,7 +3493,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
@@ -3478,7 +3511,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="4" t="s">
         <v>60</v>
       </c>
@@ -3492,16 +3525,16 @@
       <c r="F17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="67" t="s">
+      <c r="I17" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="4" t="s">
         <v>64</v>
       </c>
@@ -3517,7 +3550,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="4" t="s">
         <v>67</v>
       </c>
@@ -3533,7 +3566,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="70" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -3551,16 +3584,16 @@
       <c r="F20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="70" t="s">
+      <c r="I20" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="13" t="s">
         <v>49</v>
       </c>
@@ -3576,14 +3609,14 @@
       <c r="F21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="67" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3599,14 +3632,14 @@
         <v>73</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="1" t="s">
         <v>75</v>
       </c>
@@ -3620,14 +3653,14 @@
         <v>78</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
     </row>
     <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="1" t="s">
         <v>79</v>
       </c>
@@ -3643,14 +3676,14 @@
       <c r="F24" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="66"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="1" t="s">
         <v>84</v>
       </c>
@@ -3666,7 +3699,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="66"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="1" t="s">
         <v>88</v>
       </c>
@@ -3682,7 +3715,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="66"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="1" t="s">
         <v>91</v>
       </c>
@@ -3693,12 +3726,12 @@
         <v>93</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="69" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
@@ -3709,10 +3742,10 @@
         <v>93</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="68"/>
+      <c r="F28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="66"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="1" t="s">
         <v>97</v>
       </c>
@@ -3723,10 +3756,10 @@
         <v>93</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="68"/>
+      <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="66"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="1" t="s">
         <v>99</v>
       </c>
@@ -3737,10 +3770,10 @@
         <v>93</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="68"/>
+      <c r="F30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="1" t="s">
         <v>101</v>
       </c>
@@ -3751,10 +3784,10 @@
         <v>93</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="68"/>
+      <c r="F31" s="69"/>
     </row>
     <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="66"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="1" t="s">
         <v>103</v>
       </c>
@@ -3765,10 +3798,10 @@
         <v>93</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="68"/>
+      <c r="F32" s="69"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="66" t="s">
         <v>105</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3786,7 +3819,7 @@
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="65"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="4" t="s">
         <v>110</v>
       </c>
@@ -3802,7 +3835,7 @@
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="4" t="s">
         <v>112</v>
       </c>
@@ -3818,7 +3851,7 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="65"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="4" t="s">
         <v>115</v>
       </c>
@@ -3834,7 +3867,7 @@
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="4" t="s">
         <v>119</v>
       </c>
@@ -3850,7 +3883,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="65"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="4" t="s">
         <v>123</v>
       </c>
@@ -3866,7 +3899,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="67" t="s">
         <v>127</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3884,7 +3917,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="66"/>
+      <c r="A40" s="67"/>
       <c r="B40" s="1" t="s">
         <v>131</v>
       </c>
@@ -3900,7 +3933,7 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="66"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="1" t="s">
         <v>134</v>
       </c>
@@ -3916,7 +3949,7 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
@@ -3932,7 +3965,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="1" t="s">
         <v>139</v>
       </c>
@@ -3948,7 +3981,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="1" t="s">
         <v>141</v>
       </c>
@@ -3964,7 +3997,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="1" t="s">
         <v>144</v>
       </c>
@@ -3982,7 +4015,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="66"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="1" t="s">
         <v>148</v>
       </c>
@@ -3998,7 +4031,7 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="66"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -4006,7 +4039,7 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="66"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="1" t="s">
         <v>150</v>
       </c>
@@ -4022,7 +4055,7 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="66"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="1" t="s">
         <v>154</v>
       </c>
@@ -4038,7 +4071,7 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="66"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="1" t="s">
         <v>158</v>
       </c>
@@ -4054,7 +4087,7 @@
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="66"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -4062,7 +4095,7 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="66"/>
+      <c r="A52" s="67"/>
       <c r="B52" s="1" t="s">
         <v>160</v>
       </c>
@@ -4078,7 +4111,7 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="66"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="1" t="s">
         <v>163</v>
       </c>
@@ -4094,7 +4127,7 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="66"/>
+      <c r="A54" s="67"/>
       <c r="B54" s="1" t="s">
         <v>166</v>
       </c>
@@ -4110,7 +4143,7 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="66"/>
+      <c r="A55" s="67"/>
       <c r="B55" s="1" t="s">
         <v>169</v>
       </c>
@@ -4126,7 +4159,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="66"/>
+      <c r="A56" s="67"/>
       <c r="B56" s="1" t="s">
         <v>171</v>
       </c>
@@ -4140,7 +4173,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="66"/>
+      <c r="A57" s="67"/>
       <c r="B57" s="1" t="s">
         <v>173</v>
       </c>
@@ -4154,7 +4187,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="66"/>
+      <c r="A58" s="67"/>
       <c r="B58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4170,7 +4203,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="66"/>
+      <c r="A59" s="67"/>
       <c r="B59" s="1" t="s">
         <v>178</v>
       </c>
@@ -4186,7 +4219,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="66"/>
+      <c r="A60" s="67"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -4202,7 +4235,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="66"/>
+      <c r="A61" s="67"/>
       <c r="B61" s="1" t="s">
         <v>182</v>
       </c>
@@ -4218,7 +4251,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="66"/>
+      <c r="A62" s="67"/>
       <c r="B62" s="1" t="s">
         <v>184</v>
       </c>
@@ -4234,7 +4267,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="66"/>
+      <c r="A63" s="67"/>
       <c r="B63" s="1" t="s">
         <v>186</v>
       </c>
@@ -4250,7 +4283,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="66"/>
+      <c r="A64" s="67"/>
       <c r="B64" s="1" t="s">
         <v>188</v>
       </c>
@@ -4266,7 +4299,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="66"/>
+      <c r="A65" s="67"/>
       <c r="B65" s="1" t="s">
         <v>190</v>
       </c>
@@ -4280,7 +4313,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="66"/>
+      <c r="A66" s="67"/>
       <c r="B66" s="1" t="s">
         <v>193</v>
       </c>
@@ -4296,7 +4329,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="66"/>
+      <c r="A67" s="67"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -4304,7 +4337,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="66"/>
+      <c r="A68" s="67"/>
       <c r="B68" s="1" t="s">
         <v>195</v>
       </c>
@@ -4320,7 +4353,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="66"/>
+      <c r="A69" s="67"/>
       <c r="B69" s="1" t="s">
         <v>198</v>
       </c>
@@ -4336,7 +4369,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="66"/>
+      <c r="A70" s="67"/>
       <c r="B70" s="1" t="s">
         <v>201</v>
       </c>
@@ -4350,7 +4383,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="66"/>
+      <c r="A71" s="67"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -4358,7 +4391,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="66"/>
+      <c r="A72" s="67"/>
       <c r="B72" s="1" t="s">
         <v>203</v>
       </c>
@@ -4374,7 +4407,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="66"/>
+      <c r="A73" s="67"/>
       <c r="B73" s="1" t="s">
         <v>205</v>
       </c>
@@ -4390,7 +4423,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="66"/>
+      <c r="A74" s="67"/>
       <c r="B74" s="1" t="s">
         <v>208</v>
       </c>
@@ -4406,7 +4439,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="66"/>
+      <c r="A75" s="67"/>
       <c r="B75" s="1" t="s">
         <v>210</v>
       </c>
@@ -4420,7 +4453,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="66"/>
+      <c r="A76" s="67"/>
       <c r="B76" s="1" t="s">
         <v>212</v>
       </c>
@@ -4434,7 +4467,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="66"/>
+      <c r="A77" s="67"/>
       <c r="B77" s="1" t="s">
         <v>214</v>
       </c>
@@ -4448,7 +4481,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="66"/>
+      <c r="A78" s="67"/>
       <c r="B78" s="1" t="s">
         <v>216</v>
       </c>
@@ -4462,7 +4495,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="66"/>
+      <c r="A79" s="67"/>
       <c r="B79" s="1" t="s">
         <v>218</v>
       </c>
@@ -4476,7 +4509,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="66"/>
+      <c r="A80" s="67"/>
       <c r="B80" s="1" t="s">
         <v>220</v>
       </c>
@@ -4490,7 +4523,7 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="66"/>
+      <c r="A81" s="67"/>
       <c r="B81" s="1" t="s">
         <v>222</v>
       </c>
@@ -4504,7 +4537,7 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="66"/>
+      <c r="A82" s="67"/>
       <c r="B82" s="1" t="s">
         <v>224</v>
       </c>
@@ -4518,7 +4551,7 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="66"/>
+      <c r="A83" s="67"/>
       <c r="B83" s="1" t="s">
         <v>226</v>
       </c>
@@ -4532,7 +4565,7 @@
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="66"/>
+      <c r="A84" s="67"/>
       <c r="B84" s="1" t="s">
         <v>228</v>
       </c>
@@ -4546,7 +4579,7 @@
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="66"/>
+      <c r="A85" s="67"/>
       <c r="B85" s="1" t="s">
         <v>230</v>
       </c>
@@ -4560,7 +4593,7 @@
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="66"/>
+      <c r="A86" s="67"/>
       <c r="B86" s="1" t="s">
         <v>232</v>
       </c>
@@ -4576,7 +4609,7 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="66"/>
+      <c r="A87" s="67"/>
       <c r="B87" s="1" t="s">
         <v>234</v>
       </c>
@@ -4590,7 +4623,7 @@
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="66"/>
+      <c r="A88" s="67"/>
       <c r="B88" s="1" t="s">
         <v>236</v>
       </c>
@@ -4604,7 +4637,7 @@
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="66"/>
+      <c r="A89" s="67"/>
       <c r="B89" s="1" t="s">
         <v>238</v>
       </c>
@@ -4618,7 +4651,7 @@
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="66"/>
+      <c r="A90" s="67"/>
       <c r="B90" s="1" t="s">
         <v>240</v>
       </c>
@@ -4634,7 +4667,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="66"/>
+      <c r="A91" s="67"/>
       <c r="B91" s="1" t="s">
         <v>242</v>
       </c>
@@ -4648,7 +4681,7 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="66"/>
+      <c r="A92" s="67"/>
       <c r="B92" s="1" t="s">
         <v>244</v>
       </c>
@@ -4662,7 +4695,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="66"/>
+      <c r="A93" s="67"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4670,7 +4703,7 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="66"/>
+      <c r="A94" s="67"/>
       <c r="B94" s="1" t="s">
         <v>246</v>
       </c>
@@ -4684,7 +4717,7 @@
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="66"/>
+      <c r="A95" s="67"/>
       <c r="B95" s="1" t="s">
         <v>248</v>
       </c>
@@ -4698,7 +4731,7 @@
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="66"/>
+      <c r="A96" s="67"/>
       <c r="B96" s="1" t="s">
         <v>250</v>
       </c>
@@ -4712,7 +4745,7 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="66"/>
+      <c r="A97" s="67"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4720,7 +4753,7 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="66"/>
+      <c r="A98" s="67"/>
       <c r="B98" s="1" t="s">
         <v>252</v>
       </c>
@@ -4734,7 +4767,7 @@
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="66"/>
+      <c r="A99" s="67"/>
       <c r="B99" s="1" t="s">
         <v>254</v>
       </c>
@@ -4748,7 +4781,7 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="66"/>
+      <c r="A100" s="67"/>
       <c r="B100" s="1" t="s">
         <v>257</v>
       </c>
@@ -4762,7 +4795,7 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="66"/>
+      <c r="A101" s="67"/>
       <c r="B101" s="1" t="s">
         <v>259</v>
       </c>
@@ -4776,7 +4809,7 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="66"/>
+      <c r="A102" s="67"/>
       <c r="B102" s="1" t="s">
         <v>262</v>
       </c>
@@ -4790,7 +4823,7 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="66"/>
+      <c r="A103" s="67"/>
       <c r="B103" s="1" t="s">
         <v>264</v>
       </c>
@@ -4804,7 +4837,7 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="66"/>
+      <c r="A104" s="67"/>
       <c r="B104" s="1" t="s">
         <v>266</v>
       </c>
@@ -4818,7 +4851,7 @@
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="66"/>
+      <c r="A105" s="67"/>
       <c r="B105" s="1" t="s">
         <v>268</v>
       </c>
@@ -4832,7 +4865,7 @@
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="66"/>
+      <c r="A106" s="67"/>
       <c r="B106" s="1" t="s">
         <v>270</v>
       </c>
@@ -4846,7 +4879,7 @@
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="66"/>
+      <c r="A107" s="67"/>
       <c r="B107" s="1" t="s">
         <v>272</v>
       </c>
@@ -4860,7 +4893,7 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="66"/>
+      <c r="A108" s="67"/>
       <c r="B108" s="1" t="s">
         <v>274</v>
       </c>
@@ -4874,7 +4907,7 @@
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="66"/>
+      <c r="A109" s="67"/>
       <c r="B109" s="1" t="s">
         <v>276</v>
       </c>
@@ -4888,7 +4921,7 @@
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="66"/>
+      <c r="A110" s="67"/>
       <c r="B110" s="1" t="s">
         <v>278</v>
       </c>
@@ -4904,7 +4937,7 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="66"/>
+      <c r="A111" s="67"/>
       <c r="B111" s="1" t="s">
         <v>280</v>
       </c>
@@ -4918,7 +4951,7 @@
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="66"/>
+      <c r="A112" s="67"/>
       <c r="B112" s="1" t="s">
         <v>282</v>
       </c>
@@ -4932,7 +4965,7 @@
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="66"/>
+      <c r="A113" s="67"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4940,7 +4973,7 @@
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="66"/>
+      <c r="A114" s="67"/>
       <c r="B114" s="1" t="s">
         <v>284</v>
       </c>
@@ -4954,7 +4987,7 @@
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="66"/>
+      <c r="A115" s="67"/>
       <c r="B115" s="1" t="s">
         <v>287</v>
       </c>
@@ -4968,7 +5001,7 @@
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="66"/>
+      <c r="A116" s="67"/>
       <c r="B116" s="1" t="s">
         <v>289</v>
       </c>
@@ -4982,7 +5015,7 @@
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="66"/>
+      <c r="A117" s="67"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4990,7 +5023,7 @@
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="66"/>
+      <c r="A118" s="67"/>
       <c r="B118" s="1" t="s">
         <v>291</v>
       </c>
@@ -5004,7 +5037,7 @@
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="66"/>
+      <c r="A119" s="67"/>
       <c r="B119" s="1" t="s">
         <v>293</v>
       </c>
@@ -5018,7 +5051,7 @@
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="66"/>
+      <c r="A120" s="67"/>
       <c r="B120" s="1" t="s">
         <v>296</v>
       </c>
@@ -5032,7 +5065,7 @@
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="66"/>
+      <c r="A121" s="67"/>
       <c r="B121" s="1" t="s">
         <v>298</v>
       </c>
@@ -5046,7 +5079,7 @@
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="66"/>
+      <c r="A122" s="67"/>
       <c r="B122" s="1" t="s">
         <v>301</v>
       </c>
@@ -5060,7 +5093,7 @@
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="66"/>
+      <c r="A123" s="67"/>
       <c r="B123" s="1" t="s">
         <v>303</v>
       </c>
@@ -5072,7 +5105,7 @@
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="66"/>
+      <c r="A124" s="67"/>
       <c r="B124" s="1" t="s">
         <v>305</v>
       </c>
@@ -5086,7 +5119,7 @@
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="66"/>
+      <c r="A125" s="67"/>
       <c r="B125" s="1" t="s">
         <v>307</v>
       </c>
@@ -5100,7 +5133,7 @@
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="66"/>
+      <c r="A126" s="67"/>
       <c r="B126" s="1" t="s">
         <v>309</v>
       </c>
@@ -5114,7 +5147,7 @@
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="66"/>
+      <c r="A127" s="67"/>
       <c r="B127" s="1" t="s">
         <v>311</v>
       </c>
@@ -5128,7 +5161,7 @@
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="66"/>
+      <c r="A128" s="67"/>
       <c r="B128" s="1" t="s">
         <v>313</v>
       </c>
@@ -5144,7 +5177,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="66"/>
+      <c r="A129" s="67"/>
       <c r="B129" s="1" t="s">
         <v>315</v>
       </c>
@@ -5158,7 +5191,7 @@
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="66"/>
+      <c r="A130" s="67"/>
       <c r="B130" s="1" t="s">
         <v>317</v>
       </c>
@@ -5172,7 +5205,7 @@
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="66"/>
+      <c r="A131" s="67"/>
       <c r="B131" s="1" t="s">
         <v>319</v>
       </c>
@@ -5186,7 +5219,7 @@
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="66"/>
+      <c r="A132" s="67"/>
       <c r="B132" s="1" t="s">
         <v>321</v>
       </c>
@@ -5202,7 +5235,7 @@
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="66"/>
+      <c r="A133" s="67"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -5212,7 +5245,7 @@
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="66"/>
+      <c r="A134" s="67"/>
       <c r="B134" s="1" t="s">
         <v>324</v>
       </c>
@@ -5226,7 +5259,7 @@
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="66"/>
+      <c r="A135" s="67"/>
       <c r="B135" s="1" t="s">
         <v>326</v>
       </c>
@@ -5240,7 +5273,7 @@
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="66"/>
+      <c r="A136" s="67"/>
       <c r="B136" s="1" t="s">
         <v>328</v>
       </c>
@@ -5276,10 +5309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655A41D-FAAE-4875-A0C4-A516EEA673B9}">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5313,7 +5346,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -5331,7 +5364,7 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
@@ -5349,7 +5382,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
@@ -5365,7 +5398,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="18" t="s">
         <v>465</v>
       </c>
@@ -5381,7 +5414,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="18" t="s">
         <v>534</v>
       </c>
@@ -5395,7 +5428,7 @@
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="18" t="s">
         <v>535</v>
       </c>
@@ -5409,7 +5442,7 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="18" t="s">
         <v>536</v>
       </c>
@@ -5423,7 +5456,7 @@
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
@@ -5439,7 +5472,7 @@
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="18" t="s">
         <v>432</v>
       </c>
@@ -5453,7 +5486,7 @@
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="18" t="s">
         <v>433</v>
       </c>
@@ -5467,7 +5500,7 @@
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="18" t="s">
         <v>434</v>
       </c>
@@ -5481,7 +5514,7 @@
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="18" t="s">
         <v>22</v>
       </c>
@@ -5499,7 +5532,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
@@ -5517,7 +5550,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="18" t="s">
         <v>30</v>
       </c>
@@ -5533,7 +5566,7 @@
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="18" t="s">
         <v>34</v>
       </c>
@@ -5549,7 +5582,7 @@
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="18" t="s">
         <v>37</v>
       </c>
@@ -5565,7 +5598,7 @@
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="64" t="s">
         <v>551</v>
       </c>
@@ -5581,7 +5614,7 @@
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="64" t="s">
         <v>554</v>
       </c>
@@ -5595,7 +5628,7 @@
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="18" t="s">
         <v>430</v>
       </c>
@@ -5608,285 +5641,289 @@
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="73" t="s">
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="65"/>
+      <c r="B21" s="80" t="s">
+        <v>560</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>562</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="81"/>
+      <c r="F21" s="82" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="65"/>
+      <c r="B22" s="80" t="s">
+        <v>561</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>563</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>564</v>
+      </c>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B23" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C23" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D23" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E23" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="34"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="73"/>
-      <c r="B22" s="37" t="s">
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="74"/>
+      <c r="B24" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C24" s="37" t="s">
         <v>56</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="73"/>
-      <c r="B23" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="73"/>
-      <c r="B24" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>65</v>
       </c>
       <c r="D24" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="F24" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="74"/>
+      <c r="B25" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="74"/>
+      <c r="B26" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="73"/>
-      <c r="B25" s="45" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="74"/>
+      <c r="B27" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C27" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D27" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E27" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="46"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="73"/>
-      <c r="B26" s="41" t="s">
+      <c r="F27" s="46"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="74"/>
+      <c r="B28" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C28" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D28" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="42" t="s">
+      <c r="E28" s="43"/>
+      <c r="F28" s="42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="77" t="s">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B29" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C29" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E29" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="77"/>
-      <c r="B28" s="18" t="s">
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="78"/>
+      <c r="B30" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E30" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="77"/>
-      <c r="B29" s="18" t="s">
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="78"/>
+      <c r="B31" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E31" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="77"/>
-      <c r="B30" s="18" t="s">
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="78"/>
+      <c r="B32" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D32" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E32" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F32" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="77"/>
-      <c r="B31" s="18" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="78"/>
+      <c r="B33" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D33" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20" t="s">
+      <c r="E33" s="19"/>
+      <c r="F33" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="77"/>
-      <c r="B32" s="18" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="78"/>
+      <c r="B34" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D34" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E34" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="77"/>
-      <c r="B33" s="18" t="s">
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="78"/>
+      <c r="B35" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C35" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="77"/>
-      <c r="B34" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="75"/>
-    </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
-      <c r="B35" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="19"/>
-      <c r="F35" s="75"/>
+      <c r="F35" s="75" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="77"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>93</v>
       </c>
       <c r="E36" s="19"/>
-      <c r="F36" s="75"/>
+      <c r="F36" s="76"/>
     </row>
     <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="77"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>93</v>
       </c>
       <c r="E37" s="19"/>
-      <c r="F37" s="75"/>
+      <c r="F37" s="76"/>
     </row>
     <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="77"/>
+      <c r="A38" s="78"/>
       <c r="B38" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>93</v>
@@ -5894,1051 +5931,1049 @@
       <c r="E38" s="19"/>
       <c r="F38" s="76"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="78" t="s">
-        <v>482</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>485</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="78"/>
+      <c r="B39" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="76"/>
     </row>
     <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="78"/>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="77"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="79" t="s">
+        <v>482</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="79"/>
+      <c r="B42" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C42" s="48" t="s">
         <v>488</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D42" s="48" t="s">
         <v>499</v>
-      </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
-      <c r="B41" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40"/>
-    </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="78"/>
-      <c r="B42" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>114</v>
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="40" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="79"/>
+      <c r="B43" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
+    </row>
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="79"/>
+      <c r="B44" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="78"/>
-      <c r="B43" s="37" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="79"/>
+      <c r="B45" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C45" s="38" t="s">
         <v>528</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D45" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="40" t="s">
+      <c r="E45" s="39"/>
+      <c r="F45" s="40" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A44" s="78"/>
-      <c r="B44" s="37" t="s">
+    <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A46" s="79"/>
+      <c r="B46" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C46" s="37" t="s">
         <v>478</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D46" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="40"/>
-    </row>
-    <row r="45" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" s="78"/>
-      <c r="B45" s="37" t="s">
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
+    </row>
+    <row r="47" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A47" s="79"/>
+      <c r="B47" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C47" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D47" s="38" t="s">
         <v>558</v>
       </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40"/>
-    </row>
-    <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A46" s="78"/>
-      <c r="B46" s="45" t="s">
+      <c r="E47" s="39"/>
+      <c r="F47" s="40"/>
+    </row>
+    <row r="48" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="79"/>
+      <c r="B48" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C48" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D46" s="46" t="s">
+      <c r="D48" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="E46" s="49"/>
-      <c r="F46" s="50"/>
-    </row>
-    <row r="47" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="78"/>
-      <c r="B47" s="41" t="s">
+      <c r="E48" s="49"/>
+      <c r="F48" s="50"/>
+    </row>
+    <row r="49" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="79"/>
+      <c r="B49" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C49" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D49" s="42" t="s">
         <v>481</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="44"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="72" t="s">
+      <c r="E49" s="43"/>
+      <c r="F49" s="44"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B50" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C50" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D50" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E50" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="F48" s="25"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="72"/>
-      <c r="B49" s="23" t="s">
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="73"/>
+      <c r="B51" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C51" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D51" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E51" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="51"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="72"/>
-      <c r="B50" s="26" t="s">
+      <c r="F51" s="51"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="73"/>
+      <c r="B52" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C52" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D52" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E52" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="28"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="72"/>
-      <c r="B51" s="26" t="s">
+      <c r="F52" s="28"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="73"/>
+      <c r="B53" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C53" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D53" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E53" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F51" s="28"/>
-    </row>
-    <row r="52" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="72"/>
-      <c r="B52" s="26" t="s">
+      <c r="F53" s="28"/>
+    </row>
+    <row r="54" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="73"/>
+      <c r="B54" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C54" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D54" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E54" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F54" s="28" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="72"/>
-      <c r="B53" s="26" t="s">
+    <row r="55" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A55" s="73"/>
+      <c r="B55" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C55" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D55" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E55" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F53" s="28"/>
-    </row>
-    <row r="54" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="72"/>
-      <c r="B54" s="29" t="s">
+      <c r="F55" s="28"/>
+    </row>
+    <row r="56" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="73"/>
+      <c r="B56" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C56" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D56" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E56" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F56" s="30" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="72"/>
-      <c r="B55" s="15" t="s">
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="73"/>
+      <c r="B57" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="17" t="s">
+      <c r="D57" s="17"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="17" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
-      <c r="B56" s="15" t="s">
+    <row r="58" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="73"/>
+      <c r="B58" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C58" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D58" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="E56" s="32"/>
-      <c r="F56" s="17" t="s">
+      <c r="E58" s="32"/>
+      <c r="F58" s="17" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="73" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="74" t="s">
         <v>518</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B59" s="52" t="s">
         <v>512</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C59" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="D57" s="53" t="s">
+      <c r="D59" s="53" t="s">
         <v>108</v>
-      </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="53"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="73"/>
-      <c r="B58" s="52" t="s">
-        <v>513</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>520</v>
-      </c>
-      <c r="D58" s="53" t="s">
-        <v>521</v>
-      </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="53"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="73"/>
-      <c r="B59" s="52" t="s">
-        <v>514</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="D59" s="53" t="s">
-        <v>114</v>
       </c>
       <c r="E59" s="54"/>
       <c r="F59" s="53"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="73"/>
+      <c r="A60" s="74"/>
       <c r="B60" s="52" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="D60" s="53" t="s">
-        <v>114</v>
+        <v>521</v>
       </c>
       <c r="E60" s="54"/>
       <c r="F60" s="53"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="73"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="52" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>522</v>
-      </c>
-      <c r="D61" s="53"/>
+        <v>549</v>
+      </c>
+      <c r="D61" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="E61" s="54"/>
       <c r="F61" s="53"/>
     </row>
-    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="73"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="74"/>
       <c r="B62" s="52" t="s">
+        <v>515</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>550</v>
+      </c>
+      <c r="D62" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="54"/>
+      <c r="F62" s="53"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="74"/>
+      <c r="B63" s="52" t="s">
+        <v>516</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>522</v>
+      </c>
+      <c r="D63" s="53"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="53"/>
+    </row>
+    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="74"/>
+      <c r="B64" s="52" t="s">
         <v>517</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C64" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="D62" s="53" t="s">
+      <c r="D64" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="E62" s="54"/>
-      <c r="F62" s="53" t="s">
+      <c r="E64" s="54"/>
+      <c r="F64" s="53" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="72" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B65" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C65" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="55" t="s">
+      <c r="D65" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="56" t="s">
+      <c r="E65" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="F63" s="57"/>
-    </row>
-    <row r="64" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A64" s="72"/>
-      <c r="B64" s="58" t="s">
+      <c r="F65" s="57"/>
+    </row>
+    <row r="66" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A66" s="73"/>
+      <c r="B66" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C66" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="59" t="s">
+      <c r="D66" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="E64" s="60" t="s">
+      <c r="E66" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="F64" s="59" t="s">
+      <c r="F66" s="59" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="72"/>
-      <c r="B65" s="58" t="s">
+    <row r="67" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="73"/>
+      <c r="B67" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C67" s="59" t="s">
         <v>510</v>
       </c>
-      <c r="D65" s="59" t="s">
+      <c r="D67" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="60"/>
-      <c r="F65" s="59" t="s">
+      <c r="E67" s="60"/>
+      <c r="F67" s="59" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="72"/>
-      <c r="B66" s="58" t="s">
+    <row r="68" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="73"/>
+      <c r="B68" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="C66" s="59" t="s">
+      <c r="C68" s="59" t="s">
         <v>511</v>
       </c>
-      <c r="D66" s="59" t="s">
+      <c r="D68" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E66" s="60"/>
-      <c r="F66" s="59" t="s">
+      <c r="E68" s="60"/>
+      <c r="F68" s="59" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="72"/>
-      <c r="B67" s="58" t="s">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="73"/>
+      <c r="B69" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C69" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D69" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="E67" s="60" t="s">
+      <c r="E69" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="F67" s="59"/>
-    </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="72"/>
-      <c r="B68" s="58" t="s">
+      <c r="F69" s="59"/>
+    </row>
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="73"/>
+      <c r="B70" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="59" t="s">
+      <c r="C70" s="59" t="s">
         <v>337</v>
       </c>
-      <c r="D68" s="58" t="s">
+      <c r="D70" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="60" t="s">
+      <c r="E70" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="F68" s="59"/>
-    </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="72"/>
-      <c r="B69" s="58" t="s">
+      <c r="F70" s="59"/>
+    </row>
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="73"/>
+      <c r="B71" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C71" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="D69" s="58" t="s">
+      <c r="D71" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E69" s="60" t="s">
+      <c r="E71" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="F69" s="59"/>
-    </row>
-    <row r="70" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="72"/>
-      <c r="B70" s="58" t="s">
+      <c r="F71" s="59"/>
+    </row>
+    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="73"/>
+      <c r="B72" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="59" t="s">
+      <c r="C72" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="D70" s="59" t="s">
+      <c r="D72" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="E70" s="60" t="s">
+      <c r="E72" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="F70" s="59"/>
-    </row>
-    <row r="71" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="72"/>
-      <c r="B71" s="58" t="s">
+      <c r="F72" s="59"/>
+    </row>
+    <row r="73" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="73"/>
+      <c r="B73" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C73" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="D71" s="59" t="s">
+      <c r="D73" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="E71" s="60" t="s">
+      <c r="E73" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="F71" s="59" t="s">
+      <c r="F73" s="59" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="72"/>
-      <c r="B72" s="58" t="s">
+    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="73"/>
+      <c r="B74" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="C72" s="59" t="s">
+      <c r="C74" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="D72" s="58" t="s">
+      <c r="D74" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E72" s="60" t="s">
+      <c r="E74" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="F72" s="59"/>
-    </row>
-    <row r="73" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A73" s="72"/>
-      <c r="B73" s="58" t="s">
+      <c r="F74" s="59"/>
+    </row>
+    <row r="75" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A75" s="73"/>
+      <c r="B75" s="58" t="s">
         <v>442</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C75" s="59" t="s">
         <v>444</v>
       </c>
-      <c r="D73" s="58" t="s">
+      <c r="D75" s="58" t="s">
         <v>533</v>
       </c>
-      <c r="E73" s="60"/>
-      <c r="F73" s="59" t="s">
+      <c r="E75" s="60"/>
+      <c r="F75" s="59" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="72"/>
-      <c r="B74" s="58" t="s">
+    <row r="76" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="73"/>
+      <c r="B76" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="59" t="s">
+      <c r="C76" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="D74" s="59" t="s">
+      <c r="D76" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E74" s="60" t="s">
+      <c r="E76" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="F74" s="59"/>
-    </row>
-    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="72"/>
-      <c r="B75" s="58" t="s">
+      <c r="F76" s="59"/>
+    </row>
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="73"/>
+      <c r="B77" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="C75" s="59" t="s">
+      <c r="C77" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="D75" s="59" t="s">
+      <c r="D77" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="E75" s="60" t="s">
+      <c r="E77" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="F75" s="59"/>
-    </row>
-    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="72"/>
-      <c r="B76" s="58" t="s">
+      <c r="F77" s="59"/>
+    </row>
+    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="73"/>
+      <c r="B78" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="59" t="s">
+      <c r="C78" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="D76" s="58" t="s">
+      <c r="D78" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E76" s="60" t="s">
+      <c r="E78" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="F76" s="59"/>
-    </row>
-    <row r="77" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="72"/>
-      <c r="B77" s="58" t="s">
+      <c r="F78" s="59"/>
+    </row>
+    <row r="79" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="73"/>
+      <c r="B79" s="58" t="s">
         <v>441</v>
       </c>
-      <c r="C77" s="59" t="s">
+      <c r="C79" s="59" t="s">
         <v>443</v>
       </c>
-      <c r="D77" s="58" t="s">
+      <c r="D79" s="58" t="s">
         <v>547</v>
       </c>
-      <c r="E77" s="60"/>
-      <c r="F77" s="59" t="s">
+      <c r="E79" s="60"/>
+      <c r="F79" s="59" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="72"/>
-      <c r="B78" s="58" t="s">
+    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="73"/>
+      <c r="B80" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="C78" s="59" t="s">
+      <c r="C80" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="D78" s="59" t="s">
+      <c r="D80" s="59" t="s">
         <v>548</v>
       </c>
-      <c r="E78" s="60"/>
-      <c r="F78" s="59" t="s">
+      <c r="E80" s="60"/>
+      <c r="F80" s="59" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="72"/>
-      <c r="B79" s="58" t="s">
+    <row r="81" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="73"/>
+      <c r="B81" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C81" s="59" t="s">
         <v>349</v>
       </c>
-      <c r="D79" s="59" t="s">
+      <c r="D81" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="E79" s="60" t="s">
+      <c r="E81" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="F79" s="59"/>
-    </row>
-    <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="72"/>
-      <c r="B80" s="58" t="s">
+      <c r="F81" s="59"/>
+    </row>
+    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="73"/>
+      <c r="B82" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="59" t="s">
+      <c r="C82" s="59" t="s">
         <v>351</v>
-      </c>
-      <c r="D80" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E80" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="F80" s="59"/>
-    </row>
-    <row r="81" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="72"/>
-      <c r="B81" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" s="59" t="s">
-        <v>352</v>
-      </c>
-      <c r="D81" s="59" t="s">
-        <v>353</v>
-      </c>
-      <c r="E81" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="F81" s="59"/>
-    </row>
-    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="72"/>
-      <c r="B82" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" s="59" t="s">
-        <v>354</v>
       </c>
       <c r="D82" s="58" t="s">
         <v>39</v>
       </c>
       <c r="E82" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="F82" s="59"/>
+    </row>
+    <row r="83" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="73"/>
+      <c r="B83" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D83" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="E83" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="F83" s="59"/>
+    </row>
+    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="73"/>
+      <c r="B84" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="F82" s="59"/>
-    </row>
-    <row r="83" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="72"/>
-      <c r="B83" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="C83" s="59" t="s">
-        <v>355</v>
-      </c>
-      <c r="D83" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E83" s="60"/>
-      <c r="F83" s="59" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="72"/>
-      <c r="B84" s="58" t="s">
-        <v>173</v>
-      </c>
       <c r="C84" s="59" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D84" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E84" s="60"/>
+      <c r="E84" s="60" t="s">
+        <v>169</v>
+      </c>
       <c r="F84" s="59"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="72"/>
+    <row r="85" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="73"/>
       <c r="B85" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="D85" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="60"/>
+      <c r="F85" s="59" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="73"/>
+      <c r="B86" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="D86" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="60"/>
+      <c r="F86" s="59"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="73"/>
+      <c r="B87" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="C85" s="58" t="s">
+      <c r="C87" s="58" t="s">
         <v>176</v>
-      </c>
-      <c r="D85" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E85" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="F85" s="59"/>
-    </row>
-    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="72"/>
-      <c r="B86" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="C86" s="59" t="s">
-        <v>358</v>
-      </c>
-      <c r="D86" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E86" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="F86" s="59"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="72"/>
-      <c r="B87" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="C87" s="58" t="s">
-        <v>181</v>
       </c>
       <c r="D87" s="58" t="s">
         <v>108</v>
       </c>
       <c r="E87" s="60" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F87" s="59"/>
     </row>
     <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="72"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="58" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C88" s="59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D88" s="58" t="s">
         <v>108</v>
       </c>
       <c r="E88" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="F88" s="59"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="73"/>
+      <c r="B89" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F89" s="59"/>
+    </row>
+    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="73"/>
+      <c r="B90" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="F88" s="59"/>
-    </row>
-    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="72"/>
-      <c r="B89" s="58" t="s">
+      <c r="C90" s="59" t="s">
+        <v>359</v>
+      </c>
+      <c r="D90" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="F90" s="59"/>
+    </row>
+    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="73"/>
+      <c r="B91" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="C89" s="59" t="s">
+      <c r="C91" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="D89" s="58" t="s">
+      <c r="D91" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E89" s="60" t="s">
+      <c r="E91" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="F89" s="59"/>
-    </row>
-    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="72"/>
-      <c r="B90" s="58" t="s">
+      <c r="F91" s="59"/>
+    </row>
+    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="73"/>
+      <c r="B92" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="C90" s="59" t="s">
+      <c r="C92" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="D90" s="58" t="s">
+      <c r="D92" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E90" s="60" t="s">
+      <c r="E92" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F90" s="59"/>
-    </row>
-    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="72"/>
-      <c r="B91" s="58" t="s">
+      <c r="F92" s="59"/>
+    </row>
+    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="73"/>
+      <c r="B93" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="C91" s="59" t="s">
+      <c r="C93" s="59" t="s">
         <v>362</v>
       </c>
-      <c r="D91" s="59" t="s">
+      <c r="D93" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="E91" s="60" t="s">
+      <c r="E93" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="F91" s="59"/>
-    </row>
-    <row r="92" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="72"/>
-      <c r="B92" s="58" t="s">
+      <c r="F93" s="59"/>
+    </row>
+    <row r="94" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="73"/>
+      <c r="B94" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C92" s="59" t="s">
+      <c r="C94" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D92" s="59" t="s">
+      <c r="D94" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="E92" s="60"/>
-      <c r="F92" s="59"/>
-    </row>
-    <row r="93" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="72"/>
-      <c r="B93" s="58" t="s">
+      <c r="E94" s="60"/>
+      <c r="F94" s="59"/>
+    </row>
+    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="73"/>
+      <c r="B95" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C95" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="D93" s="58" t="s">
+      <c r="D95" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E93" s="60" t="s">
+      <c r="E95" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="F93" s="59"/>
-    </row>
-    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="72"/>
-      <c r="B94" s="58" t="s">
+      <c r="F95" s="59"/>
+    </row>
+    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="73"/>
+      <c r="B96" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="C94" s="59" t="s">
+      <c r="C96" s="59" t="s">
         <v>447</v>
       </c>
-      <c r="D94" s="58" t="s">
+      <c r="D96" s="58" t="s">
         <v>445</v>
       </c>
-      <c r="E94" s="60"/>
-      <c r="F94" s="58" t="s">
+      <c r="E96" s="60"/>
+      <c r="F96" s="58" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="72"/>
-      <c r="B95" s="58" t="s">
+    <row r="97" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="73"/>
+      <c r="B97" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C97" s="59" t="s">
         <v>365</v>
       </c>
-      <c r="D95" s="59" t="s">
+      <c r="D97" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E95" s="60" t="s">
+      <c r="E97" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="F95" s="59"/>
-    </row>
-    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="72"/>
-      <c r="B96" s="58" t="s">
+      <c r="F97" s="59"/>
+    </row>
+    <row r="98" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="73"/>
+      <c r="B98" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="C96" s="59" t="s">
+      <c r="C98" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="D96" s="59" t="s">
+      <c r="D98" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="E96" s="60" t="s">
+      <c r="E98" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="F96" s="59"/>
-    </row>
-    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="72"/>
-      <c r="B97" s="58" t="s">
+      <c r="F98" s="59"/>
+    </row>
+    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="73"/>
+      <c r="B99" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="C97" s="59" t="s">
+      <c r="C99" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="D97" s="58" t="s">
+      <c r="D99" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E97" s="60"/>
-      <c r="F97" s="59"/>
-    </row>
-    <row r="98" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="72"/>
-      <c r="B98" s="58" t="s">
+      <c r="E99" s="60"/>
+      <c r="F99" s="59"/>
+    </row>
+    <row r="100" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="73"/>
+      <c r="B100" s="58" t="s">
         <v>450</v>
       </c>
-      <c r="C98" s="59" t="s">
+      <c r="C100" s="59" t="s">
         <v>451</v>
       </c>
-      <c r="D98" s="58" t="s">
+      <c r="D100" s="58" t="s">
         <v>547</v>
       </c>
-      <c r="E98" s="60"/>
-      <c r="F98" s="59" t="s">
+      <c r="E100" s="60"/>
+      <c r="F100" s="59" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="72"/>
-      <c r="B99" s="58" t="s">
+    <row r="101" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="73"/>
+      <c r="B101" s="58" t="s">
         <v>495</v>
       </c>
-      <c r="C99" s="59" t="s">
+      <c r="C101" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="D99" s="59" t="s">
+      <c r="D101" s="59" t="s">
         <v>548</v>
       </c>
-      <c r="E99" s="60"/>
-      <c r="F99" s="59" t="s">
+      <c r="E101" s="60"/>
+      <c r="F101" s="59" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="72"/>
-      <c r="B100" s="58" t="s">
+    <row r="102" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="73"/>
+      <c r="B102" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="C100" s="59" t="s">
+      <c r="C102" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="D100" s="59" t="s">
+      <c r="D102" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="E100" s="60" t="s">
+      <c r="E102" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="F100" s="59"/>
-    </row>
-    <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="72"/>
-      <c r="B101" s="58" t="s">
+      <c r="F102" s="59"/>
+    </row>
+    <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="73"/>
+      <c r="B103" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="C101" s="59" t="s">
+      <c r="C103" s="59" t="s">
         <v>369</v>
-      </c>
-      <c r="D101" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E101" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="F101" s="59"/>
-    </row>
-    <row r="102" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="72"/>
-      <c r="B102" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="C102" s="59" t="s">
-        <v>370</v>
-      </c>
-      <c r="D102" s="59" t="s">
-        <v>353</v>
-      </c>
-      <c r="E102" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="F102" s="59"/>
-    </row>
-    <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="72"/>
-      <c r="B103" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="C103" s="59" t="s">
-        <v>371</v>
       </c>
       <c r="D103" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E103" s="60"/>
+      <c r="E103" s="60" t="s">
+        <v>207</v>
+      </c>
       <c r="F103" s="59"/>
     </row>
-    <row r="104" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A104" s="72"/>
+    <row r="104" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="73"/>
       <c r="B104" s="58" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C104" s="59" t="s">
-        <v>372</v>
-      </c>
-      <c r="D104" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E104" s="60"/>
-      <c r="F104" s="59" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="72"/>
+        <v>370</v>
+      </c>
+      <c r="D104" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="E104" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="F104" s="59"/>
+    </row>
+    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="73"/>
       <c r="B105" s="58" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C105" s="59" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D105" s="58" t="s">
         <v>39</v>
@@ -6947,26 +6982,28 @@
       <c r="F105" s="59"/>
     </row>
     <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="72"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="58" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C106" s="59" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D106" s="58" t="s">
         <v>39</v>
       </c>
       <c r="E106" s="60"/>
-      <c r="F106" s="59"/>
+      <c r="F106" s="59" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="72"/>
+      <c r="A107" s="73"/>
       <c r="B107" s="58" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C107" s="59" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D107" s="58" t="s">
         <v>39</v>
@@ -6974,29 +7011,27 @@
       <c r="E107" s="60"/>
       <c r="F107" s="59"/>
     </row>
-    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="72"/>
+    <row r="108" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="73"/>
       <c r="B108" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="C108" s="58" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="C108" s="59" t="s">
+        <v>375</v>
       </c>
       <c r="D108" s="58" t="s">
         <v>39</v>
       </c>
       <c r="E108" s="60"/>
-      <c r="F108" s="59" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="72"/>
+      <c r="F108" s="59"/>
+    </row>
+    <row r="109" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="73"/>
       <c r="B109" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="C109" s="58" t="s">
-        <v>223</v>
+        <v>218</v>
+      </c>
+      <c r="C109" s="59" t="s">
+        <v>376</v>
       </c>
       <c r="D109" s="58" t="s">
         <v>39</v>
@@ -7004,27 +7039,29 @@
       <c r="E109" s="60"/>
       <c r="F109" s="59"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="72"/>
+    <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="73"/>
       <c r="B110" s="58" t="s">
-        <v>458</v>
+        <v>220</v>
       </c>
       <c r="C110" s="58" t="s">
-        <v>464</v>
+        <v>221</v>
       </c>
       <c r="D110" s="58" t="s">
         <v>39</v>
       </c>
       <c r="E110" s="60"/>
-      <c r="F110" s="59"/>
-    </row>
-    <row r="111" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="72"/>
+      <c r="F110" s="59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="73"/>
       <c r="B111" s="58" t="s">
-        <v>469</v>
-      </c>
-      <c r="C111" s="59" t="s">
-        <v>422</v>
+        <v>222</v>
+      </c>
+      <c r="C111" s="58" t="s">
+        <v>223</v>
       </c>
       <c r="D111" s="58" t="s">
         <v>39</v>
@@ -7032,13 +7069,13 @@
       <c r="E111" s="60"/>
       <c r="F111" s="59"/>
     </row>
-    <row r="112" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="72"/>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="73"/>
       <c r="B112" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C112" s="59" t="s">
-        <v>423</v>
+        <v>458</v>
+      </c>
+      <c r="C112" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="D112" s="58" t="s">
         <v>39</v>
@@ -7047,12 +7084,12 @@
       <c r="F112" s="59"/>
     </row>
     <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="72"/>
+      <c r="A113" s="73"/>
       <c r="B113" s="58" t="s">
-        <v>230</v>
+        <v>469</v>
       </c>
       <c r="C113" s="59" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D113" s="58" t="s">
         <v>39</v>
@@ -7060,309 +7097,309 @@
       <c r="E113" s="60"/>
       <c r="F113" s="59"/>
     </row>
-    <row r="114" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="72"/>
+    <row r="114" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="73"/>
       <c r="B114" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="D114" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" s="60"/>
+      <c r="F114" s="59"/>
+    </row>
+    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="73"/>
+      <c r="B115" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" s="59" t="s">
+        <v>424</v>
+      </c>
+      <c r="D115" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" s="60"/>
+      <c r="F115" s="59"/>
+    </row>
+    <row r="116" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="73"/>
+      <c r="B116" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="C114" s="58" t="s">
+      <c r="C116" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="D114" s="59" t="s">
+      <c r="D116" s="59" t="s">
         <v>378</v>
       </c>
-      <c r="E114" s="60" t="s">
+      <c r="E116" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="F114" s="59" t="s">
+      <c r="F116" s="59" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="72"/>
-      <c r="B115" s="58" t="s">
+    <row r="117" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="73"/>
+      <c r="B117" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="C115" s="59" t="s">
+      <c r="C117" s="59" t="s">
         <v>508</v>
       </c>
-      <c r="D115" s="59" t="s">
+      <c r="D117" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E115" s="60"/>
-      <c r="F115" s="59" t="s">
+      <c r="E117" s="60"/>
+      <c r="F117" s="59" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="72"/>
-      <c r="B116" s="58" t="s">
+    <row r="118" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="73"/>
+      <c r="B118" s="58" t="s">
         <v>507</v>
       </c>
-      <c r="C116" s="59" t="s">
+      <c r="C118" s="59" t="s">
         <v>509</v>
       </c>
-      <c r="D116" s="59" t="s">
+      <c r="D118" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E116" s="60"/>
-      <c r="F116" s="59" t="s">
+      <c r="E118" s="60"/>
+      <c r="F118" s="59" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="72"/>
-      <c r="B117" s="58" t="s">
+    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="73"/>
+      <c r="B119" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="C117" s="59" t="s">
+      <c r="C119" s="59" t="s">
         <v>380</v>
       </c>
-      <c r="D117" s="59" t="s">
+      <c r="D119" s="59" t="s">
         <v>336</v>
-      </c>
-      <c r="E117" s="60"/>
-      <c r="F117" s="59"/>
-    </row>
-    <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="72"/>
-      <c r="B118" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="C118" s="59" t="s">
-        <v>381</v>
-      </c>
-      <c r="D118" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E118" s="60"/>
-      <c r="F118" s="59"/>
-    </row>
-    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="72"/>
-      <c r="B119" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="C119" s="59" t="s">
-        <v>382</v>
-      </c>
-      <c r="D119" s="58" t="s">
-        <v>39</v>
       </c>
       <c r="E119" s="60"/>
       <c r="F119" s="59"/>
     </row>
-    <row r="120" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="72"/>
+    <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="73"/>
       <c r="B120" s="58" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C120" s="59" t="s">
-        <v>383</v>
-      </c>
-      <c r="D120" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="E120" s="60" t="s">
-        <v>240</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="D120" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E120" s="60"/>
       <c r="F120" s="59"/>
     </row>
-    <row r="121" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="72"/>
+    <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="73"/>
       <c r="B121" s="58" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C121" s="59" t="s">
-        <v>384</v>
-      </c>
-      <c r="D121" s="59" t="s">
-        <v>342</v>
+        <v>382</v>
+      </c>
+      <c r="D121" s="58" t="s">
+        <v>39</v>
       </c>
       <c r="E121" s="60"/>
       <c r="F121" s="59"/>
     </row>
     <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A122" s="72"/>
+      <c r="A122" s="73"/>
       <c r="B122" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" s="59" t="s">
+        <v>383</v>
+      </c>
+      <c r="D122" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="E122" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" s="59"/>
+    </row>
+    <row r="123" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="73"/>
+      <c r="B123" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C123" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="D123" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="E123" s="60"/>
+      <c r="F123" s="59"/>
+    </row>
+    <row r="124" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="73"/>
+      <c r="B124" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="C122" s="59" t="s">
+      <c r="C124" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="D122" s="58" t="s">
+      <c r="D124" s="58" t="s">
         <v>86</v>
-      </c>
-      <c r="E122" s="60"/>
-      <c r="F122" s="59"/>
-    </row>
-    <row r="123" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="72"/>
-      <c r="B123" s="58" t="s">
-        <v>448</v>
-      </c>
-      <c r="C123" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="D123" s="58" t="s">
-        <v>445</v>
-      </c>
-      <c r="E123" s="60"/>
-      <c r="F123" s="58" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="72"/>
-      <c r="B124" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="C124" s="59" t="s">
-        <v>386</v>
-      </c>
-      <c r="D124" s="59" t="s">
-        <v>345</v>
       </c>
       <c r="E124" s="60"/>
       <c r="F124" s="59"/>
     </row>
     <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="72"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="58" t="s">
-        <v>248</v>
+        <v>448</v>
       </c>
       <c r="C125" s="59" t="s">
-        <v>387</v>
-      </c>
-      <c r="D125" s="59" t="s">
-        <v>347</v>
+        <v>449</v>
+      </c>
+      <c r="D125" s="58" t="s">
+        <v>445</v>
       </c>
       <c r="E125" s="60"/>
-      <c r="F125" s="59"/>
-    </row>
-    <row r="126" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A126" s="72"/>
+      <c r="F125" s="58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="73"/>
       <c r="B126" s="58" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C126" s="59" t="s">
-        <v>388</v>
-      </c>
-      <c r="D126" s="58" t="s">
-        <v>86</v>
+        <v>386</v>
+      </c>
+      <c r="D126" s="59" t="s">
+        <v>345</v>
       </c>
       <c r="E126" s="60"/>
       <c r="F126" s="59"/>
     </row>
     <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="72"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="D127" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="E127" s="60"/>
+      <c r="F127" s="59"/>
+    </row>
+    <row r="128" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A128" s="73"/>
+      <c r="B128" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C128" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="D128" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E128" s="60"/>
+      <c r="F128" s="59"/>
+    </row>
+    <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="73"/>
+      <c r="B129" s="58" t="s">
         <v>452</v>
       </c>
-      <c r="C127" s="59" t="s">
+      <c r="C129" s="59" t="s">
         <v>453</v>
       </c>
-      <c r="D127" s="58" t="s">
+      <c r="D129" s="58" t="s">
         <v>547</v>
       </c>
-      <c r="E127" s="60"/>
-      <c r="F127" s="59" t="s">
+      <c r="E129" s="60"/>
+      <c r="F129" s="59" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="72"/>
-      <c r="B128" s="58" t="s">
+    <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="73"/>
+      <c r="B130" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C128" s="59" t="s">
+      <c r="C130" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="D128" s="59" t="s">
+      <c r="D130" s="59" t="s">
         <v>548</v>
       </c>
-      <c r="E128" s="60"/>
-      <c r="F128" s="59" t="s">
+      <c r="E130" s="60"/>
+      <c r="F130" s="59" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="72"/>
-      <c r="B129" s="58" t="s">
+    <row r="131" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="73"/>
+      <c r="B131" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="C129" s="59" t="s">
+      <c r="C131" s="59" t="s">
         <v>389</v>
       </c>
-      <c r="D129" s="59" t="s">
+      <c r="D131" s="59" t="s">
         <v>350</v>
-      </c>
-      <c r="E129" s="60"/>
-      <c r="F129" s="59"/>
-    </row>
-    <row r="130" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A130" s="72"/>
-      <c r="B130" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="C130" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="D130" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E130" s="60"/>
-      <c r="F130" s="59"/>
-    </row>
-    <row r="131" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="72"/>
-      <c r="B131" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="C131" s="59" t="s">
-        <v>391</v>
-      </c>
-      <c r="D131" s="59" t="s">
-        <v>353</v>
       </c>
       <c r="E131" s="60"/>
       <c r="F131" s="59"/>
     </row>
-    <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="72"/>
+    <row r="132" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="73"/>
       <c r="B132" s="58" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C132" s="59" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D132" s="58" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="E132" s="60"/>
       <c r="F132" s="59"/>
     </row>
-    <row r="133" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A133" s="72"/>
+    <row r="133" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="73"/>
       <c r="B133" s="58" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C133" s="59" t="s">
-        <v>393</v>
-      </c>
-      <c r="D133" s="58" t="s">
-        <v>261</v>
+        <v>391</v>
+      </c>
+      <c r="D133" s="59" t="s">
+        <v>353</v>
       </c>
       <c r="E133" s="60"/>
       <c r="F133" s="59"/>
     </row>
     <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="72"/>
+      <c r="A134" s="73"/>
       <c r="B134" s="58" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C134" s="59" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D134" s="58" t="s">
         <v>261</v>
@@ -7370,41 +7407,41 @@
       <c r="E134" s="60"/>
       <c r="F134" s="59"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="72"/>
+    <row r="135" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A135" s="73"/>
       <c r="B135" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="C135" s="58" t="s">
-        <v>267</v>
+        <v>262</v>
+      </c>
+      <c r="C135" s="59" t="s">
+        <v>393</v>
       </c>
       <c r="D135" s="58" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="E135" s="60"/>
       <c r="F135" s="59"/>
     </row>
     <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="72"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="58" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C136" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D136" s="58" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="E136" s="60"/>
       <c r="F136" s="59"/>
     </row>
-    <row r="137" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="72"/>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="73"/>
       <c r="B137" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C137" s="59" t="s">
-        <v>396</v>
+        <v>266</v>
+      </c>
+      <c r="C137" s="58" t="s">
+        <v>267</v>
       </c>
       <c r="D137" s="58" t="s">
         <v>108</v>
@@ -7413,12 +7450,12 @@
       <c r="F137" s="59"/>
     </row>
     <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="72"/>
+      <c r="A138" s="73"/>
       <c r="B138" s="58" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C138" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D138" s="58" t="s">
         <v>108</v>
@@ -7427,284 +7464,284 @@
       <c r="F138" s="59"/>
     </row>
     <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="72"/>
+      <c r="A139" s="73"/>
       <c r="B139" s="58" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C139" s="59" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D139" s="58" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="E139" s="60"/>
       <c r="F139" s="59"/>
     </row>
     <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="72"/>
+      <c r="A140" s="73"/>
       <c r="B140" s="58" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C140" s="59" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D140" s="58" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="E140" s="60"/>
       <c r="F140" s="59"/>
     </row>
-    <row r="141" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="72"/>
+    <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="73"/>
       <c r="B141" s="58" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C141" s="59" t="s">
-        <v>400</v>
-      </c>
-      <c r="D141" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="E141" s="60" t="s">
-        <v>278</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="D141" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E141" s="60"/>
       <c r="F141" s="59"/>
     </row>
-    <row r="142" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A142" s="72"/>
+    <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="73"/>
       <c r="B142" s="58" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C142" s="59" t="s">
-        <v>401</v>
-      </c>
-      <c r="D142" s="59" t="s">
-        <v>342</v>
+        <v>399</v>
+      </c>
+      <c r="D142" s="58" t="s">
+        <v>39</v>
       </c>
       <c r="E142" s="60"/>
       <c r="F142" s="59"/>
     </row>
     <row r="143" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="72"/>
+      <c r="A143" s="73"/>
       <c r="B143" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="C143" s="59" t="s">
+        <v>400</v>
+      </c>
+      <c r="D143" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="E143" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="F143" s="59"/>
+    </row>
+    <row r="144" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="73"/>
+      <c r="B144" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="C144" s="59" t="s">
+        <v>401</v>
+      </c>
+      <c r="D144" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="E144" s="60"/>
+      <c r="F144" s="59"/>
+    </row>
+    <row r="145" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A145" s="73"/>
+      <c r="B145" s="58" t="s">
         <v>470</v>
       </c>
-      <c r="C143" s="59" t="s">
+      <c r="C145" s="59" t="s">
         <v>402</v>
       </c>
-      <c r="D143" s="58" t="s">
+      <c r="D145" s="58" t="s">
         <v>86</v>
-      </c>
-      <c r="E143" s="60"/>
-      <c r="F143" s="59"/>
-    </row>
-    <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="72"/>
-      <c r="B144" s="58" t="s">
-        <v>454</v>
-      </c>
-      <c r="C144" s="59" t="s">
-        <v>455</v>
-      </c>
-      <c r="D144" s="58" t="s">
-        <v>445</v>
-      </c>
-      <c r="E144" s="60"/>
-      <c r="F144" s="58" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A145" s="72"/>
-      <c r="B145" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="C145" s="59" t="s">
-        <v>403</v>
-      </c>
-      <c r="D145" s="59" t="s">
-        <v>345</v>
       </c>
       <c r="E145" s="60"/>
       <c r="F145" s="59"/>
     </row>
-    <row r="146" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A146" s="72"/>
+    <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="73"/>
       <c r="B146" s="58" t="s">
-        <v>287</v>
+        <v>454</v>
       </c>
       <c r="C146" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="D146" s="59" t="s">
-        <v>347</v>
+        <v>455</v>
+      </c>
+      <c r="D146" s="58" t="s">
+        <v>445</v>
       </c>
       <c r="E146" s="60"/>
-      <c r="F146" s="59"/>
-    </row>
-    <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="72"/>
+      <c r="F146" s="58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A147" s="73"/>
       <c r="B147" s="58" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C147" s="59" t="s">
-        <v>290</v>
-      </c>
-      <c r="D147" s="58" t="s">
-        <v>86</v>
+        <v>403</v>
+      </c>
+      <c r="D147" s="59" t="s">
+        <v>345</v>
       </c>
       <c r="E147" s="60"/>
       <c r="F147" s="59"/>
     </row>
     <row r="148" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A148" s="72"/>
+      <c r="A148" s="73"/>
       <c r="B148" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="C148" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="D148" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="E148" s="60"/>
+      <c r="F148" s="59"/>
+    </row>
+    <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="73"/>
+      <c r="B149" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="C149" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="D149" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E149" s="60"/>
+      <c r="F149" s="59"/>
+    </row>
+    <row r="150" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A150" s="73"/>
+      <c r="B150" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="C148" s="59" t="s">
+      <c r="C150" s="59" t="s">
         <v>457</v>
       </c>
-      <c r="D148" s="58" t="s">
+      <c r="D150" s="58" t="s">
         <v>547</v>
       </c>
-      <c r="E148" s="60"/>
-      <c r="F148" s="59" t="s">
+      <c r="E150" s="60"/>
+      <c r="F150" s="59" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="72"/>
-      <c r="B149" s="58" t="s">
+    <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="73"/>
+      <c r="B151" s="58" t="s">
         <v>497</v>
       </c>
-      <c r="C149" s="59" t="s">
+      <c r="C151" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="D149" s="59" t="s">
+      <c r="D151" s="59" t="s">
         <v>548</v>
       </c>
-      <c r="E149" s="60"/>
-      <c r="F149" s="59" t="s">
+      <c r="E151" s="60"/>
+      <c r="F151" s="59" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A150" s="72"/>
-      <c r="B150" s="58" t="s">
+    <row r="152" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="73"/>
+      <c r="B152" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="C150" s="59" t="s">
+      <c r="C152" s="59" t="s">
         <v>405</v>
       </c>
-      <c r="D150" s="59" t="s">
+      <c r="D152" s="59" t="s">
         <v>350</v>
-      </c>
-      <c r="E150" s="60"/>
-      <c r="F150" s="59"/>
-    </row>
-    <row r="151" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A151" s="72"/>
-      <c r="B151" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="C151" s="59" t="s">
-        <v>406</v>
-      </c>
-      <c r="D151" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E151" s="60"/>
-      <c r="F151" s="59"/>
-    </row>
-    <row r="152" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="72"/>
-      <c r="B152" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C152" s="59" t="s">
-        <v>407</v>
-      </c>
-      <c r="D152" s="59" t="s">
-        <v>353</v>
       </c>
       <c r="E152" s="60"/>
       <c r="F152" s="59"/>
     </row>
     <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A153" s="72"/>
+      <c r="A153" s="73"/>
       <c r="B153" s="58" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C153" s="59" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D153" s="58" t="s">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="E153" s="60"/>
       <c r="F153" s="59"/>
     </row>
-    <row r="154" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A154" s="72"/>
+    <row r="154" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="73"/>
       <c r="B154" s="58" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C154" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="D154" s="58" t="s">
-        <v>261</v>
+        <v>407</v>
+      </c>
+      <c r="D154" s="59" t="s">
+        <v>353</v>
       </c>
       <c r="E154" s="60"/>
       <c r="F154" s="59"/>
     </row>
     <row r="155" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A155" s="72"/>
+      <c r="A155" s="73"/>
       <c r="B155" s="58" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C155" s="59" t="s">
-        <v>410</v>
-      </c>
-      <c r="D155" s="58"/>
+        <v>408</v>
+      </c>
+      <c r="D155" s="58" t="s">
+        <v>300</v>
+      </c>
       <c r="E155" s="60"/>
       <c r="F155" s="59"/>
     </row>
-    <row r="156" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A156" s="72"/>
+    <row r="156" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="73"/>
       <c r="B156" s="58" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C156" s="59" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D156" s="58" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="E156" s="60"/>
       <c r="F156" s="59"/>
     </row>
     <row r="157" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A157" s="72"/>
+      <c r="A157" s="73"/>
       <c r="B157" s="58" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C157" s="59" t="s">
-        <v>412</v>
-      </c>
-      <c r="D157" s="58" t="s">
-        <v>39</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="D157" s="58"/>
       <c r="E157" s="60"/>
       <c r="F157" s="59"/>
     </row>
-    <row r="158" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A158" s="72"/>
+    <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="73"/>
       <c r="B158" s="58" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C158" s="59" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D158" s="58" t="s">
         <v>39</v>
@@ -7712,13 +7749,13 @@
       <c r="E158" s="60"/>
       <c r="F158" s="59"/>
     </row>
-    <row r="159" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A159" s="72"/>
+    <row r="159" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A159" s="73"/>
       <c r="B159" s="58" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C159" s="59" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D159" s="58" t="s">
         <v>39</v>
@@ -7726,13 +7763,13 @@
       <c r="E159" s="60"/>
       <c r="F159" s="59"/>
     </row>
-    <row r="160" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A160" s="72"/>
+    <row r="160" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="73"/>
       <c r="B160" s="58" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="C160" s="59" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D160" s="58" t="s">
         <v>39</v>
@@ -7740,13 +7777,13 @@
       <c r="E160" s="60"/>
       <c r="F160" s="59"/>
     </row>
-    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="72"/>
+    <row r="161" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A161" s="73"/>
       <c r="B161" s="58" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C161" s="59" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D161" s="58" t="s">
         <v>39</v>
@@ -7755,12 +7792,12 @@
       <c r="F161" s="59"/>
     </row>
     <row r="162" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A162" s="72"/>
+      <c r="A162" s="73"/>
       <c r="B162" s="58" t="s">
-        <v>317</v>
+        <v>224</v>
       </c>
       <c r="C162" s="59" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D162" s="58" t="s">
         <v>39</v>
@@ -7769,12 +7806,12 @@
       <c r="F162" s="59"/>
     </row>
     <row r="163" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A163" s="72"/>
+      <c r="A163" s="73"/>
       <c r="B163" s="58" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C163" s="59" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D163" s="58" t="s">
         <v>39</v>
@@ -7782,93 +7819,121 @@
       <c r="E163" s="60"/>
       <c r="F163" s="59"/>
     </row>
-    <row r="164" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A164" s="72"/>
+    <row r="164" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A164" s="73"/>
       <c r="B164" s="58" t="s">
-        <v>321</v>
-      </c>
-      <c r="C164" s="58" t="s">
-        <v>322</v>
+        <v>317</v>
+      </c>
+      <c r="C164" s="59" t="s">
+        <v>417</v>
       </c>
       <c r="D164" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E164" s="60" t="s">
+      <c r="E164" s="60"/>
+      <c r="F164" s="59"/>
+    </row>
+    <row r="165" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="73"/>
+      <c r="B165" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="C165" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="D165" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E165" s="60"/>
+      <c r="F165" s="59"/>
+    </row>
+    <row r="166" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="73"/>
+      <c r="B166" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="F164" s="59" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="72"/>
-      <c r="B165" s="58"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="60" t="s">
-        <v>323</v>
-      </c>
-      <c r="F165" s="59" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A166" s="72"/>
-      <c r="B166" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="C166" s="59" t="s">
-        <v>425</v>
+      <c r="C166" s="58" t="s">
+        <v>322</v>
       </c>
       <c r="D166" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E166" s="60"/>
-      <c r="F166" s="59"/>
+      <c r="E166" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="F166" s="59" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="167" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="72"/>
-      <c r="B167" s="58" t="s">
+      <c r="A167" s="73"/>
+      <c r="B167" s="58"/>
+      <c r="C167" s="58"/>
+      <c r="D167" s="58"/>
+      <c r="E167" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="F167" s="59" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="73"/>
+      <c r="B168" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="C168" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="D168" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E168" s="60"/>
+      <c r="F168" s="59"/>
+    </row>
+    <row r="169" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A169" s="73"/>
+      <c r="B169" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="C167" s="59" t="s">
+      <c r="C169" s="59" t="s">
         <v>426</v>
       </c>
-      <c r="D167" s="58" t="s">
+      <c r="D169" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E167" s="60"/>
-      <c r="F167" s="59" t="s">
+      <c r="E169" s="60"/>
+      <c r="F169" s="59" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A168" s="72"/>
-      <c r="B168" s="61" t="s">
+    <row r="170" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A170" s="73"/>
+      <c r="B170" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="C168" s="62" t="s">
+      <c r="C170" s="62" t="s">
         <v>427</v>
       </c>
-      <c r="D168" s="61" t="s">
+      <c r="D170" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E168" s="63"/>
-      <c r="F168" s="62" t="s">
+      <c r="E170" s="63"/>
+      <c r="F170" s="62" t="s">
         <v>428</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F168" xr:uid="{EA55B166-B49F-4ECB-9A75-5F440FA2BF9F}"/>
+  <autoFilter ref="A1:F170" xr:uid="{EA55B166-B49F-4ECB-9A75-5F440FA2BF9F}"/>
   <mergeCells count="8">
     <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A63:A168"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="A27:A38"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="A48:A56"/>
-    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="A65:A170"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A59:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7877,25 +7942,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>5</Value>
+      <Value>3</Value>
+    </TaxCatchAll>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F020023FF955149D2434D9634B069E3D44A42" ma:contentTypeVersion="49" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="765f642684fa63bc1b9312c368d0b6a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e953fe045711556fedbcbd575ad79d22" ns3:_="">
     <xsd:import namespace="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
@@ -8137,59 +8211,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
-    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
-    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Value>5</Value>
-      <Value>3</Value>
-    </TaxCatchAll>
-    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
-        </TermInfo>
-      </Terms>
-    </i008215bacac45029ee8cafff4c8e93b>
-    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
-    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8207,18 +8264,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Support/A - Guides and Documentation/GLD_Dictionary_v01.xlsx
+++ b/Support/A - Guides and Documentation/GLD_Dictionary_v01.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb529026\Documents\gld\Support\A - Guides and Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup.sharepoint.com/sites/Files5011/Shared Documents/JOBS GROUP LIBRARY/JD Team folder/Global Labor Database/GLD Standard Operating Procedures/Data Dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF76106-A1CE-4AA1-9E48-3D7E1B49DD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{DCF76106-A1CE-4AA1-9E48-3D7E1B49DD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCC37A26-A759-4F2F-AAA7-6954E7C58246}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Info and Example" sheetId="1" r:id="rId1"/>
     <sheet name="GLD Dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'GLD Dictionary'!$A$1:$F$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'GLD Dictionary'!$A$1:$F$172</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -62,7 +62,7 @@
     <author>tc={C9B75AEF-A677-4CBC-B5B2-102C7CAE6510}</author>
   </authors>
   <commentList>
-    <comment ref="B166" authorId="0" shapeId="0" xr:uid="{C9B75AEF-A677-4CBC-B5B2-102C7CAE6510}">
+    <comment ref="B168" authorId="0" shapeId="0" xr:uid="{C9B75AEF-A677-4CBC-B5B2-102C7CAE6510}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="573">
   <si>
     <t>Module</t>
   </si>
@@ -2123,6 +2123,24 @@
   </si>
   <si>
     <t>Only to be filled out if concept present in raw data, otherwise left missing. No attempt to create visit number info during harmonization if not already in data.</t>
+  </si>
+  <si>
+    <t>weight_m</t>
+  </si>
+  <si>
+    <t>weight_q</t>
+  </si>
+  <si>
+    <t>Survey weights for each month</t>
+  </si>
+  <si>
+    <t>Survey weights for each quarter</t>
+  </si>
+  <si>
+    <t>If present in the data and the survey reports calculate estimates per month, weight to national level for each month</t>
+  </si>
+  <si>
+    <t>If present in the data and the survey reports calculate estimates per quarter, weight to national level for each quarter</t>
   </si>
 </sst>
 </file>
@@ -2566,6 +2584,15 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2607,15 +2634,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3173,7 +3191,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B166" dT="2021-01-04T14:59:32.96" personId="{AA1C213F-0BE3-45C7-AD62-FE87D2C519B4}" id="{C9B75AEF-A677-4CBC-B5B2-102C7CAE6510}">
+  <threadedComment ref="B168" dT="2021-01-04T14:59:32.96" personId="{AA1C213F-0BE3-45C7-AD62-FE87D2C519B4}" id="{C9B75AEF-A677-4CBC-B5B2-102C7CAE6510}">
     <text>Makes more sense to me as a categorical 0 / 1 / 2 / 3+ since barely any questionnaire will ask details passed the secondary job, will be the sum of other jobs so we will never know the number.</text>
   </threadedComment>
 </ThreadedComments>
@@ -3187,17 +3205,17 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="55.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="55.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3217,8 +3235,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3237,8 +3255,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="67"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="70"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3253,8 +3271,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3268,16 +3286,16 @@
         <v>17</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
@@ -3291,14 +3309,14 @@
         <v>19</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3314,14 +3332,14 @@
       <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -3338,8 +3356,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
@@ -3353,16 +3371,16 @@
         <v>32</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="I8" s="68" t="s">
+      <c r="I8" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -3376,14 +3394,14 @@
         <v>36</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
@@ -3397,14 +3415,14 @@
         <v>40</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-    </row>
-    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+    </row>
+    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
       <c r="B11" s="7" t="s">
         <v>41</v>
       </c>
@@ -3416,14 +3434,14 @@
       <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
@@ -3438,8 +3456,8 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
       <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
@@ -3454,7 +3472,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -3474,8 +3492,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="66" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3492,8 +3510,8 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
@@ -3510,8 +3528,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66"/>
+    <row r="17" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="69"/>
       <c r="B17" s="4" t="s">
         <v>60</v>
       </c>
@@ -3525,16 +3543,16 @@
       <c r="F17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="68" t="s">
+      <c r="I17" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="69"/>
       <c r="B18" s="4" t="s">
         <v>64</v>
       </c>
@@ -3549,8 +3567,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="69"/>
       <c r="B19" s="4" t="s">
         <v>67</v>
       </c>
@@ -3565,8 +3583,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="70" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="73" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -3584,16 +3602,16 @@
       <c r="F20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="71" t="s">
+      <c r="I20" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
       <c r="B21" s="13" t="s">
         <v>49</v>
       </c>
@@ -3609,14 +3627,14 @@
       <c r="F21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3632,14 +3650,14 @@
         <v>73</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="70"/>
       <c r="B23" s="1" t="s">
         <v>75</v>
       </c>
@@ -3653,14 +3671,14 @@
         <v>78</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-    </row>
-    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+    </row>
+    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="70"/>
       <c r="B24" s="1" t="s">
         <v>79</v>
       </c>
@@ -3676,14 +3694,14 @@
       <c r="F24" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="70"/>
       <c r="B25" s="1" t="s">
         <v>84</v>
       </c>
@@ -3698,8 +3716,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="67"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
       <c r="B26" s="1" t="s">
         <v>88</v>
       </c>
@@ -3714,8 +3732,8 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="67"/>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="70"/>
       <c r="B27" s="1" t="s">
         <v>91</v>
       </c>
@@ -3726,12 +3744,12 @@
         <v>93</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="72" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="67"/>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="70"/>
       <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
@@ -3742,10 +3760,10 @@
         <v>93</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="69"/>
-    </row>
-    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="67"/>
+      <c r="F28" s="72"/>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="70"/>
       <c r="B29" s="1" t="s">
         <v>97</v>
       </c>
@@ -3756,10 +3774,10 @@
         <v>93</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="69"/>
-    </row>
-    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="67"/>
+      <c r="F29" s="72"/>
+    </row>
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="70"/>
       <c r="B30" s="1" t="s">
         <v>99</v>
       </c>
@@ -3770,10 +3788,10 @@
         <v>93</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="69"/>
-    </row>
-    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="67"/>
+      <c r="F30" s="72"/>
+    </row>
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="70"/>
       <c r="B31" s="1" t="s">
         <v>101</v>
       </c>
@@ -3784,10 +3802,10 @@
         <v>93</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="69"/>
-    </row>
-    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="67"/>
+      <c r="F31" s="72"/>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="70"/>
       <c r="B32" s="1" t="s">
         <v>103</v>
       </c>
@@ -3798,10 +3816,10 @@
         <v>93</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="69"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="66" t="s">
+      <c r="F32" s="72"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="69" t="s">
         <v>105</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3818,8 +3836,8 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="66"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
       <c r="B34" s="4" t="s">
         <v>110</v>
       </c>
@@ -3834,8 +3852,8 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="69"/>
       <c r="B35" s="4" t="s">
         <v>112</v>
       </c>
@@ -3850,8 +3868,8 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="66"/>
+    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
       <c r="B36" s="4" t="s">
         <v>115</v>
       </c>
@@ -3866,8 +3884,8 @@
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A37" s="66"/>
+    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="69"/>
       <c r="B37" s="4" t="s">
         <v>119</v>
       </c>
@@ -3882,8 +3900,8 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="66"/>
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="69"/>
       <c r="B38" s="4" t="s">
         <v>123</v>
       </c>
@@ -3898,8 +3916,8 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="67" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="70" t="s">
         <v>127</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3916,8 +3934,8 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="67"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="70"/>
       <c r="B40" s="1" t="s">
         <v>131</v>
       </c>
@@ -3932,8 +3950,8 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="67"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="70"/>
       <c r="B41" s="1" t="s">
         <v>134</v>
       </c>
@@ -3948,8 +3966,8 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="67"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="70"/>
       <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
@@ -3964,8 +3982,8 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="67"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="70"/>
       <c r="B43" s="1" t="s">
         <v>139</v>
       </c>
@@ -3980,8 +3998,8 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="67"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="70"/>
       <c r="B44" s="1" t="s">
         <v>141</v>
       </c>
@@ -3996,8 +4014,8 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="67"/>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="70"/>
       <c r="B45" s="1" t="s">
         <v>144</v>
       </c>
@@ -4014,8 +4032,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="67"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="70"/>
       <c r="B46" s="1" t="s">
         <v>148</v>
       </c>
@@ -4030,16 +4048,16 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="67"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="70"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="11"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="67"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="70"/>
       <c r="B48" s="1" t="s">
         <v>150</v>
       </c>
@@ -4054,8 +4072,8 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="67"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="70"/>
       <c r="B49" s="1" t="s">
         <v>154</v>
       </c>
@@ -4070,8 +4088,8 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="67"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="70"/>
       <c r="B50" s="1" t="s">
         <v>158</v>
       </c>
@@ -4086,16 +4104,16 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="67"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="70"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="11"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="67"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="70"/>
       <c r="B52" s="1" t="s">
         <v>160</v>
       </c>
@@ -4110,8 +4128,8 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="67"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="70"/>
       <c r="B53" s="1" t="s">
         <v>163</v>
       </c>
@@ -4126,8 +4144,8 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="67"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="70"/>
       <c r="B54" s="1" t="s">
         <v>166</v>
       </c>
@@ -4142,8 +4160,8 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="67"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="70"/>
       <c r="B55" s="1" t="s">
         <v>169</v>
       </c>
@@ -4158,8 +4176,8 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="67"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="70"/>
       <c r="B56" s="1" t="s">
         <v>171</v>
       </c>
@@ -4172,8 +4190,8 @@
       <c r="E56" s="11"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="67"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="70"/>
       <c r="B57" s="1" t="s">
         <v>173</v>
       </c>
@@ -4186,8 +4204,8 @@
       <c r="E57" s="11"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="67"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="70"/>
       <c r="B58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4202,8 +4220,8 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="67"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="70"/>
       <c r="B59" s="1" t="s">
         <v>178</v>
       </c>
@@ -4218,8 +4236,8 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="67"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="70"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -4234,8 +4252,8 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="67"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="70"/>
       <c r="B61" s="1" t="s">
         <v>182</v>
       </c>
@@ -4250,8 +4268,8 @@
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="67"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="70"/>
       <c r="B62" s="1" t="s">
         <v>184</v>
       </c>
@@ -4266,8 +4284,8 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="67"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="70"/>
       <c r="B63" s="1" t="s">
         <v>186</v>
       </c>
@@ -4282,8 +4300,8 @@
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="67"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="70"/>
       <c r="B64" s="1" t="s">
         <v>188</v>
       </c>
@@ -4298,8 +4316,8 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="67"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="70"/>
       <c r="B65" s="1" t="s">
         <v>190</v>
       </c>
@@ -4312,8 +4330,8 @@
       <c r="E65" s="11"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="67"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="70"/>
       <c r="B66" s="1" t="s">
         <v>193</v>
       </c>
@@ -4328,16 +4346,16 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="67"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="70"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="11"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="67"/>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="70"/>
       <c r="B68" s="1" t="s">
         <v>195</v>
       </c>
@@ -4352,8 +4370,8 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="67"/>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="70"/>
       <c r="B69" s="1" t="s">
         <v>198</v>
       </c>
@@ -4368,8 +4386,8 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="67"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="70"/>
       <c r="B70" s="1" t="s">
         <v>201</v>
       </c>
@@ -4382,16 +4400,16 @@
       <c r="E70" s="11"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="67"/>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="70"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="11"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="67"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="70"/>
       <c r="B72" s="1" t="s">
         <v>203</v>
       </c>
@@ -4406,8 +4424,8 @@
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="67"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="70"/>
       <c r="B73" s="1" t="s">
         <v>205</v>
       </c>
@@ -4422,8 +4440,8 @@
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="67"/>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="70"/>
       <c r="B74" s="1" t="s">
         <v>208</v>
       </c>
@@ -4438,8 +4456,8 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="67"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="70"/>
       <c r="B75" s="1" t="s">
         <v>210</v>
       </c>
@@ -4452,8 +4470,8 @@
       <c r="E75" s="11"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="67"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="70"/>
       <c r="B76" s="1" t="s">
         <v>212</v>
       </c>
@@ -4466,8 +4484,8 @@
       <c r="E76" s="11"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="67"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="70"/>
       <c r="B77" s="1" t="s">
         <v>214</v>
       </c>
@@ -4480,8 +4498,8 @@
       <c r="E77" s="11"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="67"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="70"/>
       <c r="B78" s="1" t="s">
         <v>216</v>
       </c>
@@ -4494,8 +4512,8 @@
       <c r="E78" s="11"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="67"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="70"/>
       <c r="B79" s="1" t="s">
         <v>218</v>
       </c>
@@ -4508,8 +4526,8 @@
       <c r="E79" s="11"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="67"/>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="70"/>
       <c r="B80" s="1" t="s">
         <v>220</v>
       </c>
@@ -4522,8 +4540,8 @@
       <c r="E80" s="11"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="67"/>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="70"/>
       <c r="B81" s="1" t="s">
         <v>222</v>
       </c>
@@ -4536,8 +4554,8 @@
       <c r="E81" s="11"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="67"/>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="70"/>
       <c r="B82" s="1" t="s">
         <v>224</v>
       </c>
@@ -4550,8 +4568,8 @@
       <c r="E82" s="11"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="67"/>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="70"/>
       <c r="B83" s="1" t="s">
         <v>226</v>
       </c>
@@ -4564,8 +4582,8 @@
       <c r="E83" s="11"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="67"/>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="70"/>
       <c r="B84" s="1" t="s">
         <v>228</v>
       </c>
@@ -4578,8 +4596,8 @@
       <c r="E84" s="11"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="67"/>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="70"/>
       <c r="B85" s="1" t="s">
         <v>230</v>
       </c>
@@ -4592,8 +4610,8 @@
       <c r="E85" s="11"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="67"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="70"/>
       <c r="B86" s="1" t="s">
         <v>232</v>
       </c>
@@ -4608,8 +4626,8 @@
       </c>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="67"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="70"/>
       <c r="B87" s="1" t="s">
         <v>234</v>
       </c>
@@ -4622,8 +4640,8 @@
       <c r="E87" s="11"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="67"/>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="70"/>
       <c r="B88" s="1" t="s">
         <v>236</v>
       </c>
@@ -4636,8 +4654,8 @@
       <c r="E88" s="11"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="67"/>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="70"/>
       <c r="B89" s="1" t="s">
         <v>238</v>
       </c>
@@ -4650,8 +4668,8 @@
       <c r="E89" s="11"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="67"/>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="70"/>
       <c r="B90" s="1" t="s">
         <v>240</v>
       </c>
@@ -4666,8 +4684,8 @@
       </c>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="67"/>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="70"/>
       <c r="B91" s="1" t="s">
         <v>242</v>
       </c>
@@ -4680,8 +4698,8 @@
       <c r="E91" s="11"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="67"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="70"/>
       <c r="B92" s="1" t="s">
         <v>244</v>
       </c>
@@ -4694,16 +4712,16 @@
       <c r="E92" s="11"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="67"/>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="70"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="11"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="67"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="70"/>
       <c r="B94" s="1" t="s">
         <v>246</v>
       </c>
@@ -4716,8 +4734,8 @@
       <c r="E94" s="11"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="67"/>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="70"/>
       <c r="B95" s="1" t="s">
         <v>248</v>
       </c>
@@ -4730,8 +4748,8 @@
       <c r="E95" s="11"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="67"/>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="70"/>
       <c r="B96" s="1" t="s">
         <v>250</v>
       </c>
@@ -4744,16 +4762,16 @@
       <c r="E96" s="11"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="67"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="70"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="11"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="67"/>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="70"/>
       <c r="B98" s="1" t="s">
         <v>252</v>
       </c>
@@ -4766,8 +4784,8 @@
       <c r="E98" s="11"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="67"/>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="70"/>
       <c r="B99" s="1" t="s">
         <v>254</v>
       </c>
@@ -4780,8 +4798,8 @@
       <c r="E99" s="11"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="67"/>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="70"/>
       <c r="B100" s="1" t="s">
         <v>257</v>
       </c>
@@ -4794,8 +4812,8 @@
       <c r="E100" s="11"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="67"/>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="70"/>
       <c r="B101" s="1" t="s">
         <v>259</v>
       </c>
@@ -4808,8 +4826,8 @@
       <c r="E101" s="11"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="67"/>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="70"/>
       <c r="B102" s="1" t="s">
         <v>262</v>
       </c>
@@ -4822,8 +4840,8 @@
       <c r="E102" s="11"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="67"/>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="70"/>
       <c r="B103" s="1" t="s">
         <v>264</v>
       </c>
@@ -4836,8 +4854,8 @@
       <c r="E103" s="11"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="67"/>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="70"/>
       <c r="B104" s="1" t="s">
         <v>266</v>
       </c>
@@ -4850,8 +4868,8 @@
       <c r="E104" s="11"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="67"/>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="70"/>
       <c r="B105" s="1" t="s">
         <v>268</v>
       </c>
@@ -4864,8 +4882,8 @@
       <c r="E105" s="11"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="67"/>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="70"/>
       <c r="B106" s="1" t="s">
         <v>270</v>
       </c>
@@ -4878,8 +4896,8 @@
       <c r="E106" s="11"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="67"/>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="70"/>
       <c r="B107" s="1" t="s">
         <v>272</v>
       </c>
@@ -4892,8 +4910,8 @@
       <c r="E107" s="11"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="67"/>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="70"/>
       <c r="B108" s="1" t="s">
         <v>274</v>
       </c>
@@ -4906,8 +4924,8 @@
       <c r="E108" s="11"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="67"/>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="70"/>
       <c r="B109" s="1" t="s">
         <v>276</v>
       </c>
@@ -4920,8 +4938,8 @@
       <c r="E109" s="11"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="67"/>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="70"/>
       <c r="B110" s="1" t="s">
         <v>278</v>
       </c>
@@ -4936,8 +4954,8 @@
       </c>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="67"/>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="70"/>
       <c r="B111" s="1" t="s">
         <v>280</v>
       </c>
@@ -4950,8 +4968,8 @@
       <c r="E111" s="11"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="67"/>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="70"/>
       <c r="B112" s="1" t="s">
         <v>282</v>
       </c>
@@ -4964,16 +4982,16 @@
       <c r="E112" s="11"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="67"/>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="70"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="11"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="67"/>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="70"/>
       <c r="B114" s="1" t="s">
         <v>284</v>
       </c>
@@ -4986,8 +5004,8 @@
       <c r="E114" s="11"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="67"/>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="70"/>
       <c r="B115" s="1" t="s">
         <v>287</v>
       </c>
@@ -5000,8 +5018,8 @@
       <c r="E115" s="11"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="67"/>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="70"/>
       <c r="B116" s="1" t="s">
         <v>289</v>
       </c>
@@ -5014,16 +5032,16 @@
       <c r="E116" s="11"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="67"/>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="70"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="11"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="67"/>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="70"/>
       <c r="B118" s="1" t="s">
         <v>291</v>
       </c>
@@ -5036,8 +5054,8 @@
       <c r="E118" s="11"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="67"/>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="70"/>
       <c r="B119" s="1" t="s">
         <v>293</v>
       </c>
@@ -5050,8 +5068,8 @@
       <c r="E119" s="11"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="67"/>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="70"/>
       <c r="B120" s="1" t="s">
         <v>296</v>
       </c>
@@ -5064,8 +5082,8 @@
       <c r="E120" s="11"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="67"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="70"/>
       <c r="B121" s="1" t="s">
         <v>298</v>
       </c>
@@ -5078,8 +5096,8 @@
       <c r="E121" s="11"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="67"/>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="70"/>
       <c r="B122" s="1" t="s">
         <v>301</v>
       </c>
@@ -5092,8 +5110,8 @@
       <c r="E122" s="11"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="67"/>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="70"/>
       <c r="B123" s="1" t="s">
         <v>303</v>
       </c>
@@ -5104,8 +5122,8 @@
       <c r="E123" s="11"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="67"/>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="70"/>
       <c r="B124" s="1" t="s">
         <v>305</v>
       </c>
@@ -5118,8 +5136,8 @@
       <c r="E124" s="11"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="67"/>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="70"/>
       <c r="B125" s="1" t="s">
         <v>307</v>
       </c>
@@ -5132,8 +5150,8 @@
       <c r="E125" s="11"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="67"/>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="70"/>
       <c r="B126" s="1" t="s">
         <v>309</v>
       </c>
@@ -5146,8 +5164,8 @@
       <c r="E126" s="11"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="67"/>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="70"/>
       <c r="B127" s="1" t="s">
         <v>311</v>
       </c>
@@ -5160,8 +5178,8 @@
       <c r="E127" s="11"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="67"/>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="70"/>
       <c r="B128" s="1" t="s">
         <v>313</v>
       </c>
@@ -5176,8 +5194,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="67"/>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="70"/>
       <c r="B129" s="1" t="s">
         <v>315</v>
       </c>
@@ -5190,8 +5208,8 @@
       <c r="E129" s="11"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="67"/>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="70"/>
       <c r="B130" s="1" t="s">
         <v>317</v>
       </c>
@@ -5204,8 +5222,8 @@
       <c r="E130" s="11"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="67"/>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="70"/>
       <c r="B131" s="1" t="s">
         <v>319</v>
       </c>
@@ -5218,8 +5236,8 @@
       <c r="E131" s="11"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="67"/>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="70"/>
       <c r="B132" s="1" t="s">
         <v>321</v>
       </c>
@@ -5234,8 +5252,8 @@
       </c>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="67"/>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="70"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -5244,8 +5262,8 @@
       </c>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="67"/>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="70"/>
       <c r="B134" s="1" t="s">
         <v>324</v>
       </c>
@@ -5258,8 +5276,8 @@
       <c r="E134" s="11"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="67"/>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="70"/>
       <c r="B135" s="1" t="s">
         <v>326</v>
       </c>
@@ -5272,8 +5290,8 @@
       <c r="E135" s="11"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="67"/>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="70"/>
       <c r="B136" s="1" t="s">
         <v>328</v>
       </c>
@@ -5309,23 +5327,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655A41D-FAAE-4875-A0C4-A516EEA673B9}">
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="55.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="55.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -5345,8 +5363,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -5363,8 +5381,8 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="76"/>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
@@ -5381,8 +5399,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="76"/>
       <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
@@ -5397,8 +5415,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
       <c r="B5" s="18" t="s">
         <v>465</v>
       </c>
@@ -5413,8 +5431,8 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
       <c r="B6" s="18" t="s">
         <v>534</v>
       </c>
@@ -5427,8 +5445,8 @@
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="76"/>
       <c r="B7" s="18" t="s">
         <v>535</v>
       </c>
@@ -5441,8 +5459,8 @@
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="76"/>
       <c r="B8" s="18" t="s">
         <v>536</v>
       </c>
@@ -5455,8 +5473,8 @@
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="73"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
       <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
@@ -5471,8 +5489,8 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="76"/>
       <c r="B10" s="18" t="s">
         <v>432</v>
       </c>
@@ -5485,8 +5503,8 @@
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="76"/>
       <c r="B11" s="18" t="s">
         <v>433</v>
       </c>
@@ -5499,8 +5517,8 @@
       <c r="E11" s="19"/>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="76"/>
       <c r="B12" s="18" t="s">
         <v>434</v>
       </c>
@@ -5513,8 +5531,8 @@
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="73"/>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="76"/>
       <c r="B13" s="18" t="s">
         <v>22</v>
       </c>
@@ -5531,8 +5549,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="76"/>
       <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
@@ -5549,8 +5567,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73"/>
+    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="76"/>
       <c r="B15" s="18" t="s">
         <v>30</v>
       </c>
@@ -5565,8 +5583,8 @@
       </c>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="73"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="76"/>
       <c r="B16" s="18" t="s">
         <v>34</v>
       </c>
@@ -5581,8 +5599,8 @@
       </c>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="76"/>
       <c r="B17" s="18" t="s">
         <v>37</v>
       </c>
@@ -5597,1413 +5615,1415 @@
       </c>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
-      <c r="B18" s="64" t="s">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="76"/>
+      <c r="B18" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="76"/>
+      <c r="B19" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="76"/>
+      <c r="B20" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E20" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
-      <c r="B19" s="64" t="s">
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="76"/>
+      <c r="B21" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
-      <c r="B20" s="18" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="76"/>
+      <c r="B22" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="80" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="65"/>
+      <c r="B23" s="66" t="s">
         <v>560</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C23" s="66" t="s">
         <v>562</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D23" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="82" t="s">
+      <c r="E23" s="67"/>
+      <c r="F23" s="68" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="80" t="s">
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+      <c r="B24" s="66" t="s">
         <v>561</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C24" s="66" t="s">
         <v>563</v>
       </c>
-      <c r="D22" s="80" t="s">
+      <c r="D24" s="66" t="s">
         <v>564</v>
       </c>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82" t="s">
+      <c r="E24" s="67"/>
+      <c r="F24" s="68" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="74" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B25" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C25" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D25" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E25" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="34"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="74"/>
-      <c r="B24" s="37" t="s">
+      <c r="F25" s="34"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="77"/>
+      <c r="B26" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C26" s="37" t="s">
         <v>56</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="74"/>
-      <c r="B25" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="74"/>
-      <c r="B26" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>65</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="F26" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="77"/>
+      <c r="B27" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="77"/>
+      <c r="B28" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="74"/>
-      <c r="B27" s="45" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="77"/>
+      <c r="B29" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C29" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E29" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="46"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="74"/>
-      <c r="B28" s="41" t="s">
+      <c r="F29" s="46"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="77"/>
+      <c r="B30" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C30" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D30" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="42" t="s">
+      <c r="E30" s="43"/>
+      <c r="F30" s="42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B31" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E31" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="78"/>
-      <c r="B30" s="18" t="s">
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="81"/>
+      <c r="B32" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D32" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E32" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="78"/>
-      <c r="B31" s="18" t="s">
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="81"/>
+      <c r="B33" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D33" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E33" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="78"/>
-      <c r="B32" s="18" t="s">
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="81"/>
+      <c r="B34" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D34" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E34" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F34" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="78"/>
-      <c r="B33" s="18" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="81"/>
+      <c r="B35" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C35" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D35" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20" t="s">
+      <c r="E35" s="19"/>
+      <c r="F35" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
-      <c r="B34" s="18" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="81"/>
+      <c r="B36" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D36" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
-      <c r="B35" s="18" t="s">
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="81"/>
+      <c r="B37" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="78"/>
-      <c r="B36" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="76"/>
-    </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="78"/>
-      <c r="B37" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>93</v>
       </c>
       <c r="E37" s="19"/>
-      <c r="F37" s="76"/>
-    </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="78"/>
+      <c r="F37" s="78" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="81"/>
       <c r="B38" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>93</v>
       </c>
       <c r="E38" s="19"/>
-      <c r="F38" s="76"/>
-    </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="78"/>
+      <c r="F38" s="79"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="81"/>
       <c r="B39" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>93</v>
       </c>
       <c r="E39" s="19"/>
-      <c r="F39" s="76"/>
-    </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="78"/>
+      <c r="F39" s="79"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="81"/>
       <c r="B40" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>93</v>
       </c>
       <c r="E40" s="19"/>
-      <c r="F40" s="77"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="79" t="s">
+      <c r="F40" s="79"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="81"/>
+      <c r="B41" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="79"/>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="81"/>
+      <c r="B42" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="80"/>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="82" t="s">
         <v>482</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B43" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C43" s="34" t="s">
         <v>485</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D43" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
-    </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="79"/>
-      <c r="B42" s="47" t="s">
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="82"/>
+      <c r="B44" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C44" s="48" t="s">
         <v>488</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D44" s="48" t="s">
         <v>499</v>
-      </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="79"/>
-      <c r="B43" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="40"/>
-    </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="79"/>
-      <c r="B44" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>114</v>
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="40" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="82"/>
+      <c r="B45" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="82"/>
+      <c r="B46" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="79"/>
-      <c r="B45" s="37" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="82"/>
+      <c r="B47" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C47" s="38" t="s">
         <v>528</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D47" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40" t="s">
+      <c r="E47" s="39"/>
+      <c r="F47" s="40" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A46" s="79"/>
-      <c r="B46" s="37" t="s">
+    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="82"/>
+      <c r="B48" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C48" s="37" t="s">
         <v>478</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D48" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A47" s="79"/>
-      <c r="B47" s="37" t="s">
+      <c r="E48" s="39"/>
+      <c r="F48" s="40"/>
+    </row>
+    <row r="49" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="82"/>
+      <c r="B49" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C49" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D49" s="38" t="s">
         <v>558</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="40"/>
-    </row>
-    <row r="48" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A48" s="79"/>
-      <c r="B48" s="45" t="s">
+      <c r="E49" s="39"/>
+      <c r="F49" s="40"/>
+    </row>
+    <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="82"/>
+      <c r="B50" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C50" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D50" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="50"/>
-    </row>
-    <row r="49" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="79"/>
-      <c r="B49" s="41" t="s">
+      <c r="E50" s="49"/>
+      <c r="F50" s="50"/>
+    </row>
+    <row r="51" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="82"/>
+      <c r="B51" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C51" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D51" s="42" t="s">
         <v>481</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="44"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="73" t="s">
+      <c r="E51" s="43"/>
+      <c r="F51" s="44"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B52" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C52" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D52" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E52" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="F50" s="25"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="73"/>
-      <c r="B51" s="23" t="s">
+      <c r="F52" s="25"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="76"/>
+      <c r="B53" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C53" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D53" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E53" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="51"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="73"/>
-      <c r="B52" s="26" t="s">
+      <c r="F53" s="51"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="76"/>
+      <c r="B54" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C54" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D54" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E54" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="28"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="73"/>
-      <c r="B53" s="26" t="s">
+      <c r="F54" s="28"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="76"/>
+      <c r="B55" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C55" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D55" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E55" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F53" s="28"/>
-    </row>
-    <row r="54" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="73"/>
-      <c r="B54" s="26" t="s">
+      <c r="F55" s="28"/>
+    </row>
+    <row r="56" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="76"/>
+      <c r="B56" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C56" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D56" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E56" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="F54" s="28" t="s">
+      <c r="F56" s="28" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A55" s="73"/>
-      <c r="B55" s="26" t="s">
+    <row r="57" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="76"/>
+      <c r="B57" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C57" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D57" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E57" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F55" s="28"/>
-    </row>
-    <row r="56" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="73"/>
-      <c r="B56" s="29" t="s">
+      <c r="F57" s="28"/>
+    </row>
+    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="76"/>
+      <c r="B58" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C58" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D58" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E58" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="F56" s="30" t="s">
+      <c r="F58" s="30" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="73"/>
-      <c r="B57" s="15" t="s">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="76"/>
+      <c r="B59" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="17" t="s">
+      <c r="D59" s="17"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="17" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="73"/>
-      <c r="B58" s="15" t="s">
+    <row r="60" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A60" s="76"/>
+      <c r="B60" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C60" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D60" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="E58" s="32"/>
-      <c r="F58" s="17" t="s">
+      <c r="E60" s="32"/>
+      <c r="F60" s="17" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="74" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="77" t="s">
         <v>518</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B61" s="52" t="s">
         <v>512</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C61" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="D59" s="53" t="s">
+      <c r="D61" s="53" t="s">
         <v>108</v>
-      </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="53"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="74"/>
-      <c r="B60" s="52" t="s">
-        <v>513</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>520</v>
-      </c>
-      <c r="D60" s="53" t="s">
-        <v>521</v>
-      </c>
-      <c r="E60" s="54"/>
-      <c r="F60" s="53"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="74"/>
-      <c r="B61" s="52" t="s">
-        <v>514</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="D61" s="53" t="s">
-        <v>114</v>
       </c>
       <c r="E61" s="54"/>
       <c r="F61" s="53"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="74"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="77"/>
       <c r="B62" s="52" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>114</v>
+        <v>521</v>
       </c>
       <c r="E62" s="54"/>
       <c r="F62" s="53"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="74"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="77"/>
       <c r="B63" s="52" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>522</v>
-      </c>
-      <c r="D63" s="53"/>
+        <v>549</v>
+      </c>
+      <c r="D63" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="E63" s="54"/>
       <c r="F63" s="53"/>
     </row>
-    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="74"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="77"/>
       <c r="B64" s="52" t="s">
+        <v>515</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>550</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="54"/>
+      <c r="F64" s="53"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="77"/>
+      <c r="B65" s="52" t="s">
+        <v>516</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>522</v>
+      </c>
+      <c r="D65" s="53"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="53"/>
+    </row>
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="77"/>
+      <c r="B66" s="52" t="s">
         <v>517</v>
       </c>
-      <c r="C64" s="52" t="s">
+      <c r="C66" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="D64" s="53" t="s">
+      <c r="D66" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="E64" s="54"/>
-      <c r="F64" s="53" t="s">
+      <c r="E66" s="54"/>
+      <c r="F66" s="53" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="73" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B67" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C67" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="55" t="s">
+      <c r="D67" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E65" s="56" t="s">
+      <c r="E67" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="F65" s="57"/>
-    </row>
-    <row r="66" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A66" s="73"/>
-      <c r="B66" s="58" t="s">
+      <c r="F67" s="57"/>
+    </row>
+    <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="76"/>
+      <c r="B68" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="C68" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="59" t="s">
+      <c r="D68" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="E66" s="60" t="s">
+      <c r="E68" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="F66" s="59" t="s">
+      <c r="F68" s="59" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="73"/>
-      <c r="B67" s="58" t="s">
+    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="76"/>
+      <c r="B69" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C69" s="59" t="s">
         <v>510</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D69" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E67" s="60"/>
-      <c r="F67" s="59" t="s">
+      <c r="E69" s="60"/>
+      <c r="F69" s="59" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="73"/>
-      <c r="B68" s="58" t="s">
+    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="76"/>
+      <c r="B70" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="C68" s="59" t="s">
+      <c r="C70" s="59" t="s">
         <v>511</v>
       </c>
-      <c r="D68" s="59" t="s">
+      <c r="D70" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E68" s="60"/>
-      <c r="F68" s="59" t="s">
+      <c r="E70" s="60"/>
+      <c r="F70" s="59" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="73"/>
-      <c r="B69" s="58" t="s">
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="76"/>
+      <c r="B71" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C71" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="D69" s="59" t="s">
+      <c r="D71" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="E69" s="60" t="s">
+      <c r="E71" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="F69" s="59"/>
-    </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="73"/>
-      <c r="B70" s="58" t="s">
+      <c r="F71" s="59"/>
+    </row>
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="76"/>
+      <c r="B72" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="59" t="s">
+      <c r="C72" s="59" t="s">
         <v>337</v>
       </c>
-      <c r="D70" s="58" t="s">
+      <c r="D72" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="60" t="s">
+      <c r="E72" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="F70" s="59"/>
-    </row>
-    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="73"/>
-      <c r="B71" s="58" t="s">
+      <c r="F72" s="59"/>
+    </row>
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="76"/>
+      <c r="B73" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C73" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="D71" s="58" t="s">
+      <c r="D73" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="60" t="s">
+      <c r="E73" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="F71" s="59"/>
-    </row>
-    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="73"/>
-      <c r="B72" s="58" t="s">
+      <c r="F73" s="59"/>
+    </row>
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="76"/>
+      <c r="B74" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="59" t="s">
+      <c r="C74" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="D72" s="59" t="s">
+      <c r="D74" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="E72" s="60" t="s">
+      <c r="E74" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="F72" s="59"/>
-    </row>
-    <row r="73" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="73"/>
-      <c r="B73" s="58" t="s">
+      <c r="F74" s="59"/>
+    </row>
+    <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="76"/>
+      <c r="B75" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C75" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="D73" s="59" t="s">
+      <c r="D75" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="E73" s="60" t="s">
+      <c r="E75" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="F73" s="59" t="s">
+      <c r="F75" s="59" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="73"/>
-      <c r="B74" s="58" t="s">
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="76"/>
+      <c r="B76" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="59" t="s">
+      <c r="C76" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="D74" s="58" t="s">
+      <c r="D76" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E74" s="60" t="s">
+      <c r="E76" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="59"/>
-    </row>
-    <row r="75" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A75" s="73"/>
-      <c r="B75" s="58" t="s">
+      <c r="F76" s="59"/>
+    </row>
+    <row r="77" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A77" s="76"/>
+      <c r="B77" s="58" t="s">
         <v>442</v>
       </c>
-      <c r="C75" s="59" t="s">
+      <c r="C77" s="59" t="s">
         <v>444</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D77" s="58" t="s">
         <v>533</v>
       </c>
-      <c r="E75" s="60"/>
-      <c r="F75" s="59" t="s">
+      <c r="E77" s="60"/>
+      <c r="F77" s="59" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="73"/>
-      <c r="B76" s="58" t="s">
+    <row r="78" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A78" s="76"/>
+      <c r="B78" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="59" t="s">
+      <c r="C78" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="D76" s="59" t="s">
+      <c r="D78" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E76" s="60" t="s">
+      <c r="E78" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="F76" s="59"/>
-    </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="73"/>
-      <c r="B77" s="58" t="s">
+      <c r="F78" s="59"/>
+    </row>
+    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="76"/>
+      <c r="B79" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="59" t="s">
+      <c r="C79" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="D77" s="59" t="s">
+      <c r="D79" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="E77" s="60" t="s">
+      <c r="E79" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="F77" s="59"/>
-    </row>
-    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="73"/>
-      <c r="B78" s="58" t="s">
+      <c r="F79" s="59"/>
+    </row>
+    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="76"/>
+      <c r="B80" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="59" t="s">
+      <c r="C80" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="D78" s="58" t="s">
+      <c r="D80" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E78" s="60" t="s">
+      <c r="E80" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="F78" s="59"/>
-    </row>
-    <row r="79" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="73"/>
-      <c r="B79" s="58" t="s">
+      <c r="F80" s="59"/>
+    </row>
+    <row r="81" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A81" s="76"/>
+      <c r="B81" s="58" t="s">
         <v>441</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C81" s="59" t="s">
         <v>443</v>
       </c>
-      <c r="D79" s="58" t="s">
+      <c r="D81" s="58" t="s">
         <v>547</v>
       </c>
-      <c r="E79" s="60"/>
-      <c r="F79" s="59" t="s">
+      <c r="E81" s="60"/>
+      <c r="F81" s="59" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="73"/>
-      <c r="B80" s="58" t="s">
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="76"/>
+      <c r="B82" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="C80" s="59" t="s">
+      <c r="C82" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="D80" s="59" t="s">
+      <c r="D82" s="59" t="s">
         <v>548</v>
       </c>
-      <c r="E80" s="60"/>
-      <c r="F80" s="59" t="s">
+      <c r="E82" s="60"/>
+      <c r="F82" s="59" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="73"/>
-      <c r="B81" s="58" t="s">
+    <row r="83" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A83" s="76"/>
+      <c r="B83" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C83" s="59" t="s">
         <v>349</v>
       </c>
-      <c r="D81" s="59" t="s">
+      <c r="D83" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="E81" s="60" t="s">
+      <c r="E83" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="F81" s="59"/>
-    </row>
-    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="73"/>
-      <c r="B82" s="58" t="s">
+      <c r="F83" s="59"/>
+    </row>
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="76"/>
+      <c r="B84" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="59" t="s">
+      <c r="C84" s="59" t="s">
         <v>351</v>
-      </c>
-      <c r="D82" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E82" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="F82" s="59"/>
-    </row>
-    <row r="83" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="73"/>
-      <c r="B83" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="C83" s="59" t="s">
-        <v>352</v>
-      </c>
-      <c r="D83" s="59" t="s">
-        <v>353</v>
-      </c>
-      <c r="E83" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="F83" s="59"/>
-    </row>
-    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="73"/>
-      <c r="B84" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" s="59" t="s">
-        <v>354</v>
       </c>
       <c r="D84" s="58" t="s">
         <v>39</v>
       </c>
       <c r="E84" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="F84" s="59"/>
+    </row>
+    <row r="85" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A85" s="76"/>
+      <c r="B85" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D85" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="E85" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" s="59"/>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="76"/>
+      <c r="B86" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="F84" s="59"/>
-    </row>
-    <row r="85" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="73"/>
-      <c r="B85" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="C85" s="59" t="s">
-        <v>355</v>
-      </c>
-      <c r="D85" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E85" s="60"/>
-      <c r="F85" s="59" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="73"/>
-      <c r="B86" s="58" t="s">
-        <v>173</v>
-      </c>
       <c r="C86" s="59" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D86" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E86" s="60"/>
+      <c r="E86" s="60" t="s">
+        <v>169</v>
+      </c>
       <c r="F86" s="59"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="73"/>
+    <row r="87" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A87" s="76"/>
       <c r="B87" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="D87" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="60"/>
+      <c r="F87" s="59" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="76"/>
+      <c r="B88" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="D88" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="60"/>
+      <c r="F88" s="59"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="76"/>
+      <c r="B89" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="58" t="s">
+      <c r="C89" s="58" t="s">
         <v>176</v>
-      </c>
-      <c r="D87" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E87" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="F87" s="59"/>
-    </row>
-    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="73"/>
-      <c r="B88" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" s="59" t="s">
-        <v>358</v>
-      </c>
-      <c r="D88" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E88" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="F88" s="59"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="73"/>
-      <c r="B89" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="58" t="s">
-        <v>181</v>
       </c>
       <c r="D89" s="58" t="s">
         <v>108</v>
       </c>
       <c r="E89" s="60" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F89" s="59"/>
     </row>
-    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="73"/>
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="76"/>
       <c r="B90" s="58" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C90" s="59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D90" s="58" t="s">
         <v>108</v>
       </c>
       <c r="E90" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" s="59"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="76"/>
+      <c r="B91" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" s="59"/>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="76"/>
+      <c r="B92" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="F90" s="59"/>
-    </row>
-    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="73"/>
-      <c r="B91" s="58" t="s">
+      <c r="C92" s="59" t="s">
+        <v>359</v>
+      </c>
+      <c r="D92" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" s="59"/>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="76"/>
+      <c r="B93" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="C91" s="59" t="s">
+      <c r="C93" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="D91" s="58" t="s">
+      <c r="D93" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E91" s="60" t="s">
+      <c r="E93" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="F91" s="59"/>
-    </row>
-    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="73"/>
-      <c r="B92" s="58" t="s">
+      <c r="F93" s="59"/>
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="76"/>
+      <c r="B94" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="59" t="s">
+      <c r="C94" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="D92" s="58" t="s">
+      <c r="D94" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E92" s="60" t="s">
+      <c r="E94" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F92" s="59"/>
-    </row>
-    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="73"/>
-      <c r="B93" s="58" t="s">
+      <c r="F94" s="59"/>
+    </row>
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="76"/>
+      <c r="B95" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C95" s="59" t="s">
         <v>362</v>
       </c>
-      <c r="D93" s="59" t="s">
+      <c r="D95" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="E93" s="60" t="s">
+      <c r="E95" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="F93" s="59"/>
-    </row>
-    <row r="94" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="73"/>
-      <c r="B94" s="58" t="s">
+      <c r="F95" s="59"/>
+    </row>
+    <row r="96" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A96" s="76"/>
+      <c r="B96" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="59" t="s">
+      <c r="C96" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D94" s="59" t="s">
+      <c r="D96" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="E94" s="60"/>
-      <c r="F94" s="59"/>
-    </row>
-    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="73"/>
-      <c r="B95" s="58" t="s">
+      <c r="E96" s="60"/>
+      <c r="F96" s="59"/>
+    </row>
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="76"/>
+      <c r="B97" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C97" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="D95" s="58" t="s">
+      <c r="D97" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E95" s="60" t="s">
+      <c r="E97" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="F95" s="59"/>
-    </row>
-    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="73"/>
-      <c r="B96" s="58" t="s">
+      <c r="F97" s="59"/>
+    </row>
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="76"/>
+      <c r="B98" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="C96" s="59" t="s">
+      <c r="C98" s="59" t="s">
         <v>447</v>
       </c>
-      <c r="D96" s="58" t="s">
+      <c r="D98" s="58" t="s">
         <v>445</v>
       </c>
-      <c r="E96" s="60"/>
-      <c r="F96" s="58" t="s">
+      <c r="E98" s="60"/>
+      <c r="F98" s="58" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="73"/>
-      <c r="B97" s="58" t="s">
+    <row r="99" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A99" s="76"/>
+      <c r="B99" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="C97" s="59" t="s">
+      <c r="C99" s="59" t="s">
         <v>365</v>
       </c>
-      <c r="D97" s="59" t="s">
+      <c r="D99" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="E97" s="60" t="s">
+      <c r="E99" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="F97" s="59"/>
-    </row>
-    <row r="98" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="73"/>
-      <c r="B98" s="58" t="s">
+      <c r="F99" s="59"/>
+    </row>
+    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="76"/>
+      <c r="B100" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="C98" s="59" t="s">
+      <c r="C100" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="D98" s="59" t="s">
+      <c r="D100" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="E98" s="60" t="s">
+      <c r="E100" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="F98" s="59"/>
-    </row>
-    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="73"/>
-      <c r="B99" s="58" t="s">
+      <c r="F100" s="59"/>
+    </row>
+    <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="76"/>
+      <c r="B101" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="C99" s="59" t="s">
+      <c r="C101" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="D99" s="58" t="s">
+      <c r="D101" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E99" s="60"/>
-      <c r="F99" s="59"/>
-    </row>
-    <row r="100" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="73"/>
-      <c r="B100" s="58" t="s">
+      <c r="E101" s="60"/>
+      <c r="F101" s="59"/>
+    </row>
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="76"/>
+      <c r="B102" s="58" t="s">
         <v>450</v>
       </c>
-      <c r="C100" s="59" t="s">
+      <c r="C102" s="59" t="s">
         <v>451</v>
       </c>
-      <c r="D100" s="58" t="s">
+      <c r="D102" s="58" t="s">
         <v>547</v>
       </c>
-      <c r="E100" s="60"/>
-      <c r="F100" s="59" t="s">
+      <c r="E102" s="60"/>
+      <c r="F102" s="59" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="73"/>
-      <c r="B101" s="58" t="s">
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="76"/>
+      <c r="B103" s="58" t="s">
         <v>495</v>
       </c>
-      <c r="C101" s="59" t="s">
+      <c r="C103" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="D101" s="59" t="s">
+      <c r="D103" s="59" t="s">
         <v>548</v>
       </c>
-      <c r="E101" s="60"/>
-      <c r="F101" s="59" t="s">
+      <c r="E103" s="60"/>
+      <c r="F103" s="59" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="73"/>
-      <c r="B102" s="58" t="s">
+    <row r="104" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A104" s="76"/>
+      <c r="B104" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="C102" s="59" t="s">
+      <c r="C104" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="D102" s="59" t="s">
+      <c r="D104" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="E102" s="60" t="s">
+      <c r="E104" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="F102" s="59"/>
-    </row>
-    <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A103" s="73"/>
-      <c r="B103" s="58" t="s">
+      <c r="F104" s="59"/>
+    </row>
+    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="76"/>
+      <c r="B105" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="C103" s="59" t="s">
+      <c r="C105" s="59" t="s">
         <v>369</v>
-      </c>
-      <c r="D103" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E103" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="F103" s="59"/>
-    </row>
-    <row r="104" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="73"/>
-      <c r="B104" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="C104" s="59" t="s">
-        <v>370</v>
-      </c>
-      <c r="D104" s="59" t="s">
-        <v>353</v>
-      </c>
-      <c r="E104" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="F104" s="59"/>
-    </row>
-    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="73"/>
-      <c r="B105" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="C105" s="59" t="s">
-        <v>371</v>
       </c>
       <c r="D105" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E105" s="60"/>
+      <c r="E105" s="60" t="s">
+        <v>207</v>
+      </c>
       <c r="F105" s="59"/>
     </row>
-    <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="73"/>
+    <row r="106" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A106" s="76"/>
       <c r="B106" s="58" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C106" s="59" t="s">
-        <v>372</v>
-      </c>
-      <c r="D106" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E106" s="60"/>
-      <c r="F106" s="59" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="73"/>
+        <v>370</v>
+      </c>
+      <c r="D106" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="E106" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" s="59"/>
+    </row>
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="76"/>
       <c r="B107" s="58" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C107" s="59" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D107" s="58" t="s">
         <v>39</v>
@@ -7011,27 +7031,29 @@
       <c r="E107" s="60"/>
       <c r="F107" s="59"/>
     </row>
-    <row r="108" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="73"/>
+    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="76"/>
       <c r="B108" s="58" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C108" s="59" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D108" s="58" t="s">
         <v>39</v>
       </c>
       <c r="E108" s="60"/>
-      <c r="F108" s="59"/>
-    </row>
-    <row r="109" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="73"/>
+      <c r="F108" s="59" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="76"/>
       <c r="B109" s="58" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C109" s="59" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D109" s="58" t="s">
         <v>39</v>
@@ -7039,29 +7061,27 @@
       <c r="E109" s="60"/>
       <c r="F109" s="59"/>
     </row>
-    <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="73"/>
+    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="76"/>
       <c r="B110" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="C110" s="58" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="C110" s="59" t="s">
+        <v>375</v>
       </c>
       <c r="D110" s="58" t="s">
         <v>39</v>
       </c>
       <c r="E110" s="60"/>
-      <c r="F110" s="59" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="73"/>
+      <c r="F110" s="59"/>
+    </row>
+    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="76"/>
       <c r="B111" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="C111" s="58" t="s">
-        <v>223</v>
+        <v>218</v>
+      </c>
+      <c r="C111" s="59" t="s">
+        <v>376</v>
       </c>
       <c r="D111" s="58" t="s">
         <v>39</v>
@@ -7069,27 +7089,29 @@
       <c r="E111" s="60"/>
       <c r="F111" s="59"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="73"/>
+    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="76"/>
       <c r="B112" s="58" t="s">
-        <v>458</v>
+        <v>220</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>464</v>
+        <v>221</v>
       </c>
       <c r="D112" s="58" t="s">
         <v>39</v>
       </c>
       <c r="E112" s="60"/>
-      <c r="F112" s="59"/>
-    </row>
-    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="73"/>
+      <c r="F112" s="59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="76"/>
       <c r="B113" s="58" t="s">
-        <v>469</v>
-      </c>
-      <c r="C113" s="59" t="s">
-        <v>422</v>
+        <v>222</v>
+      </c>
+      <c r="C113" s="58" t="s">
+        <v>223</v>
       </c>
       <c r="D113" s="58" t="s">
         <v>39</v>
@@ -7097,13 +7119,13 @@
       <c r="E113" s="60"/>
       <c r="F113" s="59"/>
     </row>
-    <row r="114" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="73"/>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="76"/>
       <c r="B114" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C114" s="59" t="s">
-        <v>423</v>
+        <v>458</v>
+      </c>
+      <c r="C114" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="D114" s="58" t="s">
         <v>39</v>
@@ -7111,13 +7133,13 @@
       <c r="E114" s="60"/>
       <c r="F114" s="59"/>
     </row>
-    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="73"/>
+    <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="76"/>
       <c r="B115" s="58" t="s">
-        <v>230</v>
+        <v>469</v>
       </c>
       <c r="C115" s="59" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D115" s="58" t="s">
         <v>39</v>
@@ -7125,309 +7147,309 @@
       <c r="E115" s="60"/>
       <c r="F115" s="59"/>
     </row>
-    <row r="116" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="73"/>
+    <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="76"/>
       <c r="B116" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C116" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="D116" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" s="60"/>
+      <c r="F116" s="59"/>
+    </row>
+    <row r="117" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="76"/>
+      <c r="B117" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C117" s="59" t="s">
+        <v>424</v>
+      </c>
+      <c r="D117" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E117" s="60"/>
+      <c r="F117" s="59"/>
+    </row>
+    <row r="118" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A118" s="76"/>
+      <c r="B118" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="C116" s="58" t="s">
+      <c r="C118" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="D116" s="59" t="s">
+      <c r="D118" s="59" t="s">
         <v>378</v>
       </c>
-      <c r="E116" s="60" t="s">
+      <c r="E118" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="F116" s="59" t="s">
+      <c r="F118" s="59" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="73"/>
-      <c r="B117" s="58" t="s">
+    <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="76"/>
+      <c r="B119" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="C117" s="59" t="s">
+      <c r="C119" s="59" t="s">
         <v>508</v>
       </c>
-      <c r="D117" s="59" t="s">
+      <c r="D119" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E117" s="60"/>
-      <c r="F117" s="59" t="s">
+      <c r="E119" s="60"/>
+      <c r="F119" s="59" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="73"/>
-      <c r="B118" s="58" t="s">
+    <row r="120" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="76"/>
+      <c r="B120" s="58" t="s">
         <v>507</v>
       </c>
-      <c r="C118" s="59" t="s">
+      <c r="C120" s="59" t="s">
         <v>509</v>
       </c>
-      <c r="D118" s="59" t="s">
+      <c r="D120" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E118" s="60"/>
-      <c r="F118" s="59" t="s">
+      <c r="E120" s="60"/>
+      <c r="F120" s="59" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="73"/>
-      <c r="B119" s="58" t="s">
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="76"/>
+      <c r="B121" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="C119" s="59" t="s">
+      <c r="C121" s="59" t="s">
         <v>380</v>
       </c>
-      <c r="D119" s="59" t="s">
+      <c r="D121" s="59" t="s">
         <v>336</v>
-      </c>
-      <c r="E119" s="60"/>
-      <c r="F119" s="59"/>
-    </row>
-    <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="73"/>
-      <c r="B120" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="C120" s="59" t="s">
-        <v>381</v>
-      </c>
-      <c r="D120" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E120" s="60"/>
-      <c r="F120" s="59"/>
-    </row>
-    <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="73"/>
-      <c r="B121" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="C121" s="59" t="s">
-        <v>382</v>
-      </c>
-      <c r="D121" s="58" t="s">
-        <v>39</v>
       </c>
       <c r="E121" s="60"/>
       <c r="F121" s="59"/>
     </row>
-    <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A122" s="73"/>
+    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="76"/>
       <c r="B122" s="58" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C122" s="59" t="s">
-        <v>383</v>
-      </c>
-      <c r="D122" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="E122" s="60" t="s">
-        <v>240</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="D122" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" s="60"/>
       <c r="F122" s="59"/>
     </row>
-    <row r="123" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="73"/>
+    <row r="123" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A123" s="76"/>
       <c r="B123" s="58" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C123" s="59" t="s">
-        <v>384</v>
-      </c>
-      <c r="D123" s="59" t="s">
-        <v>342</v>
+        <v>382</v>
+      </c>
+      <c r="D123" s="58" t="s">
+        <v>39</v>
       </c>
       <c r="E123" s="60"/>
       <c r="F123" s="59"/>
     </row>
-    <row r="124" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="73"/>
+    <row r="124" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="76"/>
       <c r="B124" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="C124" s="59" t="s">
+        <v>383</v>
+      </c>
+      <c r="D124" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="E124" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" s="59"/>
+    </row>
+    <row r="125" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A125" s="76"/>
+      <c r="B125" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C125" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="D125" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="E125" s="60"/>
+      <c r="F125" s="59"/>
+    </row>
+    <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="76"/>
+      <c r="B126" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="C124" s="59" t="s">
+      <c r="C126" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="D124" s="58" t="s">
+      <c r="D126" s="58" t="s">
         <v>86</v>
-      </c>
-      <c r="E124" s="60"/>
-      <c r="F124" s="59"/>
-    </row>
-    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="73"/>
-      <c r="B125" s="58" t="s">
-        <v>448</v>
-      </c>
-      <c r="C125" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="D125" s="58" t="s">
-        <v>445</v>
-      </c>
-      <c r="E125" s="60"/>
-      <c r="F125" s="58" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A126" s="73"/>
-      <c r="B126" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="C126" s="59" t="s">
-        <v>386</v>
-      </c>
-      <c r="D126" s="59" t="s">
-        <v>345</v>
       </c>
       <c r="E126" s="60"/>
       <c r="F126" s="59"/>
     </row>
-    <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="73"/>
+    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="76"/>
       <c r="B127" s="58" t="s">
-        <v>248</v>
+        <v>448</v>
       </c>
       <c r="C127" s="59" t="s">
-        <v>387</v>
-      </c>
-      <c r="D127" s="59" t="s">
-        <v>347</v>
+        <v>449</v>
+      </c>
+      <c r="D127" s="58" t="s">
+        <v>445</v>
       </c>
       <c r="E127" s="60"/>
-      <c r="F127" s="59"/>
-    </row>
-    <row r="128" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A128" s="73"/>
+      <c r="F127" s="58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A128" s="76"/>
       <c r="B128" s="58" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C128" s="59" t="s">
-        <v>388</v>
-      </c>
-      <c r="D128" s="58" t="s">
-        <v>86</v>
+        <v>386</v>
+      </c>
+      <c r="D128" s="59" t="s">
+        <v>345</v>
       </c>
       <c r="E128" s="60"/>
       <c r="F128" s="59"/>
     </row>
-    <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="73"/>
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="76"/>
       <c r="B129" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="D129" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="E129" s="60"/>
+      <c r="F129" s="59"/>
+    </row>
+    <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="76"/>
+      <c r="B130" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C130" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="D130" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E130" s="60"/>
+      <c r="F130" s="59"/>
+    </row>
+    <row r="131" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="76"/>
+      <c r="B131" s="58" t="s">
         <v>452</v>
       </c>
-      <c r="C129" s="59" t="s">
+      <c r="C131" s="59" t="s">
         <v>453</v>
       </c>
-      <c r="D129" s="58" t="s">
+      <c r="D131" s="58" t="s">
         <v>547</v>
       </c>
-      <c r="E129" s="60"/>
-      <c r="F129" s="59" t="s">
+      <c r="E131" s="60"/>
+      <c r="F131" s="59" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="73"/>
-      <c r="B130" s="58" t="s">
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="76"/>
+      <c r="B132" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C130" s="59" t="s">
+      <c r="C132" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="D130" s="59" t="s">
+      <c r="D132" s="59" t="s">
         <v>548</v>
       </c>
-      <c r="E130" s="60"/>
-      <c r="F130" s="59" t="s">
+      <c r="E132" s="60"/>
+      <c r="F132" s="59" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="73"/>
-      <c r="B131" s="58" t="s">
+    <row r="133" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A133" s="76"/>
+      <c r="B133" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="C131" s="59" t="s">
+      <c r="C133" s="59" t="s">
         <v>389</v>
       </c>
-      <c r="D131" s="59" t="s">
+      <c r="D133" s="59" t="s">
         <v>350</v>
-      </c>
-      <c r="E131" s="60"/>
-      <c r="F131" s="59"/>
-    </row>
-    <row r="132" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A132" s="73"/>
-      <c r="B132" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="C132" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="D132" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E132" s="60"/>
-      <c r="F132" s="59"/>
-    </row>
-    <row r="133" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="73"/>
-      <c r="B133" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="C133" s="59" t="s">
-        <v>391</v>
-      </c>
-      <c r="D133" s="59" t="s">
-        <v>353</v>
       </c>
       <c r="E133" s="60"/>
       <c r="F133" s="59"/>
     </row>
-    <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="73"/>
+    <row r="134" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="76"/>
       <c r="B134" s="58" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C134" s="59" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D134" s="58" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="E134" s="60"/>
       <c r="F134" s="59"/>
     </row>
-    <row r="135" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A135" s="73"/>
+    <row r="135" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A135" s="76"/>
       <c r="B135" s="58" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C135" s="59" t="s">
-        <v>393</v>
-      </c>
-      <c r="D135" s="58" t="s">
-        <v>261</v>
+        <v>391</v>
+      </c>
+      <c r="D135" s="59" t="s">
+        <v>353</v>
       </c>
       <c r="E135" s="60"/>
       <c r="F135" s="59"/>
     </row>
-    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="73"/>
+    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="76"/>
       <c r="B136" s="58" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C136" s="59" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D136" s="58" t="s">
         <v>261</v>
@@ -7435,41 +7457,41 @@
       <c r="E136" s="60"/>
       <c r="F136" s="59"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="73"/>
+    <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="76"/>
       <c r="B137" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="C137" s="58" t="s">
-        <v>267</v>
+        <v>262</v>
+      </c>
+      <c r="C137" s="59" t="s">
+        <v>393</v>
       </c>
       <c r="D137" s="58" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="E137" s="60"/>
       <c r="F137" s="59"/>
     </row>
-    <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="73"/>
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="76"/>
       <c r="B138" s="58" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C138" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D138" s="58" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="E138" s="60"/>
       <c r="F138" s="59"/>
     </row>
-    <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="73"/>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="76"/>
       <c r="B139" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C139" s="59" t="s">
-        <v>396</v>
+        <v>266</v>
+      </c>
+      <c r="C139" s="58" t="s">
+        <v>267</v>
       </c>
       <c r="D139" s="58" t="s">
         <v>108</v>
@@ -7477,13 +7499,13 @@
       <c r="E139" s="60"/>
       <c r="F139" s="59"/>
     </row>
-    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="73"/>
+    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="76"/>
       <c r="B140" s="58" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C140" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D140" s="58" t="s">
         <v>108</v>
@@ -7491,285 +7513,285 @@
       <c r="E140" s="60"/>
       <c r="F140" s="59"/>
     </row>
-    <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="73"/>
+    <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="76"/>
       <c r="B141" s="58" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C141" s="59" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D141" s="58" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="E141" s="60"/>
       <c r="F141" s="59"/>
     </row>
-    <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="73"/>
+    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="76"/>
       <c r="B142" s="58" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C142" s="59" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D142" s="58" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="E142" s="60"/>
       <c r="F142" s="59"/>
     </row>
-    <row r="143" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="73"/>
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="76"/>
       <c r="B143" s="58" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C143" s="59" t="s">
-        <v>400</v>
-      </c>
-      <c r="D143" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="E143" s="60" t="s">
-        <v>278</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="D143" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E143" s="60"/>
       <c r="F143" s="59"/>
     </row>
-    <row r="144" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A144" s="73"/>
+    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="76"/>
       <c r="B144" s="58" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C144" s="59" t="s">
-        <v>401</v>
-      </c>
-      <c r="D144" s="59" t="s">
-        <v>342</v>
+        <v>399</v>
+      </c>
+      <c r="D144" s="58" t="s">
+        <v>39</v>
       </c>
       <c r="E144" s="60"/>
       <c r="F144" s="59"/>
     </row>
-    <row r="145" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A145" s="73"/>
+    <row r="145" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145" s="76"/>
       <c r="B145" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="C145" s="59" t="s">
+        <v>400</v>
+      </c>
+      <c r="D145" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="E145" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="F145" s="59"/>
+    </row>
+    <row r="146" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A146" s="76"/>
+      <c r="B146" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="C146" s="59" t="s">
+        <v>401</v>
+      </c>
+      <c r="D146" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="E146" s="60"/>
+      <c r="F146" s="59"/>
+    </row>
+    <row r="147" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A147" s="76"/>
+      <c r="B147" s="58" t="s">
         <v>470</v>
       </c>
-      <c r="C145" s="59" t="s">
+      <c r="C147" s="59" t="s">
         <v>402</v>
       </c>
-      <c r="D145" s="58" t="s">
+      <c r="D147" s="58" t="s">
         <v>86</v>
-      </c>
-      <c r="E145" s="60"/>
-      <c r="F145" s="59"/>
-    </row>
-    <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="73"/>
-      <c r="B146" s="58" t="s">
-        <v>454</v>
-      </c>
-      <c r="C146" s="59" t="s">
-        <v>455</v>
-      </c>
-      <c r="D146" s="58" t="s">
-        <v>445</v>
-      </c>
-      <c r="E146" s="60"/>
-      <c r="F146" s="58" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A147" s="73"/>
-      <c r="B147" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="C147" s="59" t="s">
-        <v>403</v>
-      </c>
-      <c r="D147" s="59" t="s">
-        <v>345</v>
       </c>
       <c r="E147" s="60"/>
       <c r="F147" s="59"/>
     </row>
-    <row r="148" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A148" s="73"/>
+    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="76"/>
       <c r="B148" s="58" t="s">
-        <v>287</v>
+        <v>454</v>
       </c>
       <c r="C148" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="D148" s="59" t="s">
-        <v>347</v>
+        <v>455</v>
+      </c>
+      <c r="D148" s="58" t="s">
+        <v>445</v>
       </c>
       <c r="E148" s="60"/>
-      <c r="F148" s="59"/>
-    </row>
-    <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="73"/>
+      <c r="F148" s="58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A149" s="76"/>
       <c r="B149" s="58" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C149" s="59" t="s">
-        <v>290</v>
-      </c>
-      <c r="D149" s="58" t="s">
-        <v>86</v>
+        <v>403</v>
+      </c>
+      <c r="D149" s="59" t="s">
+        <v>345</v>
       </c>
       <c r="E149" s="60"/>
       <c r="F149" s="59"/>
     </row>
-    <row r="150" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A150" s="73"/>
+    <row r="150" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150" s="76"/>
       <c r="B150" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="C150" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="D150" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="E150" s="60"/>
+      <c r="F150" s="59"/>
+    </row>
+    <row r="151" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="76"/>
+      <c r="B151" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="C151" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="D151" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E151" s="60"/>
+      <c r="F151" s="59"/>
+    </row>
+    <row r="152" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="76"/>
+      <c r="B152" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="C150" s="59" t="s">
+      <c r="C152" s="59" t="s">
         <v>457</v>
       </c>
-      <c r="D150" s="58" t="s">
+      <c r="D152" s="58" t="s">
         <v>547</v>
       </c>
-      <c r="E150" s="60"/>
-      <c r="F150" s="59" t="s">
+      <c r="E152" s="60"/>
+      <c r="F152" s="59" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="73"/>
-      <c r="B151" s="58" t="s">
+    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="76"/>
+      <c r="B153" s="58" t="s">
         <v>497</v>
       </c>
-      <c r="C151" s="59" t="s">
+      <c r="C153" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="D151" s="59" t="s">
+      <c r="D153" s="59" t="s">
         <v>548</v>
       </c>
-      <c r="E151" s="60"/>
-      <c r="F151" s="59" t="s">
+      <c r="E153" s="60"/>
+      <c r="F153" s="59" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="73"/>
-      <c r="B152" s="58" t="s">
+    <row r="154" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A154" s="76"/>
+      <c r="B154" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="C152" s="59" t="s">
+      <c r="C154" s="59" t="s">
         <v>405</v>
       </c>
-      <c r="D152" s="59" t="s">
+      <c r="D154" s="59" t="s">
         <v>350</v>
-      </c>
-      <c r="E152" s="60"/>
-      <c r="F152" s="59"/>
-    </row>
-    <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A153" s="73"/>
-      <c r="B153" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="C153" s="59" t="s">
-        <v>406</v>
-      </c>
-      <c r="D153" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E153" s="60"/>
-      <c r="F153" s="59"/>
-    </row>
-    <row r="154" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="73"/>
-      <c r="B154" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C154" s="59" t="s">
-        <v>407</v>
-      </c>
-      <c r="D154" s="59" t="s">
-        <v>353</v>
       </c>
       <c r="E154" s="60"/>
       <c r="F154" s="59"/>
     </row>
-    <row r="155" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A155" s="73"/>
+    <row r="155" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A155" s="76"/>
       <c r="B155" s="58" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C155" s="59" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D155" s="58" t="s">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="E155" s="60"/>
       <c r="F155" s="59"/>
     </row>
-    <row r="156" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A156" s="73"/>
+    <row r="156" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A156" s="76"/>
       <c r="B156" s="58" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C156" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="D156" s="58" t="s">
-        <v>261</v>
+        <v>407</v>
+      </c>
+      <c r="D156" s="59" t="s">
+        <v>353</v>
       </c>
       <c r="E156" s="60"/>
       <c r="F156" s="59"/>
     </row>
-    <row r="157" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A157" s="73"/>
+    <row r="157" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A157" s="76"/>
       <c r="B157" s="58" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C157" s="59" t="s">
-        <v>410</v>
-      </c>
-      <c r="D157" s="58"/>
+        <v>408</v>
+      </c>
+      <c r="D157" s="58" t="s">
+        <v>300</v>
+      </c>
       <c r="E157" s="60"/>
       <c r="F157" s="59"/>
     </row>
-    <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A158" s="73"/>
+    <row r="158" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A158" s="76"/>
       <c r="B158" s="58" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C158" s="59" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D158" s="58" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="E158" s="60"/>
       <c r="F158" s="59"/>
     </row>
-    <row r="159" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A159" s="73"/>
+    <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="76"/>
       <c r="B159" s="58" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C159" s="59" t="s">
-        <v>412</v>
-      </c>
-      <c r="D159" s="58" t="s">
-        <v>39</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="D159" s="58"/>
       <c r="E159" s="60"/>
       <c r="F159" s="59"/>
     </row>
-    <row r="160" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A160" s="73"/>
+    <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="76"/>
       <c r="B160" s="58" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C160" s="59" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D160" s="58" t="s">
         <v>39</v>
@@ -7777,13 +7799,13 @@
       <c r="E160" s="60"/>
       <c r="F160" s="59"/>
     </row>
-    <row r="161" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A161" s="73"/>
+    <row r="161" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" s="76"/>
       <c r="B161" s="58" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C161" s="59" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D161" s="58" t="s">
         <v>39</v>
@@ -7791,13 +7813,13 @@
       <c r="E161" s="60"/>
       <c r="F161" s="59"/>
     </row>
-    <row r="162" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A162" s="73"/>
+    <row r="162" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A162" s="76"/>
       <c r="B162" s="58" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="C162" s="59" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D162" s="58" t="s">
         <v>39</v>
@@ -7805,13 +7827,13 @@
       <c r="E162" s="60"/>
       <c r="F162" s="59"/>
     </row>
-    <row r="163" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A163" s="73"/>
+    <row r="163" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="76"/>
       <c r="B163" s="58" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C163" s="59" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D163" s="58" t="s">
         <v>39</v>
@@ -7819,13 +7841,13 @@
       <c r="E163" s="60"/>
       <c r="F163" s="59"/>
     </row>
-    <row r="164" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A164" s="73"/>
+    <row r="164" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="76"/>
       <c r="B164" s="58" t="s">
-        <v>317</v>
+        <v>224</v>
       </c>
       <c r="C164" s="59" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D164" s="58" t="s">
         <v>39</v>
@@ -7833,13 +7855,13 @@
       <c r="E164" s="60"/>
       <c r="F164" s="59"/>
     </row>
-    <row r="165" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="73"/>
+    <row r="165" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A165" s="76"/>
       <c r="B165" s="58" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C165" s="59" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D165" s="58" t="s">
         <v>39</v>
@@ -7847,93 +7869,121 @@
       <c r="E165" s="60"/>
       <c r="F165" s="59"/>
     </row>
-    <row r="166" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A166" s="73"/>
+    <row r="166" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" s="76"/>
       <c r="B166" s="58" t="s">
-        <v>321</v>
-      </c>
-      <c r="C166" s="58" t="s">
-        <v>322</v>
+        <v>317</v>
+      </c>
+      <c r="C166" s="59" t="s">
+        <v>417</v>
       </c>
       <c r="D166" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E166" s="60" t="s">
+      <c r="E166" s="60"/>
+      <c r="F166" s="59"/>
+    </row>
+    <row r="167" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="76"/>
+      <c r="B167" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="C167" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="D167" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E167" s="60"/>
+      <c r="F167" s="59"/>
+    </row>
+    <row r="168" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A168" s="76"/>
+      <c r="B168" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="F166" s="59" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="73"/>
-      <c r="B167" s="58"/>
-      <c r="C167" s="58"/>
-      <c r="D167" s="58"/>
-      <c r="E167" s="60" t="s">
-        <v>323</v>
-      </c>
-      <c r="F167" s="59" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A168" s="73"/>
-      <c r="B168" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="C168" s="59" t="s">
-        <v>425</v>
+      <c r="C168" s="58" t="s">
+        <v>322</v>
       </c>
       <c r="D168" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E168" s="60"/>
-      <c r="F168" s="59"/>
-    </row>
-    <row r="169" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A169" s="73"/>
-      <c r="B169" s="58" t="s">
+      <c r="E168" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="F168" s="59" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="76"/>
+      <c r="B169" s="58"/>
+      <c r="C169" s="58"/>
+      <c r="D169" s="58"/>
+      <c r="E169" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="F169" s="59" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="76"/>
+      <c r="B170" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="C170" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="D170" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E170" s="60"/>
+      <c r="F170" s="59"/>
+    </row>
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="76"/>
+      <c r="B171" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="C169" s="59" t="s">
+      <c r="C171" s="59" t="s">
         <v>426</v>
       </c>
-      <c r="D169" s="58" t="s">
+      <c r="D171" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E169" s="60"/>
-      <c r="F169" s="59" t="s">
+      <c r="E171" s="60"/>
+      <c r="F171" s="59" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A170" s="73"/>
-      <c r="B170" s="61" t="s">
+    <row r="172" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A172" s="76"/>
+      <c r="B172" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="C170" s="62" t="s">
+      <c r="C172" s="62" t="s">
         <v>427</v>
       </c>
-      <c r="D170" s="61" t="s">
+      <c r="D172" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E170" s="63"/>
-      <c r="F170" s="62" t="s">
+      <c r="E172" s="63"/>
+      <c r="F172" s="62" t="s">
         <v>428</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F170" xr:uid="{EA55B166-B49F-4ECB-9A75-5F440FA2BF9F}"/>
+  <autoFilter ref="A1:F172" xr:uid="{EA55B166-B49F-4ECB-9A75-5F440FA2BF9F}"/>
   <mergeCells count="8">
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A65:A170"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="A29:A40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="A67:A172"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="A31:A42"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="A61:A66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7942,34 +7992,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
-    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
-    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Value>5</Value>
-      <Value>3</Value>
-    </TaxCatchAll>
-    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
-        </TermInfo>
-      </Terms>
-    </i008215bacac45029ee8cafff4c8e93b>
-    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
-    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F020023FF955149D2434D9634B069E3D44A42" ma:contentTypeVersion="49" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="765f642684fa63bc1b9312c368d0b6a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e953fe045711556fedbcbd575ad79d22" ns3:_="">
     <xsd:import namespace="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
@@ -8211,42 +8252,59 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>5</Value>
+      <Value>3</Value>
+    </TaxCatchAll>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8264,26 +8322,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Support/A - Guides and Documentation/GLD_Dictionary_v01.xlsx
+++ b/Support/A - Guides and Documentation/GLD_Dictionary_v01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup.sharepoint.com/sites/Files5011/Shared Documents/JOBS GROUP LIBRARY/JD Team folder/Global Labor Database/GLD Standard Operating Procedures/Data Dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{DCF76106-A1CE-4AA1-9E48-3D7E1B49DD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCC37A26-A759-4F2F-AAA7-6954E7C58246}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{DCF76106-A1CE-4AA1-9E48-3D7E1B49DD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3872127-51CF-47B5-B599-7B6BAF7F0CB6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Info and Example" sheetId="1" r:id="rId1"/>
@@ -1949,13 +1949,6 @@
     <t>Migrated from area</t>
   </si>
   <si>
-    <t>1 = From same admin3 area;
-2 = From same admin2 area;
-3 = From same admin1 area;
-4 = From different admin1 area;
-5 = From other country.</t>
-  </si>
-  <si>
     <t>Codes are for example: 
 2 Lower secondary education
    24 Lower secondary general
@@ -2141,6 +2134,15 @@
   </si>
   <si>
     <t>If present in the data and the survey reports calculate estimates per quarter, weight to national level for each quarter</t>
+  </si>
+  <si>
+    <t>1 = From same admin3 area;
+2 = From same admin2 area;
+3 = From same admin1 area;
+4 = From different admin1 area;
+5 = From other country; 
+6 = Within country, admin unknown;
+7 = Wholly unknown.</t>
   </si>
 </sst>
 </file>
@@ -2395,7 +2397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2542,13 +2544,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2577,9 +2579,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2621,9 +2620,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2884,9 +2880,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2924,7 +2920,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3030,7 +3026,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3172,7 +3168,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3236,7 +3232,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="69" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3256,7 +3252,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3272,7 +3268,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3286,16 +3282,16 @@
         <v>17</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
@@ -3309,14 +3305,14 @@
         <v>19</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3332,14 +3328,14 @@
       <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -3357,7 +3353,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
@@ -3371,16 +3367,16 @@
         <v>32</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="I8" s="71" t="s">
+      <c r="I8" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -3394,14 +3390,14 @@
         <v>36</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
@@ -3415,14 +3411,14 @@
         <v>40</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
     </row>
     <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="7" t="s">
         <v>41</v>
       </c>
@@ -3434,14 +3430,14 @@
       <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
@@ -3457,7 +3453,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
@@ -3493,7 +3489,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="68" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3511,7 +3507,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
@@ -3529,7 +3525,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="4" t="s">
         <v>60</v>
       </c>
@@ -3543,16 +3539,16 @@
       <c r="F17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="4" t="s">
         <v>64</v>
       </c>
@@ -3568,7 +3564,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="4" t="s">
         <v>67</v>
       </c>
@@ -3584,7 +3580,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="72" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -3602,16 +3598,16 @@
       <c r="F20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="74" t="s">
+      <c r="I20" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13" t="s">
         <v>49</v>
       </c>
@@ -3627,14 +3623,14 @@
       <c r="F21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="69" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3650,14 +3646,14 @@
         <v>73</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="70"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="1" t="s">
         <v>75</v>
       </c>
@@ -3671,14 +3667,14 @@
         <v>78</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="1" t="s">
         <v>79</v>
       </c>
@@ -3694,14 +3690,14 @@
       <c r="F24" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="1" t="s">
         <v>84</v>
       </c>
@@ -3717,7 +3713,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="1" t="s">
         <v>88</v>
       </c>
@@ -3733,7 +3729,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="1" t="s">
         <v>91</v>
       </c>
@@ -3744,12 +3740,12 @@
         <v>93</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="72" t="s">
+      <c r="F27" s="71" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
@@ -3760,10 +3756,10 @@
         <v>93</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="72"/>
+      <c r="F28" s="71"/>
     </row>
     <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="1" t="s">
         <v>97</v>
       </c>
@@ -3774,10 +3770,10 @@
         <v>93</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="72"/>
+      <c r="F29" s="71"/>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="1" t="s">
         <v>99</v>
       </c>
@@ -3788,10 +3784,10 @@
         <v>93</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="72"/>
+      <c r="F30" s="71"/>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="1" t="s">
         <v>101</v>
       </c>
@@ -3802,10 +3798,10 @@
         <v>93</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="72"/>
+      <c r="F31" s="71"/>
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="1" t="s">
         <v>103</v>
       </c>
@@ -3816,10 +3812,10 @@
         <v>93</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="72"/>
+      <c r="F32" s="71"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="68" t="s">
         <v>105</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3837,7 +3833,7 @@
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="4" t="s">
         <v>110</v>
       </c>
@@ -3853,7 +3849,7 @@
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="4" t="s">
         <v>112</v>
       </c>
@@ -3869,7 +3865,7 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="4" t="s">
         <v>115</v>
       </c>
@@ -3885,7 +3881,7 @@
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="4" t="s">
         <v>119</v>
       </c>
@@ -3901,7 +3897,7 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="4" t="s">
         <v>123</v>
       </c>
@@ -3917,7 +3913,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="69" t="s">
         <v>127</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3935,7 +3931,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="1" t="s">
         <v>131</v>
       </c>
@@ -3951,7 +3947,7 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="1" t="s">
         <v>134</v>
       </c>
@@ -3967,7 +3963,7 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
@@ -3983,7 +3979,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="1" t="s">
         <v>139</v>
       </c>
@@ -3999,7 +3995,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="1" t="s">
         <v>141</v>
       </c>
@@ -4015,7 +4011,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="1" t="s">
         <v>144</v>
       </c>
@@ -4033,7 +4029,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
+      <c r="A46" s="69"/>
       <c r="B46" s="1" t="s">
         <v>148</v>
       </c>
@@ -4049,7 +4045,7 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
+      <c r="A47" s="69"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -4057,7 +4053,7 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="70"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="1" t="s">
         <v>150</v>
       </c>
@@ -4073,7 +4069,7 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="1" t="s">
         <v>154</v>
       </c>
@@ -4089,7 +4085,7 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="1" t="s">
         <v>158</v>
       </c>
@@ -4105,7 +4101,7 @@
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -4113,7 +4109,7 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="1" t="s">
         <v>160</v>
       </c>
@@ -4129,7 +4125,7 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
+      <c r="A53" s="69"/>
       <c r="B53" s="1" t="s">
         <v>163</v>
       </c>
@@ -4145,7 +4141,7 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="70"/>
+      <c r="A54" s="69"/>
       <c r="B54" s="1" t="s">
         <v>166</v>
       </c>
@@ -4161,7 +4157,7 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="70"/>
+      <c r="A55" s="69"/>
       <c r="B55" s="1" t="s">
         <v>169</v>
       </c>
@@ -4177,7 +4173,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
+      <c r="A56" s="69"/>
       <c r="B56" s="1" t="s">
         <v>171</v>
       </c>
@@ -4191,7 +4187,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
+      <c r="A57" s="69"/>
       <c r="B57" s="1" t="s">
         <v>173</v>
       </c>
@@ -4205,7 +4201,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="70"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4221,7 +4217,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="70"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="1" t="s">
         <v>178</v>
       </c>
@@ -4237,7 +4233,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -4253,7 +4249,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
+      <c r="A61" s="69"/>
       <c r="B61" s="1" t="s">
         <v>182</v>
       </c>
@@ -4269,7 +4265,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="70"/>
+      <c r="A62" s="69"/>
       <c r="B62" s="1" t="s">
         <v>184</v>
       </c>
@@ -4285,7 +4281,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="70"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="1" t="s">
         <v>186</v>
       </c>
@@ -4301,7 +4297,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="70"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="1" t="s">
         <v>188</v>
       </c>
@@ -4317,7 +4313,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="70"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="1" t="s">
         <v>190</v>
       </c>
@@ -4331,7 +4327,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="1" t="s">
         <v>193</v>
       </c>
@@ -4347,7 +4343,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="70"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -4355,7 +4351,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="70"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="1" t="s">
         <v>195</v>
       </c>
@@ -4371,7 +4367,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="70"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="1" t="s">
         <v>198</v>
       </c>
@@ -4387,7 +4383,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="70"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="1" t="s">
         <v>201</v>
       </c>
@@ -4401,7 +4397,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="70"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -4409,7 +4405,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="70"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="1" t="s">
         <v>203</v>
       </c>
@@ -4425,7 +4421,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="70"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="1" t="s">
         <v>205</v>
       </c>
@@ -4441,7 +4437,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="70"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="1" t="s">
         <v>208</v>
       </c>
@@ -4457,7 +4453,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="70"/>
+      <c r="A75" s="69"/>
       <c r="B75" s="1" t="s">
         <v>210</v>
       </c>
@@ -4471,7 +4467,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="70"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="1" t="s">
         <v>212</v>
       </c>
@@ -4485,7 +4481,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="70"/>
+      <c r="A77" s="69"/>
       <c r="B77" s="1" t="s">
         <v>214</v>
       </c>
@@ -4499,7 +4495,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="70"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="1" t="s">
         <v>216</v>
       </c>
@@ -4513,7 +4509,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="70"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="1" t="s">
         <v>218</v>
       </c>
@@ -4527,7 +4523,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="70"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="1" t="s">
         <v>220</v>
       </c>
@@ -4541,7 +4537,7 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="70"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="1" t="s">
         <v>222</v>
       </c>
@@ -4555,7 +4551,7 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="70"/>
+      <c r="A82" s="69"/>
       <c r="B82" s="1" t="s">
         <v>224</v>
       </c>
@@ -4569,7 +4565,7 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="70"/>
+      <c r="A83" s="69"/>
       <c r="B83" s="1" t="s">
         <v>226</v>
       </c>
@@ -4583,7 +4579,7 @@
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="70"/>
+      <c r="A84" s="69"/>
       <c r="B84" s="1" t="s">
         <v>228</v>
       </c>
@@ -4597,7 +4593,7 @@
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="70"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="1" t="s">
         <v>230</v>
       </c>
@@ -4611,7 +4607,7 @@
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="70"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="1" t="s">
         <v>232</v>
       </c>
@@ -4627,7 +4623,7 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="70"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="1" t="s">
         <v>234</v>
       </c>
@@ -4641,7 +4637,7 @@
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="70"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="1" t="s">
         <v>236</v>
       </c>
@@ -4655,7 +4651,7 @@
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="70"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="1" t="s">
         <v>238</v>
       </c>
@@ -4669,7 +4665,7 @@
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="70"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="1" t="s">
         <v>240</v>
       </c>
@@ -4685,7 +4681,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="70"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="1" t="s">
         <v>242</v>
       </c>
@@ -4699,7 +4695,7 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="70"/>
+      <c r="A92" s="69"/>
       <c r="B92" s="1" t="s">
         <v>244</v>
       </c>
@@ -4713,7 +4709,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="70"/>
+      <c r="A93" s="69"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4721,7 +4717,7 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="70"/>
+      <c r="A94" s="69"/>
       <c r="B94" s="1" t="s">
         <v>246</v>
       </c>
@@ -4735,7 +4731,7 @@
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="70"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="1" t="s">
         <v>248</v>
       </c>
@@ -4749,7 +4745,7 @@
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="70"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="1" t="s">
         <v>250</v>
       </c>
@@ -4763,7 +4759,7 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="70"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4771,7 +4767,7 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="70"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="1" t="s">
         <v>252</v>
       </c>
@@ -4785,7 +4781,7 @@
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="70"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="1" t="s">
         <v>254</v>
       </c>
@@ -4799,7 +4795,7 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="70"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="1" t="s">
         <v>257</v>
       </c>
@@ -4813,7 +4809,7 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="70"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="1" t="s">
         <v>259</v>
       </c>
@@ -4827,7 +4823,7 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="70"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="1" t="s">
         <v>262</v>
       </c>
@@ -4841,7 +4837,7 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="70"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="1" t="s">
         <v>264</v>
       </c>
@@ -4855,7 +4851,7 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="70"/>
+      <c r="A104" s="69"/>
       <c r="B104" s="1" t="s">
         <v>266</v>
       </c>
@@ -4869,7 +4865,7 @@
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="70"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="1" t="s">
         <v>268</v>
       </c>
@@ -4883,7 +4879,7 @@
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="70"/>
+      <c r="A106" s="69"/>
       <c r="B106" s="1" t="s">
         <v>270</v>
       </c>
@@ -4897,7 +4893,7 @@
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="70"/>
+      <c r="A107" s="69"/>
       <c r="B107" s="1" t="s">
         <v>272</v>
       </c>
@@ -4911,7 +4907,7 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="70"/>
+      <c r="A108" s="69"/>
       <c r="B108" s="1" t="s">
         <v>274</v>
       </c>
@@ -4925,7 +4921,7 @@
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="70"/>
+      <c r="A109" s="69"/>
       <c r="B109" s="1" t="s">
         <v>276</v>
       </c>
@@ -4939,7 +4935,7 @@
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="70"/>
+      <c r="A110" s="69"/>
       <c r="B110" s="1" t="s">
         <v>278</v>
       </c>
@@ -4955,7 +4951,7 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="70"/>
+      <c r="A111" s="69"/>
       <c r="B111" s="1" t="s">
         <v>280</v>
       </c>
@@ -4969,7 +4965,7 @@
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="70"/>
+      <c r="A112" s="69"/>
       <c r="B112" s="1" t="s">
         <v>282</v>
       </c>
@@ -4983,7 +4979,7 @@
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="70"/>
+      <c r="A113" s="69"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4991,7 +4987,7 @@
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="70"/>
+      <c r="A114" s="69"/>
       <c r="B114" s="1" t="s">
         <v>284</v>
       </c>
@@ -5005,7 +5001,7 @@
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="70"/>
+      <c r="A115" s="69"/>
       <c r="B115" s="1" t="s">
         <v>287</v>
       </c>
@@ -5019,7 +5015,7 @@
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="70"/>
+      <c r="A116" s="69"/>
       <c r="B116" s="1" t="s">
         <v>289</v>
       </c>
@@ -5033,7 +5029,7 @@
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="70"/>
+      <c r="A117" s="69"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -5041,7 +5037,7 @@
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="70"/>
+      <c r="A118" s="69"/>
       <c r="B118" s="1" t="s">
         <v>291</v>
       </c>
@@ -5055,7 +5051,7 @@
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="70"/>
+      <c r="A119" s="69"/>
       <c r="B119" s="1" t="s">
         <v>293</v>
       </c>
@@ -5069,7 +5065,7 @@
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="70"/>
+      <c r="A120" s="69"/>
       <c r="B120" s="1" t="s">
         <v>296</v>
       </c>
@@ -5083,7 +5079,7 @@
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="70"/>
+      <c r="A121" s="69"/>
       <c r="B121" s="1" t="s">
         <v>298</v>
       </c>
@@ -5097,7 +5093,7 @@
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="70"/>
+      <c r="A122" s="69"/>
       <c r="B122" s="1" t="s">
         <v>301</v>
       </c>
@@ -5111,7 +5107,7 @@
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="70"/>
+      <c r="A123" s="69"/>
       <c r="B123" s="1" t="s">
         <v>303</v>
       </c>
@@ -5123,7 +5119,7 @@
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="70"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="1" t="s">
         <v>305</v>
       </c>
@@ -5137,7 +5133,7 @@
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="70"/>
+      <c r="A125" s="69"/>
       <c r="B125" s="1" t="s">
         <v>307</v>
       </c>
@@ -5151,7 +5147,7 @@
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="70"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="1" t="s">
         <v>309</v>
       </c>
@@ -5165,7 +5161,7 @@
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="70"/>
+      <c r="A127" s="69"/>
       <c r="B127" s="1" t="s">
         <v>311</v>
       </c>
@@ -5179,7 +5175,7 @@
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="70"/>
+      <c r="A128" s="69"/>
       <c r="B128" s="1" t="s">
         <v>313</v>
       </c>
@@ -5195,7 +5191,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="70"/>
+      <c r="A129" s="69"/>
       <c r="B129" s="1" t="s">
         <v>315</v>
       </c>
@@ -5209,7 +5205,7 @@
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="70"/>
+      <c r="A130" s="69"/>
       <c r="B130" s="1" t="s">
         <v>317</v>
       </c>
@@ -5223,7 +5219,7 @@
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="70"/>
+      <c r="A131" s="69"/>
       <c r="B131" s="1" t="s">
         <v>319</v>
       </c>
@@ -5237,7 +5233,7 @@
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="70"/>
+      <c r="A132" s="69"/>
       <c r="B132" s="1" t="s">
         <v>321</v>
       </c>
@@ -5253,7 +5249,7 @@
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="70"/>
+      <c r="A133" s="69"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -5263,7 +5259,7 @@
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="70"/>
+      <c r="A134" s="69"/>
       <c r="B134" s="1" t="s">
         <v>324</v>
       </c>
@@ -5277,7 +5273,7 @@
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="70"/>
+      <c r="A135" s="69"/>
       <c r="B135" s="1" t="s">
         <v>326</v>
       </c>
@@ -5291,7 +5287,7 @@
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="70"/>
+      <c r="A136" s="69"/>
       <c r="B136" s="1" t="s">
         <v>328</v>
       </c>
@@ -5329,8 +5325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655A41D-FAAE-4875-A0C4-A516EEA673B9}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5364,7 +5360,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -5382,7 +5378,7 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
@@ -5400,7 +5396,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
@@ -5416,7 +5412,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="18" t="s">
         <v>465</v>
       </c>
@@ -5432,49 +5428,49 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>539</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>540</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
@@ -5490,7 +5486,7 @@
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="18" t="s">
         <v>432</v>
       </c>
@@ -5504,7 +5500,7 @@
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="18" t="s">
         <v>433</v>
       </c>
@@ -5518,7 +5514,7 @@
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="18" t="s">
         <v>434</v>
       </c>
@@ -5526,13 +5522,13 @@
         <v>437</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="18" t="s">
         <v>22</v>
       </c>
@@ -5550,7 +5546,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
@@ -5568,7 +5564,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="18" t="s">
         <v>30</v>
       </c>
@@ -5584,7 +5580,7 @@
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="18" t="s">
         <v>34</v>
       </c>
@@ -5600,7 +5596,7 @@
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="18" t="s">
         <v>37</v>
       </c>
@@ -5616,69 +5612,69 @@
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="64" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="E20" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="75"/>
+      <c r="B21" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="64" t="s">
+      <c r="C21" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>555</v>
-      </c>
       <c r="D21" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="18" t="s">
         <v>430</v>
       </c>
@@ -5692,39 +5688,39 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66" t="s">
+      <c r="A23" s="64"/>
+      <c r="B23" s="65" t="s">
+        <v>559</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>561</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
+      <c r="B24" s="65" t="s">
         <v>560</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C24" s="65" t="s">
         <v>562</v>
       </c>
-      <c r="D23" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68" t="s">
+      <c r="D24" s="65" t="s">
+        <v>563</v>
+      </c>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66" t="s">
-        <v>561</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>563</v>
-      </c>
-      <c r="D24" s="66" t="s">
-        <v>564</v>
-      </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68" t="s">
-        <v>566</v>
-      </c>
-    </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="76" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="33" t="s">
@@ -5742,7 +5738,7 @@
       <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="37" t="s">
         <v>55</v>
       </c>
@@ -5760,7 +5756,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="37" t="s">
         <v>60</v>
       </c>
@@ -5776,7 +5772,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="37" t="s">
         <v>64</v>
       </c>
@@ -5792,7 +5788,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="45" t="s">
         <v>47</v>
       </c>
@@ -5808,7 +5804,7 @@
       <c r="F29" s="46"/>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="41" t="s">
         <v>67</v>
       </c>
@@ -5824,7 +5820,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="79" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="18" t="s">
@@ -5837,12 +5833,12 @@
         <v>39</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="18" t="s">
         <v>73</v>
       </c>
@@ -5858,7 +5854,7 @@
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="18" t="s">
         <v>75</v>
       </c>
@@ -5874,7 +5870,7 @@
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="18" t="s">
         <v>79</v>
       </c>
@@ -5892,7 +5888,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="18" t="s">
         <v>84</v>
       </c>
@@ -5908,7 +5904,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="18" t="s">
         <v>88</v>
       </c>
@@ -5924,7 +5920,7 @@
       <c r="F36" s="20"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="18" t="s">
         <v>91</v>
       </c>
@@ -5935,12 +5931,12 @@
         <v>93</v>
       </c>
       <c r="E37" s="19"/>
-      <c r="F37" s="78" t="s">
+      <c r="F37" s="77" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="18" t="s">
         <v>95</v>
       </c>
@@ -5951,10 +5947,10 @@
         <v>93</v>
       </c>
       <c r="E38" s="19"/>
-      <c r="F38" s="79"/>
+      <c r="F38" s="71"/>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="18" t="s">
         <v>97</v>
       </c>
@@ -5965,10 +5961,10 @@
         <v>93</v>
       </c>
       <c r="E39" s="19"/>
-      <c r="F39" s="79"/>
+      <c r="F39" s="71"/>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="18" t="s">
         <v>99</v>
       </c>
@@ -5979,10 +5975,10 @@
         <v>93</v>
       </c>
       <c r="E40" s="19"/>
-      <c r="F40" s="79"/>
+      <c r="F40" s="71"/>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="18" t="s">
         <v>101</v>
       </c>
@@ -5993,10 +5989,10 @@
         <v>93</v>
       </c>
       <c r="E41" s="19"/>
-      <c r="F41" s="79"/>
+      <c r="F41" s="71"/>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="18" t="s">
         <v>103</v>
       </c>
@@ -6007,10 +6003,10 @@
         <v>93</v>
       </c>
       <c r="E42" s="19"/>
-      <c r="F42" s="80"/>
+      <c r="F42" s="78"/>
     </row>
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="80" t="s">
         <v>482</v>
       </c>
       <c r="B43" s="33" t="s">
@@ -6026,7 +6022,7 @@
       <c r="F43" s="36"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="82"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="47" t="s">
         <v>487</v>
       </c>
@@ -6042,7 +6038,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="37" t="s">
         <v>486</v>
       </c>
@@ -6056,7 +6052,7 @@
       <c r="F45" s="40"/>
     </row>
     <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
+      <c r="A46" s="80"/>
       <c r="B46" s="37" t="s">
         <v>471</v>
       </c>
@@ -6072,7 +6068,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
+      <c r="A47" s="80"/>
       <c r="B47" s="37" t="s">
         <v>526</v>
       </c>
@@ -6087,8 +6083,8 @@
         <v>498</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
+    <row r="48" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" s="80"/>
       <c r="B48" s="37" t="s">
         <v>472</v>
       </c>
@@ -6096,13 +6092,13 @@
         <v>478</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="40"/>
     </row>
     <row r="49" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
+      <c r="A49" s="80"/>
       <c r="B49" s="37" t="s">
         <v>473</v>
       </c>
@@ -6110,13 +6106,13 @@
         <v>479</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E49" s="39"/>
       <c r="F49" s="40"/>
     </row>
     <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
+      <c r="A50" s="80"/>
       <c r="B50" s="45" t="s">
         <v>490</v>
       </c>
@@ -6124,13 +6120,13 @@
         <v>491</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E50" s="49"/>
       <c r="F50" s="50"/>
     </row>
     <row r="51" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="82"/>
+      <c r="A51" s="80"/>
       <c r="B51" s="41" t="s">
         <v>474</v>
       </c>
@@ -6144,7 +6140,7 @@
       <c r="F51" s="44"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="75" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -6162,7 +6158,7 @@
       <c r="F52" s="25"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="76"/>
+      <c r="A53" s="75"/>
       <c r="B53" s="23" t="s">
         <v>106</v>
       </c>
@@ -6178,7 +6174,7 @@
       <c r="F53" s="51"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="76"/>
+      <c r="A54" s="75"/>
       <c r="B54" s="26" t="s">
         <v>110</v>
       </c>
@@ -6194,7 +6190,7 @@
       <c r="F54" s="28"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="76"/>
+      <c r="A55" s="75"/>
       <c r="B55" s="26" t="s">
         <v>112</v>
       </c>
@@ -6210,7 +6206,7 @@
       <c r="F55" s="28"/>
     </row>
     <row r="56" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="76"/>
+      <c r="A56" s="75"/>
       <c r="B56" s="26" t="s">
         <v>115</v>
       </c>
@@ -6228,7 +6224,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A57" s="76"/>
+      <c r="A57" s="75"/>
       <c r="B57" s="26" t="s">
         <v>119</v>
       </c>
@@ -6244,7 +6240,7 @@
       <c r="F57" s="28"/>
     </row>
     <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="76"/>
+      <c r="A58" s="75"/>
       <c r="B58" s="29" t="s">
         <v>123</v>
       </c>
@@ -6252,31 +6248,31 @@
         <v>124</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E58" s="31" t="s">
         <v>126</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="76"/>
+      <c r="A59" s="75"/>
       <c r="B59" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>543</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>544</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="32"/>
       <c r="F59" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A60" s="76"/>
+      <c r="A60" s="75"/>
       <c r="B60" s="15" t="s">
         <v>459</v>
       </c>
@@ -6288,11 +6284,11 @@
       </c>
       <c r="E60" s="32"/>
       <c r="F60" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="77" t="s">
+      <c r="A61" s="76" t="s">
         <v>518</v>
       </c>
       <c r="B61" s="52" t="s">
@@ -6308,7 +6304,7 @@
       <c r="F61" s="53"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="77"/>
+      <c r="A62" s="76"/>
       <c r="B62" s="52" t="s">
         <v>513</v>
       </c>
@@ -6322,12 +6318,12 @@
       <c r="F62" s="53"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="77"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="52" t="s">
         <v>514</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D63" s="53" t="s">
         <v>114</v>
@@ -6336,12 +6332,12 @@
       <c r="F63" s="53"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="77"/>
+      <c r="A64" s="76"/>
       <c r="B64" s="52" t="s">
         <v>515</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D64" s="53" t="s">
         <v>114</v>
@@ -6350,7 +6346,7 @@
       <c r="F64" s="53"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
+      <c r="A65" s="76"/>
       <c r="B65" s="52" t="s">
         <v>516</v>
       </c>
@@ -6362,7 +6358,7 @@
       <c r="F65" s="53"/>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="77"/>
+      <c r="A66" s="76"/>
       <c r="B66" s="52" t="s">
         <v>517</v>
       </c>
@@ -6378,7 +6374,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="76" t="s">
+      <c r="A67" s="75" t="s">
         <v>127</v>
       </c>
       <c r="B67" s="55" t="s">
@@ -6396,7 +6392,7 @@
       <c r="F67" s="57"/>
     </row>
     <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="76"/>
+      <c r="A68" s="75"/>
       <c r="B68" s="58" t="s">
         <v>131</v>
       </c>
@@ -6414,7 +6410,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="76"/>
+      <c r="A69" s="75"/>
       <c r="B69" s="58" t="s">
         <v>502</v>
       </c>
@@ -6430,7 +6426,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="76"/>
+      <c r="A70" s="75"/>
       <c r="B70" s="58" t="s">
         <v>503</v>
       </c>
@@ -6446,7 +6442,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="76"/>
+      <c r="A71" s="75"/>
       <c r="B71" s="58" t="s">
         <v>134</v>
       </c>
@@ -6462,7 +6458,7 @@
       <c r="F71" s="59"/>
     </row>
     <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="76"/>
+      <c r="A72" s="75"/>
       <c r="B72" s="58" t="s">
         <v>137</v>
       </c>
@@ -6478,7 +6474,7 @@
       <c r="F72" s="59"/>
     </row>
     <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="76"/>
+      <c r="A73" s="75"/>
       <c r="B73" s="58" t="s">
         <v>139</v>
       </c>
@@ -6494,7 +6490,7 @@
       <c r="F73" s="59"/>
     </row>
     <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="76"/>
+      <c r="A74" s="75"/>
       <c r="B74" s="58" t="s">
         <v>141</v>
       </c>
@@ -6510,7 +6506,7 @@
       <c r="F74" s="59"/>
     </row>
     <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="76"/>
+      <c r="A75" s="75"/>
       <c r="B75" s="58" t="s">
         <v>144</v>
       </c>
@@ -6528,7 +6524,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="76"/>
+      <c r="A76" s="75"/>
       <c r="B76" s="58" t="s">
         <v>148</v>
       </c>
@@ -6544,7 +6540,7 @@
       <c r="F76" s="59"/>
     </row>
     <row r="77" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A77" s="76"/>
+      <c r="A77" s="75"/>
       <c r="B77" s="58" t="s">
         <v>442</v>
       </c>
@@ -6552,7 +6548,7 @@
         <v>444</v>
       </c>
       <c r="D77" s="58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E77" s="60"/>
       <c r="F77" s="59" t="s">
@@ -6560,7 +6556,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A78" s="76"/>
+      <c r="A78" s="75"/>
       <c r="B78" s="58" t="s">
         <v>150</v>
       </c>
@@ -6576,7 +6572,7 @@
       <c r="F78" s="59"/>
     </row>
     <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="76"/>
+      <c r="A79" s="75"/>
       <c r="B79" s="58" t="s">
         <v>154</v>
       </c>
@@ -6592,7 +6588,7 @@
       <c r="F79" s="59"/>
     </row>
     <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="76"/>
+      <c r="A80" s="75"/>
       <c r="B80" s="58" t="s">
         <v>158</v>
       </c>
@@ -6608,7 +6604,7 @@
       <c r="F80" s="59"/>
     </row>
     <row r="81" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A81" s="76"/>
+      <c r="A81" s="75"/>
       <c r="B81" s="58" t="s">
         <v>441</v>
       </c>
@@ -6616,15 +6612,15 @@
         <v>443</v>
       </c>
       <c r="D81" s="58" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E81" s="60"/>
       <c r="F81" s="59" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="76"/>
+      <c r="A82" s="75"/>
       <c r="B82" s="58" t="s">
         <v>492</v>
       </c>
@@ -6632,7 +6628,7 @@
         <v>493</v>
       </c>
       <c r="D82" s="59" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E82" s="60"/>
       <c r="F82" s="59" t="s">
@@ -6640,7 +6636,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A83" s="76"/>
+      <c r="A83" s="75"/>
       <c r="B83" s="58" t="s">
         <v>160</v>
       </c>
@@ -6656,7 +6652,7 @@
       <c r="F83" s="59"/>
     </row>
     <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="76"/>
+      <c r="A84" s="75"/>
       <c r="B84" s="58" t="s">
         <v>163</v>
       </c>
@@ -6672,7 +6668,7 @@
       <c r="F84" s="59"/>
     </row>
     <row r="85" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="76"/>
+      <c r="A85" s="75"/>
       <c r="B85" s="58" t="s">
         <v>166</v>
       </c>
@@ -6688,7 +6684,7 @@
       <c r="F85" s="59"/>
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="76"/>
+      <c r="A86" s="75"/>
       <c r="B86" s="58" t="s">
         <v>169</v>
       </c>
@@ -6704,7 +6700,7 @@
       <c r="F86" s="59"/>
     </row>
     <row r="87" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A87" s="76"/>
+      <c r="A87" s="75"/>
       <c r="B87" s="58" t="s">
         <v>171</v>
       </c>
@@ -6720,7 +6716,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="76"/>
+      <c r="A88" s="75"/>
       <c r="B88" s="58" t="s">
         <v>173</v>
       </c>
@@ -6734,7 +6730,7 @@
       <c r="F88" s="59"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="76"/>
+      <c r="A89" s="75"/>
       <c r="B89" s="58" t="s">
         <v>175</v>
       </c>
@@ -6750,7 +6746,7 @@
       <c r="F89" s="59"/>
     </row>
     <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="76"/>
+      <c r="A90" s="75"/>
       <c r="B90" s="58" t="s">
         <v>178</v>
       </c>
@@ -6766,7 +6762,7 @@
       <c r="F90" s="59"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="76"/>
+      <c r="A91" s="75"/>
       <c r="B91" s="58" t="s">
         <v>180</v>
       </c>
@@ -6782,7 +6778,7 @@
       <c r="F91" s="59"/>
     </row>
     <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="76"/>
+      <c r="A92" s="75"/>
       <c r="B92" s="58" t="s">
         <v>182</v>
       </c>
@@ -6798,7 +6794,7 @@
       <c r="F92" s="59"/>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="76"/>
+      <c r="A93" s="75"/>
       <c r="B93" s="58" t="s">
         <v>184</v>
       </c>
@@ -6814,7 +6810,7 @@
       <c r="F93" s="59"/>
     </row>
     <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="76"/>
+      <c r="A94" s="75"/>
       <c r="B94" s="58" t="s">
         <v>186</v>
       </c>
@@ -6830,7 +6826,7 @@
       <c r="F94" s="59"/>
     </row>
     <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="76"/>
+      <c r="A95" s="75"/>
       <c r="B95" s="58" t="s">
         <v>188</v>
       </c>
@@ -6846,7 +6842,7 @@
       <c r="F95" s="59"/>
     </row>
     <row r="96" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96" s="76"/>
+      <c r="A96" s="75"/>
       <c r="B96" s="58" t="s">
         <v>190</v>
       </c>
@@ -6860,7 +6856,7 @@
       <c r="F96" s="59"/>
     </row>
     <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="76"/>
+      <c r="A97" s="75"/>
       <c r="B97" s="58" t="s">
         <v>193</v>
       </c>
@@ -6876,7 +6872,7 @@
       <c r="F97" s="59"/>
     </row>
     <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="76"/>
+      <c r="A98" s="75"/>
       <c r="B98" s="58" t="s">
         <v>446</v>
       </c>
@@ -6892,7 +6888,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A99" s="76"/>
+      <c r="A99" s="75"/>
       <c r="B99" s="58" t="s">
         <v>195</v>
       </c>
@@ -6908,7 +6904,7 @@
       <c r="F99" s="59"/>
     </row>
     <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="76"/>
+      <c r="A100" s="75"/>
       <c r="B100" s="58" t="s">
         <v>198</v>
       </c>
@@ -6924,7 +6920,7 @@
       <c r="F100" s="59"/>
     </row>
     <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="76"/>
+      <c r="A101" s="75"/>
       <c r="B101" s="58" t="s">
         <v>201</v>
       </c>
@@ -6938,7 +6934,7 @@
       <c r="F101" s="59"/>
     </row>
     <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="76"/>
+      <c r="A102" s="75"/>
       <c r="B102" s="58" t="s">
         <v>450</v>
       </c>
@@ -6946,7 +6942,7 @@
         <v>451</v>
       </c>
       <c r="D102" s="58" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E102" s="60"/>
       <c r="F102" s="59" t="s">
@@ -6954,7 +6950,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="76"/>
+      <c r="A103" s="75"/>
       <c r="B103" s="58" t="s">
         <v>495</v>
       </c>
@@ -6962,7 +6958,7 @@
         <v>493</v>
       </c>
       <c r="D103" s="59" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E103" s="60"/>
       <c r="F103" s="59" t="s">
@@ -6970,7 +6966,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A104" s="76"/>
+      <c r="A104" s="75"/>
       <c r="B104" s="58" t="s">
         <v>203</v>
       </c>
@@ -6986,7 +6982,7 @@
       <c r="F104" s="59"/>
     </row>
     <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="76"/>
+      <c r="A105" s="75"/>
       <c r="B105" s="58" t="s">
         <v>205</v>
       </c>
@@ -7002,7 +6998,7 @@
       <c r="F105" s="59"/>
     </row>
     <row r="106" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A106" s="76"/>
+      <c r="A106" s="75"/>
       <c r="B106" s="58" t="s">
         <v>208</v>
       </c>
@@ -7018,7 +7014,7 @@
       <c r="F106" s="59"/>
     </row>
     <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="76"/>
+      <c r="A107" s="75"/>
       <c r="B107" s="58" t="s">
         <v>210</v>
       </c>
@@ -7032,7 +7028,7 @@
       <c r="F107" s="59"/>
     </row>
     <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="76"/>
+      <c r="A108" s="75"/>
       <c r="B108" s="58" t="s">
         <v>212</v>
       </c>
@@ -7048,7 +7044,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="76"/>
+      <c r="A109" s="75"/>
       <c r="B109" s="58" t="s">
         <v>214</v>
       </c>
@@ -7062,7 +7058,7 @@
       <c r="F109" s="59"/>
     </row>
     <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="76"/>
+      <c r="A110" s="75"/>
       <c r="B110" s="58" t="s">
         <v>216</v>
       </c>
@@ -7076,7 +7072,7 @@
       <c r="F110" s="59"/>
     </row>
     <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="76"/>
+      <c r="A111" s="75"/>
       <c r="B111" s="58" t="s">
         <v>218</v>
       </c>
@@ -7090,7 +7086,7 @@
       <c r="F111" s="59"/>
     </row>
     <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="76"/>
+      <c r="A112" s="75"/>
       <c r="B112" s="58" t="s">
         <v>220</v>
       </c>
@@ -7106,7 +7102,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="76"/>
+      <c r="A113" s="75"/>
       <c r="B113" s="58" t="s">
         <v>222</v>
       </c>
@@ -7120,7 +7116,7 @@
       <c r="F113" s="59"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="76"/>
+      <c r="A114" s="75"/>
       <c r="B114" s="58" t="s">
         <v>458</v>
       </c>
@@ -7134,7 +7130,7 @@
       <c r="F114" s="59"/>
     </row>
     <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="76"/>
+      <c r="A115" s="75"/>
       <c r="B115" s="58" t="s">
         <v>469</v>
       </c>
@@ -7148,7 +7144,7 @@
       <c r="F115" s="59"/>
     </row>
     <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="76"/>
+      <c r="A116" s="75"/>
       <c r="B116" s="58" t="s">
         <v>228</v>
       </c>
@@ -7162,7 +7158,7 @@
       <c r="F116" s="59"/>
     </row>
     <row r="117" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="76"/>
+      <c r="A117" s="75"/>
       <c r="B117" s="58" t="s">
         <v>230</v>
       </c>
@@ -7176,7 +7172,7 @@
       <c r="F117" s="59"/>
     </row>
     <row r="118" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A118" s="76"/>
+      <c r="A118" s="75"/>
       <c r="B118" s="58" t="s">
         <v>232</v>
       </c>
@@ -7194,7 +7190,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="76"/>
+      <c r="A119" s="75"/>
       <c r="B119" s="58" t="s">
         <v>506</v>
       </c>
@@ -7210,7 +7206,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A120" s="76"/>
+      <c r="A120" s="75"/>
       <c r="B120" s="58" t="s">
         <v>507</v>
       </c>
@@ -7226,7 +7222,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="76"/>
+      <c r="A121" s="75"/>
       <c r="B121" s="58" t="s">
         <v>234</v>
       </c>
@@ -7240,7 +7236,7 @@
       <c r="F121" s="59"/>
     </row>
     <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" s="76"/>
+      <c r="A122" s="75"/>
       <c r="B122" s="58" t="s">
         <v>236</v>
       </c>
@@ -7254,7 +7250,7 @@
       <c r="F122" s="59"/>
     </row>
     <row r="123" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A123" s="76"/>
+      <c r="A123" s="75"/>
       <c r="B123" s="58" t="s">
         <v>238</v>
       </c>
@@ -7268,7 +7264,7 @@
       <c r="F123" s="59"/>
     </row>
     <row r="124" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124" s="76"/>
+      <c r="A124" s="75"/>
       <c r="B124" s="58" t="s">
         <v>240</v>
       </c>
@@ -7284,7 +7280,7 @@
       <c r="F124" s="59"/>
     </row>
     <row r="125" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A125" s="76"/>
+      <c r="A125" s="75"/>
       <c r="B125" s="58" t="s">
         <v>242</v>
       </c>
@@ -7298,7 +7294,7 @@
       <c r="F125" s="59"/>
     </row>
     <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="76"/>
+      <c r="A126" s="75"/>
       <c r="B126" s="58" t="s">
         <v>244</v>
       </c>
@@ -7312,7 +7308,7 @@
       <c r="F126" s="59"/>
     </row>
     <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="76"/>
+      <c r="A127" s="75"/>
       <c r="B127" s="58" t="s">
         <v>448</v>
       </c>
@@ -7328,7 +7324,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A128" s="76"/>
+      <c r="A128" s="75"/>
       <c r="B128" s="58" t="s">
         <v>246</v>
       </c>
@@ -7342,7 +7338,7 @@
       <c r="F128" s="59"/>
     </row>
     <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="76"/>
+      <c r="A129" s="75"/>
       <c r="B129" s="58" t="s">
         <v>248</v>
       </c>
@@ -7356,7 +7352,7 @@
       <c r="F129" s="59"/>
     </row>
     <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="76"/>
+      <c r="A130" s="75"/>
       <c r="B130" s="58" t="s">
         <v>250</v>
       </c>
@@ -7370,7 +7366,7 @@
       <c r="F130" s="59"/>
     </row>
     <row r="131" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A131" s="76"/>
+      <c r="A131" s="75"/>
       <c r="B131" s="58" t="s">
         <v>452</v>
       </c>
@@ -7378,7 +7374,7 @@
         <v>453</v>
       </c>
       <c r="D131" s="58" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E131" s="60"/>
       <c r="F131" s="59" t="s">
@@ -7386,7 +7382,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="76"/>
+      <c r="A132" s="75"/>
       <c r="B132" s="58" t="s">
         <v>496</v>
       </c>
@@ -7394,7 +7390,7 @@
         <v>493</v>
       </c>
       <c r="D132" s="59" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E132" s="60"/>
       <c r="F132" s="59" t="s">
@@ -7402,7 +7398,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A133" s="76"/>
+      <c r="A133" s="75"/>
       <c r="B133" s="58" t="s">
         <v>252</v>
       </c>
@@ -7416,7 +7412,7 @@
       <c r="F133" s="59"/>
     </row>
     <row r="134" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A134" s="76"/>
+      <c r="A134" s="75"/>
       <c r="B134" s="58" t="s">
         <v>254</v>
       </c>
@@ -7430,7 +7426,7 @@
       <c r="F134" s="59"/>
     </row>
     <row r="135" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A135" s="76"/>
+      <c r="A135" s="75"/>
       <c r="B135" s="58" t="s">
         <v>257</v>
       </c>
@@ -7444,7 +7440,7 @@
       <c r="F135" s="59"/>
     </row>
     <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="76"/>
+      <c r="A136" s="75"/>
       <c r="B136" s="58" t="s">
         <v>259</v>
       </c>
@@ -7458,7 +7454,7 @@
       <c r="F136" s="59"/>
     </row>
     <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A137" s="76"/>
+      <c r="A137" s="75"/>
       <c r="B137" s="58" t="s">
         <v>262</v>
       </c>
@@ -7472,7 +7468,7 @@
       <c r="F137" s="59"/>
     </row>
     <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="76"/>
+      <c r="A138" s="75"/>
       <c r="B138" s="58" t="s">
         <v>264</v>
       </c>
@@ -7486,7 +7482,7 @@
       <c r="F138" s="59"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="76"/>
+      <c r="A139" s="75"/>
       <c r="B139" s="58" t="s">
         <v>266</v>
       </c>
@@ -7500,7 +7496,7 @@
       <c r="F139" s="59"/>
     </row>
     <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="76"/>
+      <c r="A140" s="75"/>
       <c r="B140" s="58" t="s">
         <v>268</v>
       </c>
@@ -7514,7 +7510,7 @@
       <c r="F140" s="59"/>
     </row>
     <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="76"/>
+      <c r="A141" s="75"/>
       <c r="B141" s="58" t="s">
         <v>270</v>
       </c>
@@ -7528,7 +7524,7 @@
       <c r="F141" s="59"/>
     </row>
     <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="76"/>
+      <c r="A142" s="75"/>
       <c r="B142" s="58" t="s">
         <v>272</v>
       </c>
@@ -7542,7 +7538,7 @@
       <c r="F142" s="59"/>
     </row>
     <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="76"/>
+      <c r="A143" s="75"/>
       <c r="B143" s="58" t="s">
         <v>274</v>
       </c>
@@ -7556,7 +7552,7 @@
       <c r="F143" s="59"/>
     </row>
     <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="76"/>
+      <c r="A144" s="75"/>
       <c r="B144" s="58" t="s">
         <v>276</v>
       </c>
@@ -7570,7 +7566,7 @@
       <c r="F144" s="59"/>
     </row>
     <row r="145" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="76"/>
+      <c r="A145" s="75"/>
       <c r="B145" s="58" t="s">
         <v>278</v>
       </c>
@@ -7586,7 +7582,7 @@
       <c r="F145" s="59"/>
     </row>
     <row r="146" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A146" s="76"/>
+      <c r="A146" s="75"/>
       <c r="B146" s="58" t="s">
         <v>280</v>
       </c>
@@ -7600,7 +7596,7 @@
       <c r="F146" s="59"/>
     </row>
     <row r="147" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="76"/>
+      <c r="A147" s="75"/>
       <c r="B147" s="58" t="s">
         <v>470</v>
       </c>
@@ -7614,7 +7610,7 @@
       <c r="F147" s="59"/>
     </row>
     <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="76"/>
+      <c r="A148" s="75"/>
       <c r="B148" s="58" t="s">
         <v>454</v>
       </c>
@@ -7630,7 +7626,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A149" s="76"/>
+      <c r="A149" s="75"/>
       <c r="B149" s="58" t="s">
         <v>284</v>
       </c>
@@ -7644,7 +7640,7 @@
       <c r="F149" s="59"/>
     </row>
     <row r="150" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A150" s="76"/>
+      <c r="A150" s="75"/>
       <c r="B150" s="58" t="s">
         <v>287</v>
       </c>
@@ -7658,7 +7654,7 @@
       <c r="F150" s="59"/>
     </row>
     <row r="151" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A151" s="76"/>
+      <c r="A151" s="75"/>
       <c r="B151" s="58" t="s">
         <v>289</v>
       </c>
@@ -7672,7 +7668,7 @@
       <c r="F151" s="59"/>
     </row>
     <row r="152" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="76"/>
+      <c r="A152" s="75"/>
       <c r="B152" s="58" t="s">
         <v>456</v>
       </c>
@@ -7680,7 +7676,7 @@
         <v>457</v>
       </c>
       <c r="D152" s="58" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E152" s="60"/>
       <c r="F152" s="59" t="s">
@@ -7688,7 +7684,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="76"/>
+      <c r="A153" s="75"/>
       <c r="B153" s="58" t="s">
         <v>497</v>
       </c>
@@ -7696,7 +7692,7 @@
         <v>493</v>
       </c>
       <c r="D153" s="59" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E153" s="60"/>
       <c r="F153" s="59" t="s">
@@ -7704,7 +7700,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A154" s="76"/>
+      <c r="A154" s="75"/>
       <c r="B154" s="58" t="s">
         <v>291</v>
       </c>
@@ -7718,7 +7714,7 @@
       <c r="F154" s="59"/>
     </row>
     <row r="155" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A155" s="76"/>
+      <c r="A155" s="75"/>
       <c r="B155" s="58" t="s">
         <v>293</v>
       </c>
@@ -7732,7 +7728,7 @@
       <c r="F155" s="59"/>
     </row>
     <row r="156" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A156" s="76"/>
+      <c r="A156" s="75"/>
       <c r="B156" s="58" t="s">
         <v>296</v>
       </c>
@@ -7746,7 +7742,7 @@
       <c r="F156" s="59"/>
     </row>
     <row r="157" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A157" s="76"/>
+      <c r="A157" s="75"/>
       <c r="B157" s="58" t="s">
         <v>298</v>
       </c>
@@ -7760,7 +7756,7 @@
       <c r="F157" s="59"/>
     </row>
     <row r="158" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A158" s="76"/>
+      <c r="A158" s="75"/>
       <c r="B158" s="58" t="s">
         <v>301</v>
       </c>
@@ -7774,7 +7770,7 @@
       <c r="F158" s="59"/>
     </row>
     <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A159" s="76"/>
+      <c r="A159" s="75"/>
       <c r="B159" s="58" t="s">
         <v>303</v>
       </c>
@@ -7786,7 +7782,7 @@
       <c r="F159" s="59"/>
     </row>
     <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A160" s="76"/>
+      <c r="A160" s="75"/>
       <c r="B160" s="58" t="s">
         <v>305</v>
       </c>
@@ -7800,7 +7796,7 @@
       <c r="F160" s="59"/>
     </row>
     <row r="161" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A161" s="76"/>
+      <c r="A161" s="75"/>
       <c r="B161" s="58" t="s">
         <v>307</v>
       </c>
@@ -7814,7 +7810,7 @@
       <c r="F161" s="59"/>
     </row>
     <row r="162" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A162" s="76"/>
+      <c r="A162" s="75"/>
       <c r="B162" s="58" t="s">
         <v>309</v>
       </c>
@@ -7828,7 +7824,7 @@
       <c r="F162" s="59"/>
     </row>
     <row r="163" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A163" s="76"/>
+      <c r="A163" s="75"/>
       <c r="B163" s="58" t="s">
         <v>311</v>
       </c>
@@ -7842,7 +7838,7 @@
       <c r="F163" s="59"/>
     </row>
     <row r="164" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A164" s="76"/>
+      <c r="A164" s="75"/>
       <c r="B164" s="58" t="s">
         <v>224</v>
       </c>
@@ -7856,7 +7852,7 @@
       <c r="F164" s="59"/>
     </row>
     <row r="165" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A165" s="76"/>
+      <c r="A165" s="75"/>
       <c r="B165" s="58" t="s">
         <v>315</v>
       </c>
@@ -7870,7 +7866,7 @@
       <c r="F165" s="59"/>
     </row>
     <row r="166" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A166" s="76"/>
+      <c r="A166" s="75"/>
       <c r="B166" s="58" t="s">
         <v>317</v>
       </c>
@@ -7884,7 +7880,7 @@
       <c r="F166" s="59"/>
     </row>
     <row r="167" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A167" s="76"/>
+      <c r="A167" s="75"/>
       <c r="B167" s="58" t="s">
         <v>319</v>
       </c>
@@ -7898,7 +7894,7 @@
       <c r="F167" s="59"/>
     </row>
     <row r="168" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A168" s="76"/>
+      <c r="A168" s="75"/>
       <c r="B168" s="58" t="s">
         <v>321</v>
       </c>
@@ -7916,7 +7912,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="76"/>
+      <c r="A169" s="75"/>
       <c r="B169" s="58"/>
       <c r="C169" s="58"/>
       <c r="D169" s="58"/>
@@ -7928,7 +7924,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="76"/>
+      <c r="A170" s="75"/>
       <c r="B170" s="58" t="s">
         <v>324</v>
       </c>
@@ -7942,7 +7938,7 @@
       <c r="F170" s="59"/>
     </row>
     <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="76"/>
+      <c r="A171" s="75"/>
       <c r="B171" s="58" t="s">
         <v>326</v>
       </c>
@@ -7958,7 +7954,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="76"/>
+      <c r="A172" s="75"/>
       <c r="B172" s="61" t="s">
         <v>328</v>
       </c>
@@ -7993,11 +7989,7 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8007,12 +7999,44 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F020023FF955149D2434D9634B069E3D44A42" ma:contentTypeVersion="49" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="765f642684fa63bc1b9312c368d0b6a5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e953fe045711556fedbcbd575ad79d22" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>5</Value>
+      <Value>3</Value>
+    </TaxCatchAll>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F020023FF955149D2434D9634B069E3D44A42" ma:contentTypeVersion="49" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="7de0253e052878c205c629c7b9a39860">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bf7e4c459c71c1022a16415033e36b7" ns3:_="">
     <xsd:import namespace="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -8252,38 +8276,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
-    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
-    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Value>5</Value>
-      <Value>3</Value>
-    </TaxCatchAll>
-    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
-        </TermInfo>
-      </Terms>
-    </i008215bacac45029ee8cafff4c8e93b>
-    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
-    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8297,32 +8293,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -8336,4 +8314,8 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F7FCEB4-96B2-42C6-8F8A-84C8CB21071A}"/>
 </file>
--- a/Support/A - Guides and Documentation/GLD_Dictionary_v01.xlsx
+++ b/Support/A - Guides and Documentation/GLD_Dictionary_v01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb529026\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup.sharepoint.com/sites/EMFJGFiles/Shared Documents/JOBS &amp; ECONOMIC GROWTH/Advisory Services and Analytics/GLD Expansion - P509260/Data Dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AD895A-609D-483A-8629-A555230E2BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{17AD895A-609D-483A-8629-A555230E2BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0CCCF94-D87C-44E2-9395-360BBEE8B6AD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
+    <workbookView xWindow="-25710" yWindow="-30" windowWidth="25820" windowHeight="15500" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
   </bookViews>
   <sheets>
     <sheet name="GLD Dictionary" sheetId="2" r:id="rId1"/>
@@ -1581,9 +1581,6 @@
 4 = Own funds; 5 = Other</t>
   </si>
   <si>
-    <t>migrated_from</t>
-  </si>
-  <si>
     <t>0 = Rural; 1 = Urban</t>
   </si>
   <si>
@@ -1790,6 +1787,9 @@
   </si>
   <si>
     <t>String of length four</t>
+  </si>
+  <si>
+    <t>migrated_from_urban</t>
   </si>
 </sst>
 </file>
@@ -2165,9 +2165,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2175,6 +2172,9 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2521,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655A41D-FAAE-4875-A0C4-A516EEA673B9}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,7 +2556,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2574,7 +2574,7 @@
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2592,7 +2592,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>220</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
@@ -2608,7 +2608,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="5" t="s">
         <v>354</v>
       </c>
@@ -2624,49 +2624,49 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="5" t="s">
         <v>321</v>
       </c>
@@ -2696,7 +2696,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="5" t="s">
         <v>322</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="5" t="s">
         <v>323</v>
       </c>
@@ -2718,13 +2718,13 @@
         <v>326</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -2742,7 +2742,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
@@ -2760,7 +2760,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
@@ -2792,7 +2792,7 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -2808,69 +2808,69 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="55"/>
+      <c r="B21" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>443</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="5" t="s">
         <v>319</v>
       </c>
@@ -2886,37 +2886,37 @@
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
       <c r="B23" s="52" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D23" s="52" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="53"/>
       <c r="F23" s="54" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
       <c r="B24" s="52" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C24" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="D24" s="52" t="s">
         <v>451</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>452</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="54" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="56" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -2934,7 +2934,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="24" t="s">
         <v>44</v>
       </c>
@@ -2952,7 +2952,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="24" t="s">
         <v>49</v>
       </c>
@@ -2968,7 +2968,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="24" t="s">
         <v>52</v>
       </c>
@@ -2984,7 +2984,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="32" t="s">
         <v>37</v>
       </c>
@@ -3000,7 +3000,7 @@
       <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="28" t="s">
         <v>55</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>35</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F31" s="7"/>
     </row>
@@ -3127,7 +3127,7 @@
         <v>79</v>
       </c>
       <c r="E37" s="6"/>
-      <c r="F37" s="58" t="s">
+      <c r="F37" s="57" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
         <v>79</v>
       </c>
       <c r="E38" s="6"/>
-      <c r="F38" s="55"/>
+      <c r="F38" s="58"/>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
@@ -3157,7 +3157,7 @@
         <v>79</v>
       </c>
       <c r="E39" s="6"/>
-      <c r="F39" s="55"/>
+      <c r="F39" s="58"/>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
@@ -3171,7 +3171,7 @@
         <v>79</v>
       </c>
       <c r="E40" s="6"/>
-      <c r="F40" s="55"/>
+      <c r="F40" s="58"/>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
@@ -3185,7 +3185,7 @@
         <v>79</v>
       </c>
       <c r="E41" s="6"/>
-      <c r="F41" s="55"/>
+      <c r="F41" s="58"/>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
@@ -3266,13 +3266,13 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="61"/>
       <c r="B47" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D47" s="25" t="s">
         <v>415</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>416</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="27" t="s">
@@ -3288,7 +3288,7 @@
         <v>367</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="27"/>
@@ -3302,7 +3302,7 @@
         <v>368</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="27"/>
@@ -3316,7 +3316,7 @@
         <v>380</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
@@ -3336,7 +3336,7 @@
       <c r="F51" s="31"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="55" t="s">
         <v>91</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -3354,7 +3354,7 @@
       <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="10" t="s">
         <v>92</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="F53" s="38"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="13" t="s">
         <v>96</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="F54" s="15"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="13" t="s">
         <v>98</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="F55" s="15"/>
     </row>
     <row r="56" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="13" t="s">
         <v>101</v>
       </c>
@@ -3420,7 +3420,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="13" t="s">
         <v>105</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="F57" s="15"/>
     </row>
     <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="16" t="s">
         <v>109</v>
       </c>
@@ -3444,33 +3444,33 @@
         <v>110</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>111</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="D59" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="2" t="s">
         <v>348</v>
       </c>
@@ -3482,11 +3482,11 @@
       </c>
       <c r="E60" s="19"/>
       <c r="F60" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="56" t="s">
         <v>407</v>
       </c>
       <c r="B61" s="39" t="s">
@@ -3502,7 +3502,7 @@
       <c r="F61" s="40"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="39" t="s">
         <v>402</v>
       </c>
@@ -3516,12 +3516,12 @@
       <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="39" t="s">
         <v>403</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D63" s="40" t="s">
         <v>100</v>
@@ -3530,12 +3530,12 @@
       <c r="F63" s="40"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="39" t="s">
         <v>404</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D64" s="40" t="s">
         <v>100</v>
@@ -3544,7 +3544,7 @@
       <c r="F64" s="40"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="39" t="s">
         <v>405</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="F65" s="40"/>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="39" t="s">
         <v>406</v>
       </c>
@@ -3572,7 +3572,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="56" t="s">
+      <c r="A67" s="55" t="s">
         <v>112</v>
       </c>
       <c r="B67" s="42" t="s">
@@ -3590,7 +3590,7 @@
       <c r="F67" s="44"/>
     </row>
     <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
+      <c r="A68" s="55"/>
       <c r="B68" s="45" t="s">
         <v>116</v>
       </c>
@@ -3608,7 +3608,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="45" t="s">
         <v>391</v>
       </c>
@@ -3624,7 +3624,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="45" t="s">
         <v>392</v>
       </c>
@@ -3640,7 +3640,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="45" t="s">
         <v>118</v>
       </c>
@@ -3656,7 +3656,7 @@
       <c r="F71" s="46"/>
     </row>
     <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="45" t="s">
         <v>119</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="F72" s="46"/>
     </row>
     <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="45" t="s">
         <v>120</v>
       </c>
@@ -3688,7 +3688,7 @@
       <c r="F73" s="46"/>
     </row>
     <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="45" t="s">
         <v>121</v>
       </c>
@@ -3704,7 +3704,7 @@
       <c r="F74" s="46"/>
     </row>
     <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="45" t="s">
         <v>122</v>
       </c>
@@ -3722,7 +3722,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="45" t="s">
         <v>124</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>233</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E76" s="47" t="s">
         <v>124</v>
@@ -3738,7 +3738,7 @@
       <c r="F76" s="46"/>
     </row>
     <row r="77" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="45" t="s">
         <v>331</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>333</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E77" s="47"/>
       <c r="F77" s="46" t="s">
@@ -3754,7 +3754,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="45" t="s">
         <v>125</v>
       </c>
@@ -3770,7 +3770,7 @@
       <c r="F78" s="46"/>
     </row>
     <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="45" t="s">
         <v>127</v>
       </c>
@@ -3786,7 +3786,7 @@
       <c r="F79" s="46"/>
     </row>
     <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
+      <c r="A80" s="55"/>
       <c r="B80" s="45" t="s">
         <v>129</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>238</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E80" s="47" t="s">
         <v>129</v>
@@ -3802,7 +3802,7 @@
       <c r="F80" s="46"/>
     </row>
     <row r="81" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
+      <c r="A81" s="55"/>
       <c r="B81" s="45" t="s">
         <v>330</v>
       </c>
@@ -3810,15 +3810,15 @@
         <v>332</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E81" s="47"/>
       <c r="F81" s="46" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="45" t="s">
         <v>381</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>382</v>
       </c>
       <c r="D82" s="46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E82" s="47"/>
       <c r="F82" s="46" t="s">
@@ -3834,7 +3834,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="45" t="s">
         <v>130</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="F83" s="46"/>
     </row>
     <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="45" t="s">
         <v>131</v>
       </c>
@@ -3866,7 +3866,7 @@
       <c r="F84" s="46"/>
     </row>
     <row r="85" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="45" t="s">
         <v>133</v>
       </c>
@@ -3882,7 +3882,7 @@
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="45" t="s">
         <v>134</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="F86" s="46"/>
     </row>
     <row r="87" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
+      <c r="A87" s="55"/>
       <c r="B87" s="45" t="s">
         <v>135</v>
       </c>
@@ -3914,7 +3914,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
+      <c r="A88" s="55"/>
       <c r="B88" s="45" t="s">
         <v>136</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="F88" s="46"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
+      <c r="A89" s="55"/>
       <c r="B89" s="45" t="s">
         <v>137</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="F89" s="46"/>
     </row>
     <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
+      <c r="A90" s="55"/>
       <c r="B90" s="45" t="s">
         <v>139</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="F90" s="46"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
+      <c r="A91" s="55"/>
       <c r="B91" s="45" t="s">
         <v>140</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="F91" s="46"/>
     </row>
     <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
+      <c r="A92" s="55"/>
       <c r="B92" s="45" t="s">
         <v>142</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="F92" s="46"/>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
+      <c r="A93" s="55"/>
       <c r="B93" s="45" t="s">
         <v>143</v>
       </c>
@@ -4008,7 +4008,7 @@
       <c r="F93" s="46"/>
     </row>
     <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="45" t="s">
         <v>144</v>
       </c>
@@ -4024,7 +4024,7 @@
       <c r="F94" s="46"/>
     </row>
     <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
+      <c r="A95" s="55"/>
       <c r="B95" s="45" t="s">
         <v>145</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="F95" s="46"/>
     </row>
     <row r="96" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
+      <c r="A96" s="55"/>
       <c r="B96" s="45" t="s">
         <v>146</v>
       </c>
@@ -4054,7 +4054,7 @@
       <c r="F96" s="46"/>
     </row>
     <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
+      <c r="A97" s="55"/>
       <c r="B97" s="45" t="s">
         <v>147</v>
       </c>
@@ -4070,7 +4070,7 @@
       <c r="F97" s="46"/>
     </row>
     <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
+      <c r="A98" s="55"/>
       <c r="B98" s="45" t="s">
         <v>335</v>
       </c>
@@ -4086,7 +4086,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
+      <c r="A99" s="55"/>
       <c r="B99" s="45" t="s">
         <v>148</v>
       </c>
@@ -4102,7 +4102,7 @@
       <c r="F99" s="46"/>
     </row>
     <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
+      <c r="A100" s="55"/>
       <c r="B100" s="45" t="s">
         <v>150</v>
       </c>
@@ -4118,7 +4118,7 @@
       <c r="F100" s="46"/>
     </row>
     <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
+      <c r="A101" s="55"/>
       <c r="B101" s="45" t="s">
         <v>152</v>
       </c>
@@ -4132,7 +4132,7 @@
       <c r="F101" s="46"/>
     </row>
     <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
+      <c r="A102" s="55"/>
       <c r="B102" s="45" t="s">
         <v>339</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>340</v>
       </c>
       <c r="D102" s="45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E102" s="47"/>
       <c r="F102" s="46" t="s">
@@ -4148,7 +4148,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="56"/>
+      <c r="A103" s="55"/>
       <c r="B103" s="45" t="s">
         <v>384</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>382</v>
       </c>
       <c r="D103" s="46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E103" s="47"/>
       <c r="F103" s="46" t="s">
@@ -4164,7 +4164,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
+      <c r="A104" s="55"/>
       <c r="B104" s="45" t="s">
         <v>153</v>
       </c>
@@ -4180,7 +4180,7 @@
       <c r="F104" s="46"/>
     </row>
     <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="56"/>
+      <c r="A105" s="55"/>
       <c r="B105" s="45" t="s">
         <v>154</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="F105" s="46"/>
     </row>
     <row r="106" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
+      <c r="A106" s="55"/>
       <c r="B106" s="45" t="s">
         <v>156</v>
       </c>
@@ -4212,7 +4212,7 @@
       <c r="F106" s="46"/>
     </row>
     <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
+      <c r="A107" s="55"/>
       <c r="B107" s="45" t="s">
         <v>157</v>
       </c>
@@ -4226,7 +4226,7 @@
       <c r="F107" s="46"/>
     </row>
     <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="56"/>
+      <c r="A108" s="55"/>
       <c r="B108" s="45" t="s">
         <v>158</v>
       </c>
@@ -4242,7 +4242,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
+      <c r="A109" s="55"/>
       <c r="B109" s="45" t="s">
         <v>159</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="F109" s="46"/>
     </row>
     <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="56"/>
+      <c r="A110" s="55"/>
       <c r="B110" s="45" t="s">
         <v>160</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="F110" s="46"/>
     </row>
     <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="56"/>
+      <c r="A111" s="55"/>
       <c r="B111" s="45" t="s">
         <v>161</v>
       </c>
@@ -4284,7 +4284,7 @@
       <c r="F111" s="46"/>
     </row>
     <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="56"/>
+      <c r="A112" s="55"/>
       <c r="B112" s="45" t="s">
         <v>162</v>
       </c>
@@ -4300,7 +4300,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="56"/>
+      <c r="A113" s="55"/>
       <c r="B113" s="45" t="s">
         <v>164</v>
       </c>
@@ -4314,7 +4314,7 @@
       <c r="F113" s="46"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="56"/>
+      <c r="A114" s="55"/>
       <c r="B114" s="45" t="s">
         <v>347</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="F114" s="46"/>
     </row>
     <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="56"/>
+      <c r="A115" s="55"/>
       <c r="B115" s="45" t="s">
         <v>358</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="F115" s="46"/>
     </row>
     <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="56"/>
+      <c r="A116" s="55"/>
       <c r="B116" s="45" t="s">
         <v>167</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="F116" s="46"/>
     </row>
     <row r="117" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="56"/>
+      <c r="A117" s="55"/>
       <c r="B117" s="45" t="s">
         <v>168</v>
       </c>
@@ -4370,7 +4370,7 @@
       <c r="F117" s="46"/>
     </row>
     <row r="118" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A118" s="56"/>
+      <c r="A118" s="55"/>
       <c r="B118" s="45" t="s">
         <v>169</v>
       </c>
@@ -4388,7 +4388,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="56"/>
+      <c r="A119" s="55"/>
       <c r="B119" s="45" t="s">
         <v>395</v>
       </c>
@@ -4404,7 +4404,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A120" s="56"/>
+      <c r="A120" s="55"/>
       <c r="B120" s="45" t="s">
         <v>396</v>
       </c>
@@ -4420,7 +4420,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="56"/>
+      <c r="A121" s="55"/>
       <c r="B121" s="45" t="s">
         <v>171</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="F121" s="46"/>
     </row>
     <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" s="56"/>
+      <c r="A122" s="55"/>
       <c r="B122" s="45" t="s">
         <v>172</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="F122" s="46"/>
     </row>
     <row r="123" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A123" s="56"/>
+      <c r="A123" s="55"/>
       <c r="B123" s="45" t="s">
         <v>173</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="F123" s="46"/>
     </row>
     <row r="124" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124" s="56"/>
+      <c r="A124" s="55"/>
       <c r="B124" s="45" t="s">
         <v>174</v>
       </c>
@@ -4478,7 +4478,7 @@
       <c r="F124" s="46"/>
     </row>
     <row r="125" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A125" s="56"/>
+      <c r="A125" s="55"/>
       <c r="B125" s="45" t="s">
         <v>175</v>
       </c>
@@ -4492,7 +4492,7 @@
       <c r="F125" s="46"/>
     </row>
     <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="56"/>
+      <c r="A126" s="55"/>
       <c r="B126" s="45" t="s">
         <v>176</v>
       </c>
@@ -4506,7 +4506,7 @@
       <c r="F126" s="46"/>
     </row>
     <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="56"/>
+      <c r="A127" s="55"/>
       <c r="B127" s="45" t="s">
         <v>337</v>
       </c>
@@ -4522,7 +4522,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A128" s="56"/>
+      <c r="A128" s="55"/>
       <c r="B128" s="45" t="s">
         <v>177</v>
       </c>
@@ -4536,7 +4536,7 @@
       <c r="F128" s="46"/>
     </row>
     <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="56"/>
+      <c r="A129" s="55"/>
       <c r="B129" s="45" t="s">
         <v>178</v>
       </c>
@@ -4550,7 +4550,7 @@
       <c r="F129" s="46"/>
     </row>
     <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="56"/>
+      <c r="A130" s="55"/>
       <c r="B130" s="45" t="s">
         <v>179</v>
       </c>
@@ -4564,7 +4564,7 @@
       <c r="F130" s="46"/>
     </row>
     <row r="131" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A131" s="56"/>
+      <c r="A131" s="55"/>
       <c r="B131" s="45" t="s">
         <v>341</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>342</v>
       </c>
       <c r="D131" s="45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E131" s="47"/>
       <c r="F131" s="46" t="s">
@@ -4580,7 +4580,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="56"/>
+      <c r="A132" s="55"/>
       <c r="B132" s="45" t="s">
         <v>385</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>382</v>
       </c>
       <c r="D132" s="46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E132" s="47"/>
       <c r="F132" s="46" t="s">
@@ -4596,7 +4596,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A133" s="56"/>
+      <c r="A133" s="55"/>
       <c r="B133" s="45" t="s">
         <v>180</v>
       </c>
@@ -4610,7 +4610,7 @@
       <c r="F133" s="46"/>
     </row>
     <row r="134" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A134" s="56"/>
+      <c r="A134" s="55"/>
       <c r="B134" s="45" t="s">
         <v>181</v>
       </c>
@@ -4624,7 +4624,7 @@
       <c r="F134" s="46"/>
     </row>
     <row r="135" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A135" s="56"/>
+      <c r="A135" s="55"/>
       <c r="B135" s="45" t="s">
         <v>182</v>
       </c>
@@ -4638,7 +4638,7 @@
       <c r="F135" s="46"/>
     </row>
     <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="56"/>
+      <c r="A136" s="55"/>
       <c r="B136" s="45" t="s">
         <v>183</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="F136" s="46"/>
     </row>
     <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A137" s="56"/>
+      <c r="A137" s="55"/>
       <c r="B137" s="45" t="s">
         <v>185</v>
       </c>
@@ -4666,7 +4666,7 @@
       <c r="F137" s="46"/>
     </row>
     <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="56"/>
+      <c r="A138" s="55"/>
       <c r="B138" s="45" t="s">
         <v>186</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="F138" s="46"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="56"/>
+      <c r="A139" s="55"/>
       <c r="B139" s="45" t="s">
         <v>187</v>
       </c>
@@ -4694,7 +4694,7 @@
       <c r="F139" s="46"/>
     </row>
     <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="56"/>
+      <c r="A140" s="55"/>
       <c r="B140" s="45" t="s">
         <v>189</v>
       </c>
@@ -4708,7 +4708,7 @@
       <c r="F140" s="46"/>
     </row>
     <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="56"/>
+      <c r="A141" s="55"/>
       <c r="B141" s="45" t="s">
         <v>190</v>
       </c>
@@ -4722,7 +4722,7 @@
       <c r="F141" s="46"/>
     </row>
     <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="56"/>
+      <c r="A142" s="55"/>
       <c r="B142" s="45" t="s">
         <v>191</v>
       </c>
@@ -4736,7 +4736,7 @@
       <c r="F142" s="46"/>
     </row>
     <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="56"/>
+      <c r="A143" s="55"/>
       <c r="B143" s="45" t="s">
         <v>192</v>
       </c>
@@ -4750,7 +4750,7 @@
       <c r="F143" s="46"/>
     </row>
     <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="56"/>
+      <c r="A144" s="55"/>
       <c r="B144" s="45" t="s">
         <v>193</v>
       </c>
@@ -4764,7 +4764,7 @@
       <c r="F144" s="46"/>
     </row>
     <row r="145" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="56"/>
+      <c r="A145" s="55"/>
       <c r="B145" s="45" t="s">
         <v>194</v>
       </c>
@@ -4780,7 +4780,7 @@
       <c r="F145" s="46"/>
     </row>
     <row r="146" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A146" s="56"/>
+      <c r="A146" s="55"/>
       <c r="B146" s="45" t="s">
         <v>195</v>
       </c>
@@ -4794,7 +4794,7 @@
       <c r="F146" s="46"/>
     </row>
     <row r="147" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="56"/>
+      <c r="A147" s="55"/>
       <c r="B147" s="45" t="s">
         <v>359</v>
       </c>
@@ -4808,7 +4808,7 @@
       <c r="F147" s="46"/>
     </row>
     <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="56"/>
+      <c r="A148" s="55"/>
       <c r="B148" s="45" t="s">
         <v>343</v>
       </c>
@@ -4824,7 +4824,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A149" s="56"/>
+      <c r="A149" s="55"/>
       <c r="B149" s="45" t="s">
         <v>196</v>
       </c>
@@ -4838,7 +4838,7 @@
       <c r="F149" s="46"/>
     </row>
     <row r="150" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A150" s="56"/>
+      <c r="A150" s="55"/>
       <c r="B150" s="45" t="s">
         <v>197</v>
       </c>
@@ -4852,7 +4852,7 @@
       <c r="F150" s="46"/>
     </row>
     <row r="151" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A151" s="56"/>
+      <c r="A151" s="55"/>
       <c r="B151" s="45" t="s">
         <v>198</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="F151" s="46"/>
     </row>
     <row r="152" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="56"/>
+      <c r="A152" s="55"/>
       <c r="B152" s="45" t="s">
         <v>345</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>346</v>
       </c>
       <c r="D152" s="45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E152" s="47"/>
       <c r="F152" s="46" t="s">
@@ -4882,7 +4882,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="56"/>
+      <c r="A153" s="55"/>
       <c r="B153" s="45" t="s">
         <v>386</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>382</v>
       </c>
       <c r="D153" s="46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E153" s="47"/>
       <c r="F153" s="46" t="s">
@@ -4898,7 +4898,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A154" s="56"/>
+      <c r="A154" s="55"/>
       <c r="B154" s="45" t="s">
         <v>200</v>
       </c>
@@ -4912,7 +4912,7 @@
       <c r="F154" s="46"/>
     </row>
     <row r="155" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A155" s="56"/>
+      <c r="A155" s="55"/>
       <c r="B155" s="45" t="s">
         <v>201</v>
       </c>
@@ -4926,7 +4926,7 @@
       <c r="F155" s="46"/>
     </row>
     <row r="156" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A156" s="56"/>
+      <c r="A156" s="55"/>
       <c r="B156" s="45" t="s">
         <v>202</v>
       </c>
@@ -4940,7 +4940,7 @@
       <c r="F156" s="46"/>
     </row>
     <row r="157" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A157" s="56"/>
+      <c r="A157" s="55"/>
       <c r="B157" s="45" t="s">
         <v>203</v>
       </c>
@@ -4954,7 +4954,7 @@
       <c r="F157" s="46"/>
     </row>
     <row r="158" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A158" s="56"/>
+      <c r="A158" s="55"/>
       <c r="B158" s="45" t="s">
         <v>205</v>
       </c>
@@ -4968,7 +4968,7 @@
       <c r="F158" s="46"/>
     </row>
     <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A159" s="56"/>
+      <c r="A159" s="55"/>
       <c r="B159" s="45" t="s">
         <v>206</v>
       </c>
@@ -4980,7 +4980,7 @@
       <c r="F159" s="46"/>
     </row>
     <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A160" s="56"/>
+      <c r="A160" s="55"/>
       <c r="B160" s="45" t="s">
         <v>207</v>
       </c>
@@ -4994,7 +4994,7 @@
       <c r="F160" s="46"/>
     </row>
     <row r="161" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A161" s="56"/>
+      <c r="A161" s="55"/>
       <c r="B161" s="45" t="s">
         <v>208</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="F161" s="46"/>
     </row>
     <row r="162" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A162" s="56"/>
+      <c r="A162" s="55"/>
       <c r="B162" s="45" t="s">
         <v>209</v>
       </c>
@@ -5022,7 +5022,7 @@
       <c r="F162" s="46"/>
     </row>
     <row r="163" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A163" s="56"/>
+      <c r="A163" s="55"/>
       <c r="B163" s="45" t="s">
         <v>210</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="F163" s="46"/>
     </row>
     <row r="164" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A164" s="56"/>
+      <c r="A164" s="55"/>
       <c r="B164" s="45" t="s">
         <v>166</v>
       </c>
@@ -5050,7 +5050,7 @@
       <c r="F164" s="46"/>
     </row>
     <row r="165" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A165" s="56"/>
+      <c r="A165" s="55"/>
       <c r="B165" s="45" t="s">
         <v>211</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="F165" s="46"/>
     </row>
     <row r="166" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A166" s="56"/>
+      <c r="A166" s="55"/>
       <c r="B166" s="45" t="s">
         <v>212</v>
       </c>
@@ -5078,7 +5078,7 @@
       <c r="F166" s="46"/>
     </row>
     <row r="167" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A167" s="56"/>
+      <c r="A167" s="55"/>
       <c r="B167" s="45" t="s">
         <v>213</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="F167" s="46"/>
     </row>
     <row r="168" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A168" s="56"/>
+      <c r="A168" s="55"/>
       <c r="B168" s="45" t="s">
         <v>214</v>
       </c>
@@ -5110,7 +5110,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="56"/>
+      <c r="A169" s="55"/>
       <c r="B169" s="45"/>
       <c r="C169" s="45"/>
       <c r="D169" s="45"/>
@@ -5122,7 +5122,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="56"/>
+      <c r="A170" s="55"/>
       <c r="B170" s="45" t="s">
         <v>217</v>
       </c>
@@ -5136,7 +5136,7 @@
       <c r="F170" s="46"/>
     </row>
     <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="56"/>
+      <c r="A171" s="55"/>
       <c r="B171" s="45" t="s">
         <v>218</v>
       </c>
@@ -5152,7 +5152,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="56"/>
+      <c r="A172" s="55"/>
       <c r="B172" s="48" t="s">
         <v>219</v>
       </c>
@@ -5215,24 +5215,10 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F020023FF955149D2434D9634B069E3D44A42" ma:contentTypeVersion="49" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="7de0253e052878c205c629c7b9a39860">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bf7e4c459c71c1022a16415033e36b7" ns3:_="">
     <xsd:import namespace="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
@@ -5474,6 +5460,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B6C801-2D56-49AD-B646-66F2DEE67E6F}">
   <ds:schemaRefs>
@@ -5491,14 +5491,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57006B0B-0545-4098-9CB2-7656BE68935F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57E4B27A-8808-4888-B99E-CD1DCEB32273}"/>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -5506,28 +5506,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F7FCEB4-96B2-42C6-8F8A-84C8CB21071A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>